--- a/data/list_hindu_temples_in_pak/20230408_list_hindu_temples_pakistan.xlsx
+++ b/data/list_hindu_temples_in_pak/20230408_list_hindu_temples_pakistan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA94F82-E6C5-A74D-B1FC-4152463C6754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB3FD26-ADC6-EB4B-BEA1-4837275A7408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{F972FD0D-5727-664D-8ADB-B0BAD774D1DF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="list_hindu_temples_in_pak" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_hindu_temples_in_pak!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_hindu_temples_in_pak!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="591">
   <si>
     <t>serial_number</t>
   </si>
@@ -2178,7 +2178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4996F06-64E2-9640-BC5E-872CBC50CF4C}">
-  <dimension ref="A1:R344"/>
+  <dimension ref="A1:P344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2188,7 +2188,7 @@
     <col min="8" max="8" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2226,25 +2226,19 @@
         <v>429</v>
       </c>
       <c r="M1" t="s">
-        <v>5</v>
+        <v>585</v>
       </c>
       <c r="N1" t="s">
-        <v>6</v>
+        <v>588</v>
       </c>
       <c r="O1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="P1" t="s">
-        <v>588</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>587</v>
-      </c>
-      <c r="R1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2257,6 +2251,12 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="2">
+        <v>32.869505699999998</v>
+      </c>
+      <c r="G2" s="2">
+        <v>74.244343599999993</v>
+      </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
@@ -2269,17 +2269,11 @@
       <c r="L2" t="s">
         <v>449</v>
       </c>
-      <c r="M2" s="2">
-        <v>32.869505699999998</v>
-      </c>
-      <c r="N2" s="2">
-        <v>74.244343599999993</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="M2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2292,29 +2286,29 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
+      <c r="F3" s="2">
+        <v>33.364798100000002</v>
+      </c>
+      <c r="G3" s="2">
+        <v>74.080548199999996</v>
+      </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="2">
-        <v>33.364798100000002</v>
-      </c>
-      <c r="N3" s="2">
-        <v>74.080548199999996</v>
+      <c r="M3" t="s">
+        <v>590</v>
+      </c>
+      <c r="N3" t="s">
+        <v>586</v>
       </c>
       <c r="O3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="P3" t="s">
         <v>586</v>
       </c>
-      <c r="Q3" t="s">
-        <v>586</v>
-      </c>
-      <c r="R3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2327,17 +2321,17 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="2">
+        <v>33.500846500000002</v>
+      </c>
+      <c r="G4" s="2">
+        <v>73.900709000000006</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="2">
-        <v>33.500846500000002</v>
-      </c>
-      <c r="N4" s="2">
-        <v>73.900709000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2347,17 +2341,17 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
+      <c r="F5" s="2">
+        <v>33.368030400000002</v>
+      </c>
+      <c r="G5" s="2">
+        <v>73.662450699999994</v>
+      </c>
       <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="2">
-        <v>33.368030400000002</v>
-      </c>
-      <c r="N5" s="2">
-        <v>73.662450699999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2367,17 +2361,17 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
+      <c r="F6" s="2">
+        <v>33.198731000000002</v>
+      </c>
+      <c r="G6" s="2">
+        <v>73.753434799999994</v>
+      </c>
       <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="2">
-        <v>33.198731000000002</v>
-      </c>
-      <c r="N6" s="2">
-        <v>73.753434799999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2387,6 +2381,12 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
+      <c r="F7" s="2">
+        <v>33.216738300000003</v>
+      </c>
+      <c r="G7" s="2">
+        <v>73.736017500000003</v>
+      </c>
       <c r="H7" t="s">
         <v>20</v>
       </c>
@@ -2399,14 +2399,8 @@
       <c r="L7" t="s">
         <v>449</v>
       </c>
-      <c r="M7" s="2">
-        <v>33.216738300000003</v>
-      </c>
-      <c r="N7" s="2">
-        <v>73.736017500000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2416,17 +2410,17 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
+      <c r="F8" s="2">
+        <v>34.3551036</v>
+      </c>
+      <c r="G8" s="2">
+        <v>73.476945799999996</v>
+      </c>
       <c r="H8" t="s">
         <v>455</v>
       </c>
-      <c r="M8" s="2">
-        <v>34.3551036</v>
-      </c>
-      <c r="N8" s="2">
-        <v>73.476945799999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2436,6 +2430,12 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
+      <c r="F9" s="2">
+        <v>34.792087500000001</v>
+      </c>
+      <c r="G9" s="2">
+        <v>74.189953099999997</v>
+      </c>
       <c r="H9" t="s">
         <v>23</v>
       </c>
@@ -2448,14 +2448,8 @@
       <c r="L9" t="s">
         <v>430</v>
       </c>
-      <c r="M9" s="2">
-        <v>34.792087500000001</v>
-      </c>
-      <c r="N9" s="2">
-        <v>74.189953099999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2465,17 +2459,17 @@
       <c r="C10" t="s">
         <v>24</v>
       </c>
+      <c r="F10" s="2">
+        <v>33.679956900000001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>73.956555100000003</v>
+      </c>
       <c r="H10" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="2">
-        <v>33.679956900000001</v>
-      </c>
-      <c r="N10" s="2">
-        <v>73.956555100000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2485,6 +2479,12 @@
       <c r="C11" t="s">
         <v>27</v>
       </c>
+      <c r="F11" s="2">
+        <v>25.514550400000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>65.5179574</v>
+      </c>
       <c r="H11" t="s">
         <v>28</v>
       </c>
@@ -2497,14 +2497,8 @@
       <c r="L11" t="s">
         <v>430</v>
       </c>
-      <c r="M11" s="2">
-        <v>25.514550400000001</v>
-      </c>
-      <c r="N11" s="2">
-        <v>65.5179574</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2514,17 +2508,17 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
+      <c r="F12" s="2">
+        <v>25.449444400000001</v>
+      </c>
+      <c r="G12" s="2">
+        <v>65.859166700000003</v>
+      </c>
       <c r="H12" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="2">
-        <v>25.449444400000001</v>
-      </c>
-      <c r="N12" s="2">
-        <v>65.859166700000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2537,17 +2531,17 @@
       <c r="D13" t="s">
         <v>30</v>
       </c>
+      <c r="F13" s="2">
+        <v>29.035158200000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>69.1596093</v>
+      </c>
       <c r="H13" t="s">
         <v>577</v>
       </c>
-      <c r="M13" s="2">
-        <v>29.035158200000001</v>
-      </c>
-      <c r="N13" s="2">
-        <v>69.1596093</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2557,17 +2551,17 @@
       <c r="C14" t="s">
         <v>31</v>
       </c>
+      <c r="F14" s="2">
+        <v>30.104406099999999</v>
+      </c>
+      <c r="G14" s="2">
+        <v>67.937458899999996</v>
+      </c>
       <c r="H14" t="s">
         <v>578</v>
       </c>
-      <c r="M14" s="2">
-        <v>30.104406099999999</v>
-      </c>
-      <c r="N14" s="2">
-        <v>67.937458899999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2577,6 +2571,12 @@
       <c r="C15" t="s">
         <v>31</v>
       </c>
+      <c r="F15" s="2">
+        <v>30.104406099999999</v>
+      </c>
+      <c r="G15" s="2">
+        <v>67.937458899999996</v>
+      </c>
       <c r="H15" t="s">
         <v>132</v>
       </c>
@@ -2589,14 +2589,8 @@
       <c r="L15" t="s">
         <v>449</v>
       </c>
-      <c r="M15" s="2">
-        <v>30.104406099999999</v>
-      </c>
-      <c r="N15" s="2">
-        <v>67.937458899999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2609,17 +2603,17 @@
       <c r="D16" t="s">
         <v>580</v>
       </c>
+      <c r="F16" s="2">
+        <v>28.856796599999999</v>
+      </c>
+      <c r="G16" s="2">
+        <v>67.809287800000007</v>
+      </c>
       <c r="H16" t="s">
         <v>579</v>
       </c>
-      <c r="M16" s="2">
-        <v>28.856796599999999</v>
-      </c>
-      <c r="N16" s="2">
-        <v>67.809287800000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2632,17 +2626,17 @@
       <c r="D17" t="s">
         <v>582</v>
       </c>
+      <c r="F17" s="2">
+        <v>28.957446600000001</v>
+      </c>
+      <c r="G17" s="2">
+        <v>67.888276099999999</v>
+      </c>
       <c r="H17" t="s">
         <v>581</v>
       </c>
-      <c r="M17" s="2">
-        <v>28.957446600000001</v>
-      </c>
-      <c r="N17" s="2">
-        <v>67.888276099999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2652,6 +2646,12 @@
       <c r="C18" t="s">
         <v>33</v>
       </c>
+      <c r="F18" s="2">
+        <v>29.052311199999998</v>
+      </c>
+      <c r="G18" s="2">
+        <v>66.587876699999995</v>
+      </c>
       <c r="H18" t="s">
         <v>583</v>
       </c>
@@ -2664,14 +2664,8 @@
       <c r="L18" t="s">
         <v>430</v>
       </c>
-      <c r="M18" s="2">
-        <v>29.052311199999998</v>
-      </c>
-      <c r="N18" s="2">
-        <v>66.587876699999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2684,17 +2678,17 @@
       <c r="D19" t="s">
         <v>457</v>
       </c>
+      <c r="F19" s="2">
+        <v>27.226508299999999</v>
+      </c>
+      <c r="G19" s="2">
+        <v>65.710429199999993</v>
+      </c>
       <c r="H19" t="s">
         <v>456</v>
       </c>
-      <c r="M19" s="2">
-        <v>27.226508299999999</v>
-      </c>
-      <c r="N19" s="2">
-        <v>65.710429199999993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2704,17 +2698,17 @@
       <c r="C20" t="s">
         <v>34</v>
       </c>
+      <c r="F20" s="2">
+        <v>27.816483699999999</v>
+      </c>
+      <c r="G20" s="2">
+        <v>66.6057378</v>
+      </c>
       <c r="H20" t="s">
         <v>293</v>
       </c>
-      <c r="M20" s="2">
-        <v>27.816483699999999</v>
-      </c>
-      <c r="N20" s="2">
-        <v>66.6057378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2724,17 +2718,17 @@
       <c r="C21" t="s">
         <v>36</v>
       </c>
+      <c r="F21" s="2">
+        <v>30.380582400000002</v>
+      </c>
+      <c r="G21" s="2">
+        <v>68.5962593</v>
+      </c>
       <c r="H21" t="s">
         <v>35</v>
       </c>
-      <c r="M21" s="2">
-        <v>30.380582400000002</v>
-      </c>
-      <c r="N21" s="2">
-        <v>68.5962593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2744,6 +2738,12 @@
       <c r="C22" t="s">
         <v>39</v>
       </c>
+      <c r="F22" s="2">
+        <v>29.882502500000001</v>
+      </c>
+      <c r="G22" s="2">
+        <v>66.784375999999995</v>
+      </c>
       <c r="H22" t="s">
         <v>153</v>
       </c>
@@ -2759,14 +2759,8 @@
       <c r="L22" t="s">
         <v>449</v>
       </c>
-      <c r="M22" s="2">
-        <v>29.882502500000001</v>
-      </c>
-      <c r="N22" s="2">
-        <v>66.784375999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2776,6 +2770,12 @@
       <c r="C23" t="s">
         <v>39</v>
       </c>
+      <c r="F23" s="2">
+        <v>29.882502500000001</v>
+      </c>
+      <c r="G23" s="2">
+        <v>66.784375999999995</v>
+      </c>
       <c r="H23" t="s">
         <v>584</v>
       </c>
@@ -2788,14 +2788,8 @@
       <c r="L23" t="s">
         <v>430</v>
       </c>
-      <c r="M23" s="2">
-        <v>29.882502500000001</v>
-      </c>
-      <c r="N23" s="2">
-        <v>66.784375999999995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2808,17 +2802,17 @@
       <c r="D24" t="s">
         <v>458</v>
       </c>
+      <c r="F24" s="2">
+        <v>28.7516772</v>
+      </c>
+      <c r="G24" s="2">
+        <v>68.076069700000005</v>
+      </c>
       <c r="H24" t="s">
         <v>459</v>
       </c>
-      <c r="M24" s="2">
-        <v>28.7516772</v>
-      </c>
-      <c r="N24" s="2">
-        <v>68.076069700000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2831,17 +2825,17 @@
       <c r="D25" t="s">
         <v>478</v>
       </c>
+      <c r="F25" s="2">
+        <v>28.549199699999999</v>
+      </c>
+      <c r="G25" s="2">
+        <v>68.214685700000004</v>
+      </c>
       <c r="H25" t="s">
         <v>477</v>
       </c>
-      <c r="M25" s="2">
-        <v>28.549199699999999</v>
-      </c>
-      <c r="N25" s="2">
-        <v>68.214685700000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2851,17 +2845,17 @@
       <c r="C26" t="s">
         <v>41</v>
       </c>
+      <c r="F26" s="2">
+        <v>30.1798398</v>
+      </c>
+      <c r="G26" s="2">
+        <v>66.9749731</v>
+      </c>
       <c r="H26" t="s">
         <v>476</v>
       </c>
-      <c r="M26" s="2">
-        <v>30.1798398</v>
-      </c>
-      <c r="N26" s="2">
-        <v>66.9749731</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2871,17 +2865,17 @@
       <c r="C27" t="s">
         <v>41</v>
       </c>
+      <c r="F27" s="2">
+        <v>30.196793799999998</v>
+      </c>
+      <c r="G27" s="2">
+        <v>67.012923099999995</v>
+      </c>
       <c r="H27" t="s">
         <v>475</v>
       </c>
-      <c r="M27" s="2">
-        <v>30.196793799999998</v>
-      </c>
-      <c r="N27" s="2">
-        <v>67.012923099999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2891,6 +2885,12 @@
       <c r="C28" t="s">
         <v>41</v>
       </c>
+      <c r="F28" s="2">
+        <v>30.1893189</v>
+      </c>
+      <c r="G28" s="2">
+        <v>67.012541999999996</v>
+      </c>
       <c r="H28" t="s">
         <v>51</v>
       </c>
@@ -2903,14 +2903,8 @@
       <c r="L28" t="s">
         <v>449</v>
       </c>
-      <c r="M28" s="2">
-        <v>30.1893189</v>
-      </c>
-      <c r="N28" s="2">
-        <v>67.012541999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2923,17 +2917,17 @@
       <c r="D29" t="s">
         <v>480</v>
       </c>
+      <c r="F29" s="2">
+        <v>30.209882199999999</v>
+      </c>
+      <c r="G29" s="2">
+        <v>67.009501099999994</v>
+      </c>
       <c r="H29" t="s">
         <v>479</v>
       </c>
-      <c r="M29" s="2">
-        <v>30.209882199999999</v>
-      </c>
-      <c r="N29" s="2">
-        <v>67.009501099999994</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2943,17 +2937,17 @@
       <c r="C30" t="s">
         <v>41</v>
       </c>
+      <c r="F30" s="2">
+        <v>30.1798398</v>
+      </c>
+      <c r="G30" s="2">
+        <v>66.9749731</v>
+      </c>
       <c r="H30" t="s">
         <v>293</v>
       </c>
-      <c r="M30" s="2">
-        <v>30.1798398</v>
-      </c>
-      <c r="N30" s="2">
-        <v>66.9749731</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2963,17 +2957,17 @@
       <c r="C31" t="s">
         <v>42</v>
       </c>
+      <c r="F31" s="2">
+        <v>29.549664100000001</v>
+      </c>
+      <c r="G31" s="2">
+        <v>67.877908599999998</v>
+      </c>
       <c r="H31" t="s">
         <v>44</v>
       </c>
-      <c r="M31" s="2">
-        <v>29.549664100000001</v>
-      </c>
-      <c r="N31" s="2">
-        <v>67.877908599999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2983,17 +2977,17 @@
       <c r="C32" t="s">
         <v>42</v>
       </c>
+      <c r="F32" s="2">
+        <v>29.553205500000001</v>
+      </c>
+      <c r="G32" s="2">
+        <v>67.8808243</v>
+      </c>
       <c r="H32" t="s">
         <v>45</v>
       </c>
-      <c r="M32" s="2">
-        <v>29.553205500000001</v>
-      </c>
-      <c r="N32" s="2">
-        <v>67.8808243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3006,6 +3000,12 @@
       <c r="D33" t="s">
         <v>481</v>
       </c>
+      <c r="F33" s="2">
+        <v>29.082774100000002</v>
+      </c>
+      <c r="G33" s="2">
+        <v>68.095445900000001</v>
+      </c>
       <c r="H33" t="s">
         <v>482</v>
       </c>
@@ -3018,14 +3018,8 @@
       <c r="L33" t="s">
         <v>430</v>
       </c>
-      <c r="M33" s="2">
-        <v>29.082774100000002</v>
-      </c>
-      <c r="N33" s="2">
-        <v>68.095445900000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3035,17 +3029,17 @@
       <c r="C34" t="s">
         <v>43</v>
       </c>
+      <c r="F34" s="2">
+        <v>31.349708100000001</v>
+      </c>
+      <c r="G34" s="2">
+        <v>69.466536300000001</v>
+      </c>
       <c r="H34" t="s">
         <v>483</v>
       </c>
-      <c r="M34" s="2">
-        <v>31.349708100000001</v>
-      </c>
-      <c r="N34" s="2">
-        <v>69.466536300000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3055,17 +3049,17 @@
       <c r="C35" t="s">
         <v>43</v>
       </c>
+      <c r="F35" s="2">
+        <v>31.349708100000001</v>
+      </c>
+      <c r="G35" s="2">
+        <v>69.466536300000001</v>
+      </c>
       <c r="H35" t="s">
         <v>476</v>
       </c>
-      <c r="M35" s="2">
-        <v>31.349708100000001</v>
-      </c>
-      <c r="N35" s="2">
-        <v>69.466536300000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3078,17 +3072,17 @@
       <c r="D36" t="s">
         <v>461</v>
       </c>
+      <c r="F36" s="2">
+        <v>33.742399499999998</v>
+      </c>
+      <c r="G36" s="2">
+        <v>73.061188200000004</v>
+      </c>
       <c r="H36" t="s">
         <v>460</v>
       </c>
-      <c r="M36" s="2">
-        <v>33.742399499999998</v>
-      </c>
-      <c r="N36" s="2">
-        <v>73.061188200000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3098,6 +3092,12 @@
       <c r="C37" t="s">
         <v>46</v>
       </c>
+      <c r="F37" s="2">
+        <v>33.684420199999998</v>
+      </c>
+      <c r="G37" s="2">
+        <v>73.047884800000006</v>
+      </c>
       <c r="H37" t="s">
         <v>51</v>
       </c>
@@ -3110,14 +3110,8 @@
       <c r="L37" t="s">
         <v>449</v>
       </c>
-      <c r="M37" s="2">
-        <v>33.684420199999998</v>
-      </c>
-      <c r="N37" s="2">
-        <v>73.047884800000006</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3127,17 +3121,17 @@
       <c r="C38" t="s">
         <v>46</v>
       </c>
+      <c r="F38" s="2">
+        <v>33.702662500000002</v>
+      </c>
+      <c r="G38" s="2">
+        <v>73.126109099999994</v>
+      </c>
       <c r="H38" t="s">
         <v>47</v>
       </c>
-      <c r="M38" s="2">
-        <v>33.702662500000002</v>
-      </c>
-      <c r="N38" s="2">
-        <v>73.126109099999994</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3147,17 +3141,17 @@
       <c r="C39" t="s">
         <v>49</v>
       </c>
+      <c r="F39" s="2">
+        <v>34.164266099999999</v>
+      </c>
+      <c r="G39" s="2">
+        <v>73.263966100000005</v>
+      </c>
       <c r="H39" t="s">
         <v>50</v>
       </c>
-      <c r="M39" s="2">
-        <v>34.164266099999999</v>
-      </c>
-      <c r="N39" s="2">
-        <v>73.263966100000005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3167,6 +3161,12 @@
       <c r="C40" t="s">
         <v>49</v>
       </c>
+      <c r="F40" s="2">
+        <v>34.168750199999998</v>
+      </c>
+      <c r="G40" s="2">
+        <v>73.221498199999999</v>
+      </c>
       <c r="H40" t="s">
         <v>51</v>
       </c>
@@ -3179,14 +3179,8 @@
       <c r="L40" t="s">
         <v>449</v>
       </c>
-      <c r="M40" s="2">
-        <v>34.168750199999998</v>
-      </c>
-      <c r="N40" s="2">
-        <v>73.221498199999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3199,17 +3193,17 @@
       <c r="D41" t="s">
         <v>462</v>
       </c>
+      <c r="F41" s="2">
+        <v>34.148786299999998</v>
+      </c>
+      <c r="G41" s="2">
+        <v>73.046781800000005</v>
+      </c>
       <c r="H41" t="s">
         <v>464</v>
       </c>
-      <c r="M41" s="2">
-        <v>34.148786299999998</v>
-      </c>
-      <c r="N41" s="2">
-        <v>73.046781800000005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3219,17 +3213,17 @@
       <c r="C42" t="s">
         <v>52</v>
       </c>
+      <c r="F42" s="2">
+        <v>31.831716700000001</v>
+      </c>
+      <c r="G42" s="2">
+        <v>70.910190400000005</v>
+      </c>
       <c r="H42" t="s">
         <v>53</v>
       </c>
-      <c r="M42" s="2">
-        <v>31.831716700000001</v>
-      </c>
-      <c r="N42" s="2">
-        <v>70.910190400000005</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3239,17 +3233,17 @@
       <c r="C43" t="s">
         <v>52</v>
       </c>
+      <c r="F43" s="2">
+        <v>32.253894000000003</v>
+      </c>
+      <c r="G43" s="2">
+        <v>71.158219700000004</v>
+      </c>
       <c r="H43" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="2">
-        <v>32.253894000000003</v>
-      </c>
-      <c r="N43" s="2">
-        <v>71.158219700000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3259,17 +3253,17 @@
       <c r="C44" t="s">
         <v>52</v>
       </c>
+      <c r="F44" s="2">
+        <v>31.862855199999998</v>
+      </c>
+      <c r="G44" s="2">
+        <v>70.9019543</v>
+      </c>
       <c r="H44" t="s">
         <v>55</v>
       </c>
-      <c r="M44" s="2">
-        <v>31.862855199999998</v>
-      </c>
-      <c r="N44" s="2">
-        <v>70.9019543</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3279,6 +3273,12 @@
       <c r="C45" t="s">
         <v>52</v>
       </c>
+      <c r="F45" s="2">
+        <v>31.827570099999999</v>
+      </c>
+      <c r="G45" s="2">
+        <v>70.911613900000006</v>
+      </c>
       <c r="H45" t="s">
         <v>56</v>
       </c>
@@ -3291,14 +3291,8 @@
       <c r="L45" t="s">
         <v>430</v>
       </c>
-      <c r="M45" s="2">
-        <v>31.827570099999999</v>
-      </c>
-      <c r="N45" s="2">
-        <v>70.911613900000006</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3308,17 +3302,17 @@
       <c r="C46" t="s">
         <v>57</v>
       </c>
+      <c r="F46" s="2">
+        <v>33.989603500000001</v>
+      </c>
+      <c r="G46" s="2">
+        <v>72.990170699999993</v>
+      </c>
       <c r="H46" t="s">
         <v>58</v>
       </c>
-      <c r="M46" s="2">
-        <v>33.989603500000001</v>
-      </c>
-      <c r="N46" s="2">
-        <v>72.990170699999993</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3328,6 +3322,12 @@
       <c r="C47" t="s">
         <v>57</v>
       </c>
+      <c r="F47" s="2">
+        <v>33.994646600000003</v>
+      </c>
+      <c r="G47" s="2">
+        <v>72.910620199999997</v>
+      </c>
       <c r="H47" t="s">
         <v>484</v>
       </c>
@@ -3340,14 +3340,8 @@
       <c r="L47" t="s">
         <v>449</v>
       </c>
-      <c r="M47" s="2">
-        <v>33.994646600000003</v>
-      </c>
-      <c r="N47" s="2">
-        <v>72.910620199999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3360,6 +3354,12 @@
       <c r="D48" t="s">
         <v>512</v>
       </c>
+      <c r="F48" s="2">
+        <v>34.002044599999998</v>
+      </c>
+      <c r="G48" s="2">
+        <v>72.938612699999993</v>
+      </c>
       <c r="H48" t="s">
         <v>51</v>
       </c>
@@ -3372,14 +3372,8 @@
       <c r="L48" t="s">
         <v>449</v>
       </c>
-      <c r="M48" s="2">
-        <v>34.002044599999998</v>
-      </c>
-      <c r="N48" s="2">
-        <v>72.938612699999993</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3389,6 +3383,12 @@
       <c r="C49" t="s">
         <v>57</v>
       </c>
+      <c r="F49" s="2">
+        <v>34.001178400000001</v>
+      </c>
+      <c r="G49" s="2">
+        <v>72.933711299999999</v>
+      </c>
       <c r="H49" t="s">
         <v>60</v>
       </c>
@@ -3401,14 +3401,8 @@
       <c r="L49" t="s">
         <v>430</v>
       </c>
-      <c r="M49" s="2">
-        <v>34.001178400000001</v>
-      </c>
-      <c r="N49" s="2">
-        <v>72.933711299999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3418,6 +3412,12 @@
       <c r="C50" t="s">
         <v>57</v>
       </c>
+      <c r="F50" s="2">
+        <v>33.999148099999999</v>
+      </c>
+      <c r="G50" s="2">
+        <v>72.932350799999995</v>
+      </c>
       <c r="H50" t="s">
         <v>59</v>
       </c>
@@ -3430,14 +3430,8 @@
       <c r="L50" t="s">
         <v>449</v>
       </c>
-      <c r="M50" s="2">
-        <v>33.999148099999999</v>
-      </c>
-      <c r="N50" s="2">
-        <v>72.932350799999995</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3450,17 +3444,17 @@
       <c r="D51" t="s">
         <v>463</v>
       </c>
+      <c r="F51" s="2">
+        <v>33.294249700000002</v>
+      </c>
+      <c r="G51" s="2">
+        <v>71.106230199999999</v>
+      </c>
       <c r="H51" t="s">
         <v>465</v>
       </c>
-      <c r="M51" s="2">
-        <v>33.294249700000002</v>
-      </c>
-      <c r="N51" s="2">
-        <v>71.106230199999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3470,6 +3464,12 @@
       <c r="C52" t="s">
         <v>62</v>
       </c>
+      <c r="F52" s="2">
+        <v>33.588855899999999</v>
+      </c>
+      <c r="G52" s="2">
+        <v>71.442928600000002</v>
+      </c>
       <c r="H52" t="s">
         <v>63</v>
       </c>
@@ -3482,14 +3482,8 @@
       <c r="L52" t="s">
         <v>449</v>
       </c>
-      <c r="M52" s="2">
-        <v>33.588855899999999</v>
-      </c>
-      <c r="N52" s="2">
-        <v>71.442928600000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3499,6 +3493,12 @@
       <c r="C53" t="s">
         <v>64</v>
       </c>
+      <c r="F53" s="2">
+        <v>34.806513500000001</v>
+      </c>
+      <c r="G53" s="2">
+        <v>72.354791500000005</v>
+      </c>
       <c r="H53" t="s">
         <v>65</v>
       </c>
@@ -3511,14 +3511,8 @@
       <c r="L53" t="s">
         <v>449</v>
       </c>
-      <c r="M53" s="2">
-        <v>34.806513500000001</v>
-      </c>
-      <c r="N53" s="2">
-        <v>72.354791500000005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3528,6 +3522,12 @@
       <c r="C54" t="s">
         <v>66</v>
       </c>
+      <c r="F54" s="2">
+        <v>34.507495200000001</v>
+      </c>
+      <c r="G54" s="2">
+        <v>71.898636300000007</v>
+      </c>
       <c r="H54" t="s">
         <v>67</v>
       </c>
@@ -3540,14 +3540,8 @@
       <c r="L54" t="s">
         <v>449</v>
       </c>
-      <c r="M54" s="2">
-        <v>34.507495200000001</v>
-      </c>
-      <c r="N54" s="2">
-        <v>71.898636300000007</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3557,6 +3551,12 @@
       <c r="C55" t="s">
         <v>68</v>
       </c>
+      <c r="F55" s="2">
+        <v>34.331258699999999</v>
+      </c>
+      <c r="G55" s="2">
+        <v>73.198000899999997</v>
+      </c>
       <c r="H55" t="s">
         <v>69</v>
       </c>
@@ -3572,14 +3572,8 @@
       <c r="L55" t="s">
         <v>430</v>
       </c>
-      <c r="M55" s="2">
-        <v>34.331258699999999</v>
-      </c>
-      <c r="N55" s="2">
-        <v>73.198000899999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3589,6 +3583,12 @@
       <c r="C56" t="s">
         <v>68</v>
       </c>
+      <c r="F56" s="2">
+        <v>34.398716800000003</v>
+      </c>
+      <c r="G56" s="2">
+        <v>73.219031799999996</v>
+      </c>
       <c r="H56" t="s">
         <v>71</v>
       </c>
@@ -3601,14 +3601,8 @@
       <c r="L56" t="s">
         <v>449</v>
       </c>
-      <c r="M56" s="2">
-        <v>34.398716800000003</v>
-      </c>
-      <c r="N56" s="2">
-        <v>73.219031799999996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3618,6 +3612,12 @@
       <c r="C57" t="s">
         <v>74</v>
       </c>
+      <c r="F57" s="2">
+        <v>34.198639399999998</v>
+      </c>
+      <c r="G57" s="2">
+        <v>72.0404293</v>
+      </c>
       <c r="H57" t="s">
         <v>72</v>
       </c>
@@ -3630,14 +3630,8 @@
       <c r="L57" t="s">
         <v>453</v>
       </c>
-      <c r="M57" s="2">
-        <v>34.198639399999998</v>
-      </c>
-      <c r="N57" s="2">
-        <v>72.0404293</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3647,17 +3641,17 @@
       <c r="C58" t="s">
         <v>74</v>
       </c>
+      <c r="F58" s="2">
+        <v>34.192251400000004</v>
+      </c>
+      <c r="G58" s="2">
+        <v>72.063852499999996</v>
+      </c>
       <c r="H58" t="s">
         <v>73</v>
       </c>
-      <c r="M58" s="2">
-        <v>34.192251400000004</v>
-      </c>
-      <c r="N58" s="2">
-        <v>72.063852499999996</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3667,6 +3661,12 @@
       <c r="C59" t="s">
         <v>75</v>
       </c>
+      <c r="F59" s="2">
+        <v>34.010464300000002</v>
+      </c>
+      <c r="G59" s="2">
+        <v>71.9875531</v>
+      </c>
       <c r="H59" t="s">
         <v>76</v>
       </c>
@@ -3679,14 +3679,8 @@
       <c r="L59" t="s">
         <v>449</v>
       </c>
-      <c r="M59" s="2">
-        <v>34.010464300000002</v>
-      </c>
-      <c r="N59" s="2">
-        <v>71.9875531</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3699,17 +3693,17 @@
       <c r="D60" t="s">
         <v>491</v>
       </c>
+      <c r="F60" s="2">
+        <v>34.010443500000001</v>
+      </c>
+      <c r="G60" s="2">
+        <v>71.571625499999996</v>
+      </c>
       <c r="H60" t="s">
         <v>490</v>
       </c>
-      <c r="M60" s="2">
-        <v>34.010443500000001</v>
-      </c>
-      <c r="N60" s="2">
-        <v>71.571625499999996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3722,6 +3716,12 @@
       <c r="D61" t="s">
         <v>492</v>
       </c>
+      <c r="F61" s="2">
+        <v>33.998958799999997</v>
+      </c>
+      <c r="G61" s="2">
+        <v>71.542114699999999</v>
+      </c>
       <c r="H61" t="s">
         <v>494</v>
       </c>
@@ -3734,14 +3734,8 @@
       <c r="L61" t="s">
         <v>449</v>
       </c>
-      <c r="M61" s="2">
-        <v>33.998958799999997</v>
-      </c>
-      <c r="N61" s="2">
-        <v>71.542114699999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3754,17 +3748,17 @@
       <c r="D62" t="s">
         <v>493</v>
       </c>
+      <c r="F62" s="2">
+        <v>34.011125999999997</v>
+      </c>
+      <c r="G62" s="2">
+        <v>71.579184999999995</v>
+      </c>
       <c r="H62" t="s">
         <v>495</v>
       </c>
-      <c r="M62" s="2">
-        <v>34.011125999999997</v>
-      </c>
-      <c r="N62" s="2">
-        <v>71.579184999999995</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3777,17 +3771,17 @@
       <c r="D63" t="s">
         <v>496</v>
       </c>
+      <c r="F63" s="2">
+        <v>34.008203799999997</v>
+      </c>
+      <c r="G63" s="2">
+        <v>71.580647999999997</v>
+      </c>
       <c r="H63" t="s">
         <v>498</v>
       </c>
-      <c r="M63" s="2">
-        <v>34.008203799999997</v>
-      </c>
-      <c r="N63" s="2">
-        <v>71.580647999999997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3800,6 +3794,12 @@
       <c r="D64" t="s">
         <v>497</v>
       </c>
+      <c r="F64" s="2">
+        <v>34.0020697</v>
+      </c>
+      <c r="G64" s="2">
+        <v>71.562983299999999</v>
+      </c>
       <c r="H64" t="s">
         <v>499</v>
       </c>
@@ -3812,14 +3812,8 @@
       <c r="L64" t="s">
         <v>449</v>
       </c>
-      <c r="M64" s="2">
-        <v>34.0020697</v>
-      </c>
-      <c r="N64" s="2">
-        <v>71.562983299999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3832,20 +3826,20 @@
       <c r="D65" t="s">
         <v>492</v>
       </c>
+      <c r="F65" s="2">
+        <v>33.998556000000001</v>
+      </c>
+      <c r="G65" s="2">
+        <v>71.541667000000004</v>
+      </c>
       <c r="H65" t="s">
         <v>500</v>
       </c>
       <c r="J65" t="s">
         <v>435</v>
       </c>
-      <c r="M65" s="2">
-        <v>33.998556000000001</v>
-      </c>
-      <c r="N65" s="2">
-        <v>71.541667000000004</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3855,20 +3849,20 @@
       <c r="C66" t="s">
         <v>78</v>
       </c>
+      <c r="F66" s="2">
+        <v>34.015136599999998</v>
+      </c>
+      <c r="G66" s="2">
+        <v>71.524915399999998</v>
+      </c>
       <c r="H66" t="s">
         <v>77</v>
       </c>
       <c r="J66" t="s">
         <v>435</v>
       </c>
-      <c r="M66" s="2">
-        <v>34.015136599999998</v>
-      </c>
-      <c r="N66" s="2">
-        <v>71.524915399999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3881,20 +3875,20 @@
       <c r="D67" t="s">
         <v>501</v>
       </c>
+      <c r="F67" s="2">
+        <v>34.013425499999997</v>
+      </c>
+      <c r="G67" s="2">
+        <v>71.579071600000006</v>
+      </c>
       <c r="H67" t="s">
         <v>502</v>
       </c>
       <c r="J67" t="s">
         <v>435</v>
       </c>
-      <c r="M67" s="2">
-        <v>34.013425499999997</v>
-      </c>
-      <c r="N67" s="2">
-        <v>71.579071600000006</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3907,6 +3901,12 @@
       <c r="D68" t="s">
         <v>504</v>
       </c>
+      <c r="F68" s="2">
+        <v>34.010111100000003</v>
+      </c>
+      <c r="G68" s="2">
+        <v>71.547072999999997</v>
+      </c>
       <c r="H68" t="s">
         <v>503</v>
       </c>
@@ -3919,14 +3919,8 @@
       <c r="L68" t="s">
         <v>449</v>
       </c>
-      <c r="M68" s="2">
-        <v>34.010111100000003</v>
-      </c>
-      <c r="N68" s="2">
-        <v>71.547072999999997</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3936,17 +3930,17 @@
       <c r="C69" t="s">
         <v>78</v>
       </c>
+      <c r="F69" s="2">
+        <v>34.013425499999997</v>
+      </c>
+      <c r="G69" s="2">
+        <v>71.579071600000006</v>
+      </c>
       <c r="H69" t="s">
         <v>79</v>
       </c>
-      <c r="M69" s="2">
-        <v>34.013425499999997</v>
-      </c>
-      <c r="N69" s="2">
-        <v>71.579071600000006</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3959,17 +3953,17 @@
       <c r="D70" t="s">
         <v>507</v>
       </c>
+      <c r="F70" s="2">
+        <v>33.895907399999999</v>
+      </c>
+      <c r="G70" s="2">
+        <v>72.2471599</v>
+      </c>
       <c r="H70" t="s">
         <v>506</v>
       </c>
-      <c r="M70" s="2">
-        <v>33.895907399999999</v>
-      </c>
-      <c r="N70" s="2">
-        <v>72.2471599</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3982,17 +3976,17 @@
       <c r="D71" t="s">
         <v>508</v>
       </c>
+      <c r="F71" s="2">
+        <v>33.908699200000001</v>
+      </c>
+      <c r="G71" s="2">
+        <v>72.493766699999995</v>
+      </c>
       <c r="H71" t="s">
         <v>510</v>
       </c>
-      <c r="M71" s="2">
-        <v>33.908699200000001</v>
-      </c>
-      <c r="N71" s="2">
-        <v>72.493766699999995</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4005,6 +3999,12 @@
       <c r="D72" t="s">
         <v>509</v>
       </c>
+      <c r="F72" s="2">
+        <v>33.567292899999998</v>
+      </c>
+      <c r="G72" s="2">
+        <v>72.650595699999997</v>
+      </c>
       <c r="H72" t="s">
         <v>132</v>
       </c>
@@ -4017,14 +4017,8 @@
       <c r="L72" t="s">
         <v>449</v>
       </c>
-      <c r="M72" s="2">
-        <v>33.567292899999998</v>
-      </c>
-      <c r="N72" s="2">
-        <v>72.650595699999997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4037,6 +4031,12 @@
       <c r="D73" t="s">
         <v>509</v>
       </c>
+      <c r="F73" s="2">
+        <v>33.567292899999998</v>
+      </c>
+      <c r="G73" s="2">
+        <v>72.650595699999997</v>
+      </c>
       <c r="H73" t="s">
         <v>51</v>
       </c>
@@ -4049,14 +4049,8 @@
       <c r="L73" t="s">
         <v>449</v>
       </c>
-      <c r="M73" s="2">
-        <v>33.567292899999998</v>
-      </c>
-      <c r="N73" s="2">
-        <v>72.650595699999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4069,17 +4063,17 @@
       <c r="D74" t="s">
         <v>507</v>
       </c>
+      <c r="F74" s="2">
+        <v>33.897333699999997</v>
+      </c>
+      <c r="G74" s="2">
+        <v>72.250858699999995</v>
+      </c>
       <c r="H74" t="s">
         <v>511</v>
       </c>
-      <c r="M74" s="2">
-        <v>33.897333699999997</v>
-      </c>
-      <c r="N74" s="2">
-        <v>72.250858699999995</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4089,17 +4083,17 @@
       <c r="C75" t="s">
         <v>85</v>
       </c>
+      <c r="F75" s="2">
+        <v>29.396739799999999</v>
+      </c>
+      <c r="G75" s="2">
+        <v>71.677453999999997</v>
+      </c>
       <c r="H75" t="s">
         <v>81</v>
       </c>
-      <c r="M75" s="2">
-        <v>29.396739799999999</v>
-      </c>
-      <c r="N75" s="2">
-        <v>71.677453999999997</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4109,17 +4103,17 @@
       <c r="C76" t="s">
         <v>86</v>
       </c>
+      <c r="F76" s="2">
+        <v>30.162243100000001</v>
+      </c>
+      <c r="G76" s="2">
+        <v>73.565302099999997</v>
+      </c>
       <c r="H76" t="s">
         <v>82</v>
       </c>
-      <c r="M76" s="2">
-        <v>30.162243100000001</v>
-      </c>
-      <c r="N76" s="2">
-        <v>73.565302099999997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4132,6 +4126,12 @@
       <c r="D77" t="s">
         <v>513</v>
       </c>
+      <c r="F77" s="2">
+        <v>28.311094099999998</v>
+      </c>
+      <c r="G77" s="2">
+        <v>70.126122699999996</v>
+      </c>
       <c r="H77" t="s">
         <v>51</v>
       </c>
@@ -4144,14 +4144,8 @@
       <c r="L77" t="s">
         <v>449</v>
       </c>
-      <c r="M77" s="2">
-        <v>28.311094099999998</v>
-      </c>
-      <c r="N77" s="2">
-        <v>70.126122699999996</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4161,17 +4155,17 @@
       <c r="C78" t="s">
         <v>83</v>
       </c>
+      <c r="F78" s="2">
+        <v>28.422843400000001</v>
+      </c>
+      <c r="G78" s="2">
+        <v>69.910366699999997</v>
+      </c>
       <c r="H78" t="s">
         <v>87</v>
       </c>
-      <c r="M78" s="2">
-        <v>28.422843400000001</v>
-      </c>
-      <c r="N78" s="2">
-        <v>69.910366699999997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4181,17 +4175,17 @@
       <c r="C79" t="s">
         <v>90</v>
       </c>
+      <c r="F79" s="2">
+        <v>31.624973900000001</v>
+      </c>
+      <c r="G79" s="2">
+        <v>71.058995100000004</v>
+      </c>
       <c r="H79" t="s">
         <v>88</v>
       </c>
-      <c r="M79" s="2">
-        <v>31.624973900000001</v>
-      </c>
-      <c r="N79" s="2">
-        <v>71.058995100000004</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4201,17 +4195,17 @@
       <c r="C80" t="s">
         <v>90</v>
       </c>
+      <c r="F80" s="2">
+        <v>31.389092399999999</v>
+      </c>
+      <c r="G80" s="2">
+        <v>71.438841699999998</v>
+      </c>
       <c r="H80" t="s">
         <v>89</v>
       </c>
-      <c r="M80" s="2">
-        <v>31.389092399999999</v>
-      </c>
-      <c r="N80" s="2">
-        <v>71.438841699999998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4221,17 +4215,17 @@
       <c r="C81" t="s">
         <v>97</v>
       </c>
+      <c r="F81" s="2">
+        <v>32.723988599999998</v>
+      </c>
+      <c r="G81" s="2">
+        <v>72.951643500000003</v>
+      </c>
       <c r="H81" t="s">
         <v>91</v>
       </c>
-      <c r="M81" s="2">
-        <v>32.723988599999998</v>
-      </c>
-      <c r="N81" s="2">
-        <v>72.951643500000003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4241,17 +4235,17 @@
       <c r="C82" t="s">
         <v>97</v>
       </c>
+      <c r="F82" s="2">
+        <v>32.704407000000003</v>
+      </c>
+      <c r="G82" s="2">
+        <v>72.834220999999999</v>
+      </c>
       <c r="H82" t="s">
         <v>92</v>
       </c>
-      <c r="M82" s="2">
-        <v>32.704407000000003</v>
-      </c>
-      <c r="N82" s="2">
-        <v>72.834220999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4261,17 +4255,17 @@
       <c r="C83" t="s">
         <v>97</v>
       </c>
+      <c r="F83" s="2">
+        <v>32.684562499999998</v>
+      </c>
+      <c r="G83" s="2">
+        <v>72.799562499999993</v>
+      </c>
       <c r="H83" t="s">
         <v>93</v>
       </c>
-      <c r="M83" s="2">
-        <v>32.684562499999998</v>
-      </c>
-      <c r="N83" s="2">
-        <v>72.799562499999993</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4281,17 +4275,17 @@
       <c r="C84" t="s">
         <v>97</v>
       </c>
+      <c r="F84" s="2">
+        <v>32.809942599999999</v>
+      </c>
+      <c r="G84" s="2">
+        <v>72.1031057</v>
+      </c>
       <c r="H84" t="s">
         <v>94</v>
       </c>
-      <c r="M84" s="2">
-        <v>32.809942599999999</v>
-      </c>
-      <c r="N84" s="2">
-        <v>72.1031057</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4301,17 +4295,17 @@
       <c r="C85" t="s">
         <v>97</v>
       </c>
+      <c r="F85" s="2">
+        <v>32.723353600000003</v>
+      </c>
+      <c r="G85" s="2">
+        <v>72.950808800000004</v>
+      </c>
       <c r="H85" t="s">
         <v>95</v>
       </c>
-      <c r="M85" s="2">
-        <v>32.723353600000003</v>
-      </c>
-      <c r="N85" s="2">
-        <v>72.950808800000004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4321,17 +4315,17 @@
       <c r="C86" t="s">
         <v>97</v>
       </c>
+      <c r="F86" s="2">
+        <v>32.917192999999997</v>
+      </c>
+      <c r="G86" s="2">
+        <v>72.408060500000005</v>
+      </c>
       <c r="H86" t="s">
         <v>96</v>
       </c>
-      <c r="M86" s="2">
-        <v>32.917192999999997</v>
-      </c>
-      <c r="N86" s="2">
-        <v>72.408060500000005</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4341,17 +4335,17 @@
       <c r="C87" t="s">
         <v>101</v>
       </c>
+      <c r="F87" s="2">
+        <v>31.729166200000002</v>
+      </c>
+      <c r="G87" s="2">
+        <v>72.982195399999995</v>
+      </c>
       <c r="H87" t="s">
         <v>98</v>
       </c>
-      <c r="M87" s="2">
-        <v>31.729166200000002</v>
-      </c>
-      <c r="N87" s="2">
-        <v>72.982195399999995</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4361,17 +4355,17 @@
       <c r="C88" t="s">
         <v>101</v>
       </c>
+      <c r="F88" s="2">
+        <v>31.6267779</v>
+      </c>
+      <c r="G88" s="2">
+        <v>72.804279699999995</v>
+      </c>
       <c r="H88" t="s">
         <v>99</v>
       </c>
-      <c r="M88" s="2">
-        <v>31.6267779</v>
-      </c>
-      <c r="N88" s="2">
-        <v>72.804279699999995</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4381,17 +4375,17 @@
       <c r="C89" t="s">
         <v>101</v>
       </c>
+      <c r="F89" s="2">
+        <v>31.729166200000002</v>
+      </c>
+      <c r="G89" s="2">
+        <v>72.982195399999995</v>
+      </c>
       <c r="H89" t="s">
         <v>100</v>
       </c>
-      <c r="M89" s="2">
-        <v>31.729166200000002</v>
-      </c>
-      <c r="N89" s="2">
-        <v>72.982195399999995</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4401,6 +4395,12 @@
       <c r="C90" t="s">
         <v>102</v>
       </c>
+      <c r="F90" s="2">
+        <v>30.0489423</v>
+      </c>
+      <c r="G90" s="2">
+        <v>70.645472999999996</v>
+      </c>
       <c r="H90" t="s">
         <v>76</v>
       </c>
@@ -4413,14 +4413,8 @@
       <c r="L90" t="s">
         <v>449</v>
       </c>
-      <c r="M90" s="2">
-        <v>30.0489423</v>
-      </c>
-      <c r="N90" s="2">
-        <v>70.645472999999996</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4430,6 +4424,12 @@
       <c r="C91" t="s">
         <v>104</v>
       </c>
+      <c r="F91" s="2">
+        <v>31.453114299999999</v>
+      </c>
+      <c r="G91" s="2">
+        <v>73.103978999999995</v>
+      </c>
       <c r="H91" t="s">
         <v>103</v>
       </c>
@@ -4442,14 +4442,8 @@
       <c r="L91" t="s">
         <v>449</v>
       </c>
-      <c r="M91" s="2">
-        <v>31.453114299999999</v>
-      </c>
-      <c r="N91" s="2">
-        <v>73.103978999999995</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4462,17 +4456,17 @@
       <c r="D92" t="s">
         <v>467</v>
       </c>
+      <c r="F92" s="2">
+        <v>31.4138457</v>
+      </c>
+      <c r="G92" s="2">
+        <v>73.074947300000005</v>
+      </c>
       <c r="H92" t="s">
         <v>466</v>
       </c>
-      <c r="M92" s="2">
-        <v>31.4138457</v>
-      </c>
-      <c r="N92" s="2">
-        <v>73.074947300000005</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4482,6 +4476,12 @@
       <c r="C93" t="s">
         <v>113</v>
       </c>
+      <c r="F93" s="2">
+        <v>32.454037800000002</v>
+      </c>
+      <c r="G93" s="2">
+        <v>74.183301299999997</v>
+      </c>
       <c r="H93" t="s">
         <v>105</v>
       </c>
@@ -4494,14 +4494,8 @@
       <c r="L93" t="s">
         <v>430</v>
       </c>
-      <c r="M93" s="2">
-        <v>32.454037800000002</v>
-      </c>
-      <c r="N93" s="2">
-        <v>74.183301299999997</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4511,17 +4505,17 @@
       <c r="C94" t="s">
         <v>113</v>
       </c>
+      <c r="F94" s="2">
+        <v>32.158379500000002</v>
+      </c>
+      <c r="G94" s="2">
+        <v>74.190348</v>
+      </c>
       <c r="H94" t="s">
         <v>106</v>
       </c>
-      <c r="M94" s="2">
-        <v>32.158379500000002</v>
-      </c>
-      <c r="N94" s="2">
-        <v>74.190348</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4531,17 +4525,17 @@
       <c r="C95" t="s">
         <v>113</v>
       </c>
+      <c r="F95" s="2">
+        <v>32.159260400000001</v>
+      </c>
+      <c r="G95" s="2">
+        <v>74.181634399999993</v>
+      </c>
       <c r="H95" t="s">
         <v>107</v>
       </c>
-      <c r="M95" s="2">
-        <v>32.159260400000001</v>
-      </c>
-      <c r="N95" s="2">
-        <v>74.181634399999993</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4551,6 +4545,12 @@
       <c r="C96" t="s">
         <v>113</v>
       </c>
+      <c r="F96" s="2">
+        <v>32.168587100000003</v>
+      </c>
+      <c r="G96" s="2">
+        <v>74.332075900000007</v>
+      </c>
       <c r="H96" t="s">
         <v>108</v>
       </c>
@@ -4563,14 +4563,8 @@
       <c r="L96" t="s">
         <v>449</v>
       </c>
-      <c r="M96" s="2">
-        <v>32.168587100000003</v>
-      </c>
-      <c r="N96" s="2">
-        <v>74.332075900000007</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4580,6 +4574,12 @@
       <c r="C97" t="s">
         <v>113</v>
       </c>
+      <c r="F97" s="2">
+        <v>32.187691899999997</v>
+      </c>
+      <c r="G97" s="2">
+        <v>74.194452900000002</v>
+      </c>
       <c r="H97" t="s">
         <v>469</v>
       </c>
@@ -4589,14 +4589,8 @@
       <c r="J97" t="s">
         <v>470</v>
       </c>
-      <c r="M97" s="2">
-        <v>32.187691899999997</v>
-      </c>
-      <c r="N97" s="2">
-        <v>74.194452900000002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4606,20 +4600,20 @@
       <c r="C98" t="s">
         <v>113</v>
       </c>
+      <c r="F98" s="2">
+        <v>32.323402299999998</v>
+      </c>
+      <c r="G98" s="2">
+        <v>73.781615400000007</v>
+      </c>
       <c r="H98" t="s">
         <v>109</v>
       </c>
       <c r="J98" t="s">
         <v>360</v>
       </c>
-      <c r="M98" s="2">
-        <v>32.323402299999998</v>
-      </c>
-      <c r="N98" s="2">
-        <v>73.781615400000007</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4629,17 +4623,17 @@
       <c r="C99" t="s">
         <v>113</v>
       </c>
+      <c r="F99" s="2">
+        <v>32.273810900000001</v>
+      </c>
+      <c r="G99" s="2">
+        <v>74.127666300000001</v>
+      </c>
       <c r="H99" t="s">
         <v>110</v>
       </c>
-      <c r="M99" s="2">
-        <v>32.273810900000001</v>
-      </c>
-      <c r="N99" s="2">
-        <v>74.127666300000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4649,17 +4643,17 @@
       <c r="C100" t="s">
         <v>113</v>
       </c>
+      <c r="F100" s="2">
+        <v>32.155256299999998</v>
+      </c>
+      <c r="G100" s="2">
+        <v>74.161458699999997</v>
+      </c>
       <c r="H100" t="s">
         <v>111</v>
       </c>
-      <c r="M100" s="2">
-        <v>32.155256299999998</v>
-      </c>
-      <c r="N100" s="2">
-        <v>74.161458699999997</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4669,17 +4663,17 @@
       <c r="C101" t="s">
         <v>113</v>
       </c>
+      <c r="F101" s="2">
+        <v>32.155993000000002</v>
+      </c>
+      <c r="G101" s="2">
+        <v>74.186264300000005</v>
+      </c>
       <c r="H101" t="s">
         <v>112</v>
       </c>
-      <c r="M101" s="2">
-        <v>32.155993000000002</v>
-      </c>
-      <c r="N101" s="2">
-        <v>74.186264300000005</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4689,17 +4683,17 @@
       <c r="C102" t="s">
         <v>116</v>
       </c>
+      <c r="F102" s="2">
+        <v>32.596472400000003</v>
+      </c>
+      <c r="G102" s="2">
+        <v>74.143080699999999</v>
+      </c>
       <c r="H102" t="s">
         <v>114</v>
       </c>
-      <c r="M102" s="2">
-        <v>32.596472400000003</v>
-      </c>
-      <c r="N102" s="2">
-        <v>74.143080699999999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4709,17 +4703,17 @@
       <c r="C103" t="s">
         <v>116</v>
       </c>
+      <c r="F103" s="2">
+        <v>32.490145499999997</v>
+      </c>
+      <c r="G103" s="2">
+        <v>74.029277800000003</v>
+      </c>
       <c r="H103" t="s">
         <v>115</v>
       </c>
-      <c r="M103" s="2">
-        <v>32.490145499999997</v>
-      </c>
-      <c r="N103" s="2">
-        <v>74.029277800000003</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4729,17 +4723,17 @@
       <c r="C104" t="s">
         <v>118</v>
       </c>
+      <c r="F104" s="2">
+        <v>31.9783103</v>
+      </c>
+      <c r="G104" s="2">
+        <v>73.585232899999994</v>
+      </c>
       <c r="H104" t="s">
         <v>117</v>
       </c>
-      <c r="M104" s="2">
-        <v>31.9783103</v>
-      </c>
-      <c r="N104" s="2">
-        <v>73.585232899999994</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4749,17 +4743,17 @@
       <c r="C105" t="s">
         <v>121</v>
       </c>
+      <c r="F105" s="2">
+        <v>31.305253400000002</v>
+      </c>
+      <c r="G105" s="2">
+        <v>72.325328900000002</v>
+      </c>
       <c r="H105" t="s">
         <v>119</v>
       </c>
-      <c r="M105" s="2">
-        <v>31.305253400000002</v>
-      </c>
-      <c r="N105" s="2">
-        <v>72.325328900000002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4769,17 +4763,17 @@
       <c r="C106" t="s">
         <v>121</v>
       </c>
+      <c r="F106" s="2">
+        <v>31.192921399999999</v>
+      </c>
+      <c r="G106" s="2">
+        <v>72.236378999999999</v>
+      </c>
       <c r="H106" t="s">
         <v>120</v>
       </c>
-      <c r="M106" s="2">
-        <v>31.192921399999999</v>
-      </c>
-      <c r="N106" s="2">
-        <v>72.236378999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4792,17 +4786,17 @@
       <c r="D107" t="s">
         <v>519</v>
       </c>
+      <c r="F107" s="2">
+        <v>32.942459100000001</v>
+      </c>
+      <c r="G107" s="2">
+        <v>73.7257496</v>
+      </c>
       <c r="H107" t="s">
         <v>523</v>
       </c>
-      <c r="M107" s="2">
-        <v>32.942459100000001</v>
-      </c>
-      <c r="N107" s="2">
-        <v>73.7257496</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4815,17 +4809,17 @@
       <c r="D108" t="s">
         <v>520</v>
       </c>
+      <c r="F108" s="2">
+        <v>32.964503200000003</v>
+      </c>
+      <c r="G108" s="2">
+        <v>73.574477900000005</v>
+      </c>
       <c r="H108" t="s">
         <v>523</v>
       </c>
-      <c r="M108" s="2">
-        <v>32.964503200000003</v>
-      </c>
-      <c r="N108" s="2">
-        <v>73.574477900000005</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4838,17 +4832,17 @@
       <c r="D109" t="s">
         <v>521</v>
       </c>
+      <c r="F109" s="2">
+        <v>32.850187499999997</v>
+      </c>
+      <c r="G109" s="2">
+        <v>73.453377900000007</v>
+      </c>
       <c r="H109" t="s">
         <v>523</v>
       </c>
-      <c r="M109" s="2">
-        <v>32.850187499999997</v>
-      </c>
-      <c r="N109" s="2">
-        <v>73.453377900000007</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4861,6 +4855,12 @@
       <c r="D110" t="s">
         <v>522</v>
       </c>
+      <c r="F110" s="2">
+        <v>32.927296900000002</v>
+      </c>
+      <c r="G110" s="2">
+        <v>73.734178700000001</v>
+      </c>
       <c r="H110" t="s">
         <v>132</v>
       </c>
@@ -4873,14 +4873,8 @@
       <c r="L110" t="s">
         <v>449</v>
       </c>
-      <c r="M110" s="2">
-        <v>32.927296900000002</v>
-      </c>
-      <c r="N110" s="2">
-        <v>73.734178700000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4893,17 +4887,17 @@
       <c r="D111" t="s">
         <v>524</v>
       </c>
+      <c r="F111" s="2">
+        <v>31.220554799999999</v>
+      </c>
+      <c r="G111" s="2">
+        <v>74.256080600000004</v>
+      </c>
       <c r="H111" t="s">
         <v>525</v>
       </c>
-      <c r="M111" s="2">
-        <v>31.220554799999999</v>
-      </c>
-      <c r="N111" s="2">
-        <v>74.256080600000004</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4913,17 +4907,17 @@
       <c r="C112" t="s">
         <v>124</v>
       </c>
+      <c r="F112" s="2">
+        <v>31.089594699999999</v>
+      </c>
+      <c r="G112" s="2">
+        <v>74.123996000000005</v>
+      </c>
       <c r="H112" t="s">
         <v>123</v>
       </c>
-      <c r="M112" s="2">
-        <v>31.089594699999999</v>
-      </c>
-      <c r="N112" s="2">
-        <v>74.123996000000005</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4936,17 +4930,17 @@
       <c r="D113" t="s">
         <v>526</v>
       </c>
+      <c r="F113" s="2">
+        <v>30.439370400000001</v>
+      </c>
+      <c r="G113" s="2">
+        <v>72.354720400000005</v>
+      </c>
       <c r="H113" t="s">
         <v>523</v>
       </c>
-      <c r="M113" s="2">
-        <v>30.439370400000001</v>
-      </c>
-      <c r="N113" s="2">
-        <v>72.354720400000005</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4959,17 +4953,17 @@
       <c r="D114" t="s">
         <v>527</v>
       </c>
+      <c r="F114" s="2">
+        <v>30.4010623</v>
+      </c>
+      <c r="G114" s="2">
+        <v>71.863062499999998</v>
+      </c>
       <c r="H114" t="s">
         <v>530</v>
       </c>
-      <c r="M114" s="2">
-        <v>30.4010623</v>
-      </c>
-      <c r="N114" s="2">
-        <v>71.863062499999998</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4982,17 +4976,17 @@
       <c r="D115" t="s">
         <v>527</v>
       </c>
+      <c r="F115" s="2">
+        <v>30.4010623</v>
+      </c>
+      <c r="G115" s="2">
+        <v>71.863062499999998</v>
+      </c>
       <c r="H115" t="s">
         <v>529</v>
       </c>
-      <c r="M115" s="2">
-        <v>30.4010623</v>
-      </c>
-      <c r="N115" s="2">
-        <v>71.863062499999998</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5005,17 +4999,17 @@
       <c r="D116" t="s">
         <v>527</v>
       </c>
+      <c r="F116" s="2">
+        <v>30.4010623</v>
+      </c>
+      <c r="G116" s="2">
+        <v>71.863062499999998</v>
+      </c>
       <c r="H116" t="s">
         <v>528</v>
       </c>
-      <c r="M116" s="2">
-        <v>30.4010623</v>
-      </c>
-      <c r="N116" s="2">
-        <v>71.863062499999998</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5028,17 +5022,17 @@
       <c r="D117" t="s">
         <v>531</v>
       </c>
+      <c r="F117" s="2">
+        <v>32.508378899999997</v>
+      </c>
+      <c r="G117" s="2">
+        <v>71.936654099999998</v>
+      </c>
       <c r="H117" t="s">
         <v>532</v>
       </c>
-      <c r="M117" s="2">
-        <v>32.508378899999997</v>
-      </c>
-      <c r="N117" s="2">
-        <v>71.936654099999998</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5051,6 +5045,12 @@
       <c r="D118" t="s">
         <v>533</v>
       </c>
+      <c r="F118" s="2">
+        <v>31.569813199999999</v>
+      </c>
+      <c r="G118" s="2">
+        <v>74.312015400000007</v>
+      </c>
       <c r="H118" t="s">
         <v>534</v>
       </c>
@@ -5063,14 +5063,8 @@
       <c r="L118" t="s">
         <v>449</v>
       </c>
-      <c r="M118" s="2">
-        <v>31.569813199999999</v>
-      </c>
-      <c r="N118" s="2">
-        <v>74.312015400000007</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5083,17 +5077,17 @@
       <c r="D119" t="s">
         <v>535</v>
       </c>
+      <c r="F119" s="2">
+        <v>31.483166700000002</v>
+      </c>
+      <c r="G119" s="2">
+        <v>74.239788799999999</v>
+      </c>
       <c r="H119" t="s">
         <v>536</v>
       </c>
-      <c r="M119" s="2">
-        <v>31.483166700000002</v>
-      </c>
-      <c r="N119" s="2">
-        <v>74.239788799999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5106,17 +5100,17 @@
       <c r="D120" t="s">
         <v>537</v>
       </c>
+      <c r="F120" s="2">
+        <v>31.531332299999999</v>
+      </c>
+      <c r="G120" s="2">
+        <v>74.318322199999997</v>
+      </c>
       <c r="H120" t="s">
         <v>538</v>
       </c>
-      <c r="M120" s="2">
-        <v>31.531332299999999</v>
-      </c>
-      <c r="N120" s="2">
-        <v>74.318322199999997</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5129,17 +5123,17 @@
       <c r="D121" t="s">
         <v>539</v>
       </c>
+      <c r="F121" s="2">
+        <v>31.442535849999999</v>
+      </c>
+      <c r="G121" s="2">
+        <v>74.528447319999998</v>
+      </c>
       <c r="H121" t="s">
         <v>540</v>
       </c>
-      <c r="M121" s="2">
-        <v>31.442535849999999</v>
-      </c>
-      <c r="N121" s="2">
-        <v>74.528447319999998</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5152,20 +5146,20 @@
       <c r="D122" t="s">
         <v>541</v>
       </c>
+      <c r="F122" s="2">
+        <v>31.5616533</v>
+      </c>
+      <c r="G122" s="2">
+        <v>74.336934499999998</v>
+      </c>
       <c r="H122" t="s">
         <v>361</v>
       </c>
       <c r="J122" t="s">
         <v>360</v>
       </c>
-      <c r="M122" s="2">
-        <v>31.5616533</v>
-      </c>
-      <c r="N122" s="2">
-        <v>74.336934499999998</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5178,6 +5172,12 @@
       <c r="D123" t="s">
         <v>514</v>
       </c>
+      <c r="F123" s="2">
+        <v>31.597927599999998</v>
+      </c>
+      <c r="G123" s="2">
+        <v>74.302470799999995</v>
+      </c>
       <c r="H123" t="s">
         <v>51</v>
       </c>
@@ -5190,14 +5190,8 @@
       <c r="L123" t="s">
         <v>449</v>
       </c>
-      <c r="M123" s="2">
-        <v>31.597927599999998</v>
-      </c>
-      <c r="N123" s="2">
-        <v>74.302470799999995</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5210,17 +5204,17 @@
       <c r="D124" t="s">
         <v>542</v>
       </c>
+      <c r="F124" s="2">
+        <v>31.588199500000002</v>
+      </c>
+      <c r="G124" s="2">
+        <v>74.3154234</v>
+      </c>
       <c r="H124" t="s">
         <v>543</v>
       </c>
-      <c r="M124" s="2">
-        <v>31.588199500000002</v>
-      </c>
-      <c r="N124" s="2">
-        <v>74.3154234</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5233,17 +5227,17 @@
       <c r="D125" t="s">
         <v>533</v>
       </c>
+      <c r="F125" s="2">
+        <v>31.574118500000001</v>
+      </c>
+      <c r="G125" s="2">
+        <v>74.316615299999995</v>
+      </c>
       <c r="H125" t="s">
         <v>544</v>
       </c>
-      <c r="M125" s="2">
-        <v>31.574118500000001</v>
-      </c>
-      <c r="N125" s="2">
-        <v>74.316615299999995</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5256,17 +5250,17 @@
       <c r="D126" t="s">
         <v>545</v>
       </c>
+      <c r="F126" s="2">
+        <v>31.529267600000001</v>
+      </c>
+      <c r="G126" s="2">
+        <v>74.541657200000003</v>
+      </c>
       <c r="H126" t="s">
         <v>549</v>
       </c>
-      <c r="M126" s="2">
-        <v>31.529267600000001</v>
-      </c>
-      <c r="N126" s="2">
-        <v>74.541657200000003</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5279,6 +5273,12 @@
       <c r="D127" t="s">
         <v>546</v>
       </c>
+      <c r="F127" s="2">
+        <v>31.4804642</v>
+      </c>
+      <c r="G127" s="2">
+        <v>74.323934199999997</v>
+      </c>
       <c r="H127" t="s">
         <v>304</v>
       </c>
@@ -5291,14 +5291,8 @@
       <c r="L127" t="s">
         <v>449</v>
       </c>
-      <c r="M127" s="2">
-        <v>31.4804642</v>
-      </c>
-      <c r="N127" s="2">
-        <v>74.323934199999997</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5311,20 +5305,20 @@
       <c r="D128" t="s">
         <v>548</v>
       </c>
+      <c r="F128" s="2">
+        <v>31.5613262</v>
+      </c>
+      <c r="G128" s="2">
+        <v>74.308317299999999</v>
+      </c>
       <c r="H128" t="s">
         <v>547</v>
       </c>
       <c r="J128" t="s">
         <v>360</v>
       </c>
-      <c r="M128" s="2">
-        <v>31.5613262</v>
-      </c>
-      <c r="N128" s="2">
-        <v>74.308317299999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5337,17 +5331,17 @@
       <c r="D129" t="s">
         <v>551</v>
       </c>
+      <c r="F129" s="2">
+        <v>31.576121100000002</v>
+      </c>
+      <c r="G129" s="2">
+        <v>74.317071999999996</v>
+      </c>
       <c r="H129" t="s">
         <v>550</v>
       </c>
-      <c r="M129" s="2">
-        <v>31.576121100000002</v>
-      </c>
-      <c r="N129" s="2">
-        <v>74.317071999999996</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5360,17 +5354,17 @@
       <c r="D130" t="s">
         <v>533</v>
       </c>
+      <c r="F130" s="2">
+        <v>31.569813199999999</v>
+      </c>
+      <c r="G130" s="2">
+        <v>74.312015400000007</v>
+      </c>
       <c r="H130" t="s">
         <v>503</v>
       </c>
-      <c r="M130" s="2">
-        <v>31.569813199999999</v>
-      </c>
-      <c r="N130" s="2">
-        <v>74.312015400000007</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5380,17 +5374,17 @@
       <c r="C131" t="s">
         <v>128</v>
       </c>
+      <c r="F131" s="2">
+        <v>31.590353799999999</v>
+      </c>
+      <c r="G131" s="2">
+        <v>74.304254</v>
+      </c>
       <c r="H131" t="s">
         <v>127</v>
       </c>
-      <c r="M131" s="2">
-        <v>31.590353799999999</v>
-      </c>
-      <c r="N131" s="2">
-        <v>74.304254</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5403,6 +5397,12 @@
       <c r="D132" t="s">
         <v>129</v>
       </c>
+      <c r="F132" s="2">
+        <v>30.9693492</v>
+      </c>
+      <c r="G132" s="2">
+        <v>70.942791400000004</v>
+      </c>
       <c r="H132" t="s">
         <v>552</v>
       </c>
@@ -5415,14 +5415,8 @@
       <c r="L132" t="s">
         <v>430</v>
       </c>
-      <c r="M132" s="2">
-        <v>30.9693492</v>
-      </c>
-      <c r="N132" s="2">
-        <v>70.942791400000004</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5435,17 +5429,17 @@
       <c r="D133" t="s">
         <v>553</v>
       </c>
+      <c r="F133" s="2">
+        <v>29.568622600000001</v>
+      </c>
+      <c r="G133" s="2">
+        <v>71.671784900000006</v>
+      </c>
       <c r="H133" t="s">
         <v>523</v>
       </c>
-      <c r="M133" s="2">
-        <v>29.568622600000001</v>
-      </c>
-      <c r="N133" s="2">
-        <v>71.671784900000006</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5455,6 +5449,12 @@
       <c r="C134" t="s">
         <v>131</v>
       </c>
+      <c r="F134" s="2">
+        <v>32.574164600000003</v>
+      </c>
+      <c r="G134" s="2">
+        <v>73.482837399999994</v>
+      </c>
       <c r="H134" t="s">
         <v>132</v>
       </c>
@@ -5467,14 +5467,8 @@
       <c r="L134" t="s">
         <v>449</v>
       </c>
-      <c r="M134" s="2">
-        <v>32.574164600000003</v>
-      </c>
-      <c r="N134" s="2">
-        <v>73.482837399999994</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5487,17 +5481,17 @@
       <c r="D135" t="s">
         <v>557</v>
       </c>
+      <c r="F135" s="2">
+        <v>32.961614699999998</v>
+      </c>
+      <c r="G135" s="2">
+        <v>71.5707965</v>
+      </c>
       <c r="H135" t="s">
         <v>556</v>
       </c>
-      <c r="M135" s="2">
-        <v>32.961614699999998</v>
-      </c>
-      <c r="N135" s="2">
-        <v>71.5707965</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5510,17 +5504,17 @@
       <c r="D136" t="s">
         <v>554</v>
       </c>
+      <c r="F136" s="2">
+        <v>30.133025700000001</v>
+      </c>
+      <c r="G136" s="2">
+        <v>71.440697</v>
+      </c>
       <c r="H136" t="s">
         <v>555</v>
       </c>
-      <c r="M136" s="2">
-        <v>30.133025700000001</v>
-      </c>
-      <c r="N136" s="2">
-        <v>71.440697</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5530,6 +5524,12 @@
       <c r="C137" t="s">
         <v>134</v>
       </c>
+      <c r="F137" s="2">
+        <v>30.157457999999998</v>
+      </c>
+      <c r="G137" s="2">
+        <v>71.524915399999998</v>
+      </c>
       <c r="H137" t="s">
         <v>558</v>
       </c>
@@ -5542,14 +5542,8 @@
       <c r="L137" t="s">
         <v>449</v>
       </c>
-      <c r="M137" s="2">
-        <v>30.157457999999998</v>
-      </c>
-      <c r="N137" s="2">
-        <v>71.524915399999998</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5562,20 +5556,20 @@
       <c r="D138" t="s">
         <v>559</v>
       </c>
+      <c r="F138" s="2">
+        <v>30.196959799999998</v>
+      </c>
+      <c r="G138" s="2">
+        <v>71.449602100000007</v>
+      </c>
       <c r="H138" t="s">
         <v>523</v>
       </c>
       <c r="J138" t="s">
         <v>435</v>
       </c>
-      <c r="M138" s="2">
-        <v>30.196959799999998</v>
-      </c>
-      <c r="N138" s="2">
-        <v>71.449602100000007</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5588,20 +5582,20 @@
       <c r="D139" t="s">
         <v>560</v>
       </c>
+      <c r="F139" s="2">
+        <v>30.1932869</v>
+      </c>
+      <c r="G139" s="2">
+        <v>71.465534700000006</v>
+      </c>
       <c r="H139" t="s">
         <v>561</v>
       </c>
       <c r="J139" t="s">
         <v>360</v>
       </c>
-      <c r="M139" s="2">
-        <v>30.1932869</v>
-      </c>
-      <c r="N139" s="2">
-        <v>71.465534700000006</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5614,17 +5608,17 @@
       <c r="D140" t="s">
         <v>560</v>
       </c>
+      <c r="F140" s="2">
+        <v>30.193413400000001</v>
+      </c>
+      <c r="G140" s="2">
+        <v>71.465757300000007</v>
+      </c>
       <c r="H140" t="s">
         <v>562</v>
       </c>
-      <c r="M140" s="2">
-        <v>30.193413400000001</v>
-      </c>
-      <c r="N140" s="2">
-        <v>71.465757300000007</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5637,17 +5631,17 @@
       <c r="D141" t="s">
         <v>564</v>
       </c>
+      <c r="F141" s="2">
+        <v>30.157457999999998</v>
+      </c>
+      <c r="G141" s="2">
+        <v>71.524915399999998</v>
+      </c>
       <c r="H141" t="s">
         <v>563</v>
       </c>
-      <c r="M141" s="2">
-        <v>30.157457999999998</v>
-      </c>
-      <c r="N141" s="2">
-        <v>71.524915399999998</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5657,6 +5651,12 @@
       <c r="C142" t="s">
         <v>134</v>
       </c>
+      <c r="F142" s="2">
+        <v>30.196775299999999</v>
+      </c>
+      <c r="G142" s="2">
+        <v>71.451860699999997</v>
+      </c>
       <c r="H142" t="s">
         <v>565</v>
       </c>
@@ -5669,14 +5669,8 @@
       <c r="L142" t="s">
         <v>449</v>
       </c>
-      <c r="M142" s="2">
-        <v>30.196775299999999</v>
-      </c>
-      <c r="N142" s="2">
-        <v>71.451860699999997</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5686,6 +5680,12 @@
       <c r="C143" t="s">
         <v>136</v>
       </c>
+      <c r="F143" s="2">
+        <v>30.073608700000001</v>
+      </c>
+      <c r="G143" s="2">
+        <v>71.180498799999995</v>
+      </c>
       <c r="H143" t="s">
         <v>135</v>
       </c>
@@ -5698,14 +5698,8 @@
       <c r="L143" t="s">
         <v>449</v>
       </c>
-      <c r="M143" s="2">
-        <v>30.073608700000001</v>
-      </c>
-      <c r="N143" s="2">
-        <v>71.180498799999995</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5718,17 +5712,17 @@
       <c r="D144" t="s">
         <v>137</v>
       </c>
+      <c r="F144" s="2">
+        <v>31.449151000000001</v>
+      </c>
+      <c r="G144" s="2">
+        <v>73.712479000000002</v>
+      </c>
       <c r="H144" t="s">
         <v>523</v>
       </c>
-      <c r="M144" s="2">
-        <v>31.449151000000001</v>
-      </c>
-      <c r="N144" s="2">
-        <v>73.712479000000002</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5741,17 +5735,17 @@
       <c r="D145" t="s">
         <v>567</v>
       </c>
+      <c r="F145" s="2">
+        <v>32.337004200000003</v>
+      </c>
+      <c r="G145" s="2">
+        <v>74.903339000000003</v>
+      </c>
       <c r="H145" t="s">
         <v>566</v>
       </c>
-      <c r="M145" s="2">
-        <v>32.337004200000003</v>
-      </c>
-      <c r="N145" s="2">
-        <v>74.903339000000003</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5764,17 +5758,17 @@
       <c r="D146" t="s">
         <v>567</v>
       </c>
+      <c r="F146" s="2">
+        <v>32.337004200000003</v>
+      </c>
+      <c r="G146" s="2">
+        <v>74.903339000000003</v>
+      </c>
       <c r="H146" t="s">
         <v>483</v>
       </c>
-      <c r="M146" s="2">
-        <v>32.337004200000003</v>
-      </c>
-      <c r="N146" s="2">
-        <v>74.903339000000003</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5787,6 +5781,12 @@
       <c r="D147" t="s">
         <v>569</v>
       </c>
+      <c r="F147" s="2">
+        <v>32.408405600000002</v>
+      </c>
+      <c r="G147" s="2">
+        <v>75.001236500000005</v>
+      </c>
       <c r="H147" t="s">
         <v>568</v>
       </c>
@@ -5799,14 +5799,8 @@
       <c r="L147" t="s">
         <v>430</v>
       </c>
-      <c r="M147" s="2">
-        <v>32.408405600000002</v>
-      </c>
-      <c r="N147" s="2">
-        <v>75.001236500000005</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5819,17 +5813,17 @@
       <c r="D148" t="s">
         <v>571</v>
       </c>
+      <c r="F148" s="2">
+        <v>31.587890900000001</v>
+      </c>
+      <c r="G148" s="2">
+        <v>74.325753700000007</v>
+      </c>
       <c r="H148" t="s">
         <v>523</v>
       </c>
-      <c r="M148" s="2">
-        <v>31.587890900000001</v>
-      </c>
-      <c r="N148" s="2">
-        <v>74.325753700000007</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5842,6 +5836,12 @@
       <c r="D149" t="s">
         <v>515</v>
       </c>
+      <c r="F149" s="2">
+        <v>32.381008999999999</v>
+      </c>
+      <c r="G149" s="2">
+        <v>75.204876200000001</v>
+      </c>
       <c r="H149" t="s">
         <v>132</v>
       </c>
@@ -5854,14 +5854,8 @@
       <c r="L149" t="s">
         <v>449</v>
       </c>
-      <c r="M149" s="2">
-        <v>32.381008999999999</v>
-      </c>
-      <c r="N149" s="2">
-        <v>75.204876200000001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5874,6 +5868,12 @@
       <c r="D150" t="s">
         <v>515</v>
       </c>
+      <c r="F150" s="2">
+        <v>32.381008999999999</v>
+      </c>
+      <c r="G150" s="2">
+        <v>75.204876200000001</v>
+      </c>
       <c r="H150" t="s">
         <v>51</v>
       </c>
@@ -5886,14 +5886,8 @@
       <c r="L150" t="s">
         <v>449</v>
       </c>
-      <c r="M150" s="2">
-        <v>32.381008999999999</v>
-      </c>
-      <c r="N150" s="2">
-        <v>75.204876200000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5906,20 +5900,20 @@
       <c r="D151" t="s">
         <v>138</v>
       </c>
+      <c r="F151" s="2">
+        <v>32.101406699999998</v>
+      </c>
+      <c r="G151" s="2">
+        <v>74.879951800000001</v>
+      </c>
       <c r="H151" t="s">
         <v>572</v>
       </c>
       <c r="J151" t="s">
         <v>360</v>
       </c>
-      <c r="M151" s="2">
-        <v>32.101406699999998</v>
-      </c>
-      <c r="N151" s="2">
-        <v>74.879951800000001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5932,17 +5926,17 @@
       <c r="D152" t="s">
         <v>573</v>
       </c>
+      <c r="F152" s="2">
+        <v>30.684246399999999</v>
+      </c>
+      <c r="G152" s="2">
+        <v>73.747785699999994</v>
+      </c>
       <c r="H152" t="s">
         <v>523</v>
       </c>
-      <c r="M152" s="2">
-        <v>30.684246399999999</v>
-      </c>
-      <c r="N152" s="2">
-        <v>73.747785699999994</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5955,17 +5949,17 @@
       <c r="D153" t="s">
         <v>575</v>
       </c>
+      <c r="F153" s="2">
+        <v>30.424184</v>
+      </c>
+      <c r="G153" s="2">
+        <v>73.274087800000004</v>
+      </c>
       <c r="H153" t="s">
         <v>574</v>
       </c>
-      <c r="M153" s="2">
-        <v>30.424184</v>
-      </c>
-      <c r="N153" s="2">
-        <v>73.274087800000004</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5975,6 +5969,12 @@
       <c r="C154" t="s">
         <v>141</v>
       </c>
+      <c r="F154" s="2">
+        <v>29.1044299</v>
+      </c>
+      <c r="G154" s="2">
+        <v>70.330117299999998</v>
+      </c>
       <c r="H154" t="s">
         <v>135</v>
       </c>
@@ -5987,14 +5987,8 @@
       <c r="L154" t="s">
         <v>449</v>
       </c>
-      <c r="M154" s="2">
-        <v>29.1044299</v>
-      </c>
-      <c r="N154" s="2">
-        <v>70.330117299999998</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6007,6 +6001,12 @@
       <c r="D155" t="s">
         <v>247</v>
       </c>
+      <c r="F155" s="2">
+        <v>33.601773100000003</v>
+      </c>
+      <c r="G155" s="2">
+        <v>73.052730699999998</v>
+      </c>
       <c r="H155" t="s">
         <v>516</v>
       </c>
@@ -6019,14 +6019,8 @@
       <c r="L155" t="s">
         <v>449</v>
       </c>
-      <c r="M155" s="2">
-        <v>33.601773100000003</v>
-      </c>
-      <c r="N155" s="2">
-        <v>73.052730699999998</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6036,6 +6030,12 @@
       <c r="C156" t="s">
         <v>152</v>
       </c>
+      <c r="F156" s="2">
+        <v>33.565110699999998</v>
+      </c>
+      <c r="G156" s="2">
+        <v>73.016913500000001</v>
+      </c>
       <c r="H156" t="s">
         <v>576</v>
       </c>
@@ -6048,14 +6048,8 @@
       <c r="L156" t="s">
         <v>449</v>
       </c>
-      <c r="M156" s="2">
-        <v>33.565110699999998</v>
-      </c>
-      <c r="N156" s="2">
-        <v>73.016913500000001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6065,17 +6059,17 @@
       <c r="C157" t="s">
         <v>152</v>
       </c>
+      <c r="F157" s="2">
+        <v>33.614908499999999</v>
+      </c>
+      <c r="G157" s="2">
+        <v>73.059033700000001</v>
+      </c>
       <c r="H157" t="s">
         <v>142</v>
       </c>
-      <c r="M157" s="2">
-        <v>33.614908499999999</v>
-      </c>
-      <c r="N157" s="2">
-        <v>73.059033700000001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6085,17 +6079,17 @@
       <c r="C158" t="s">
         <v>152</v>
       </c>
+      <c r="F158" s="2">
+        <v>33.6205091</v>
+      </c>
+      <c r="G158" s="2">
+        <v>73.054654999999997</v>
+      </c>
       <c r="H158" t="s">
         <v>143</v>
       </c>
-      <c r="M158" s="2">
-        <v>33.6205091</v>
-      </c>
-      <c r="N158" s="2">
-        <v>73.054654999999997</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6105,17 +6099,17 @@
       <c r="C159" t="s">
         <v>152</v>
       </c>
+      <c r="F159" s="2">
+        <v>33.615389399999998</v>
+      </c>
+      <c r="G159" s="2">
+        <v>73.061143599999994</v>
+      </c>
       <c r="H159" t="s">
         <v>144</v>
       </c>
-      <c r="M159" s="2">
-        <v>33.615389399999998</v>
-      </c>
-      <c r="N159" s="2">
-        <v>73.061143599999994</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6125,17 +6119,17 @@
       <c r="C160" t="s">
         <v>152</v>
       </c>
+      <c r="F160" s="2">
+        <v>33.614437700000003</v>
+      </c>
+      <c r="G160" s="2">
+        <v>73.052518399999997</v>
+      </c>
       <c r="H160" t="s">
         <v>145</v>
       </c>
-      <c r="M160" s="2">
-        <v>33.614437700000003</v>
-      </c>
-      <c r="N160" s="2">
-        <v>73.052518399999997</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6145,17 +6139,17 @@
       <c r="C161" t="s">
         <v>152</v>
       </c>
+      <c r="F161" s="2">
+        <v>33.589613800000002</v>
+      </c>
+      <c r="G161" s="2">
+        <v>73.388552599999997</v>
+      </c>
       <c r="H161" t="s">
         <v>146</v>
       </c>
-      <c r="M161" s="2">
-        <v>33.589613800000002</v>
-      </c>
-      <c r="N161" s="2">
-        <v>73.388552599999997</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6165,17 +6159,17 @@
       <c r="C162" t="s">
         <v>152</v>
       </c>
+      <c r="F162" s="2">
+        <v>33.765708600000004</v>
+      </c>
+      <c r="G162" s="2">
+        <v>72.824848799999998</v>
+      </c>
       <c r="H162" t="s">
         <v>147</v>
       </c>
-      <c r="M162" s="2">
-        <v>33.765708600000004</v>
-      </c>
-      <c r="N162" s="2">
-        <v>72.824848799999998</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6185,17 +6179,17 @@
       <c r="C163" t="s">
         <v>152</v>
       </c>
+      <c r="F163" s="2">
+        <v>33.621906099999997</v>
+      </c>
+      <c r="G163" s="2">
+        <v>73.064295599999994</v>
+      </c>
       <c r="H163" t="s">
         <v>148</v>
       </c>
-      <c r="M163" s="2">
-        <v>33.621906099999997</v>
-      </c>
-      <c r="N163" s="2">
-        <v>73.064295599999994</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6208,6 +6202,12 @@
       <c r="D164" t="s">
         <v>517</v>
       </c>
+      <c r="F164" s="2">
+        <v>33.617827900000002</v>
+      </c>
+      <c r="G164" s="2">
+        <v>73.057314500000004</v>
+      </c>
       <c r="H164" t="s">
         <v>51</v>
       </c>
@@ -6220,14 +6220,8 @@
       <c r="L164" t="s">
         <v>449</v>
       </c>
-      <c r="M164" s="2">
-        <v>33.617827900000002</v>
-      </c>
-      <c r="N164" s="2">
-        <v>73.057314500000004</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6237,17 +6231,17 @@
       <c r="C165" t="s">
         <v>152</v>
       </c>
+      <c r="F165" s="2">
+        <v>33.5823514</v>
+      </c>
+      <c r="G165" s="2">
+        <v>73.056620600000002</v>
+      </c>
       <c r="H165" t="s">
         <v>149</v>
       </c>
-      <c r="M165" s="2">
-        <v>33.5823514</v>
-      </c>
-      <c r="N165" s="2">
-        <v>73.056620600000002</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6257,17 +6251,17 @@
       <c r="C166" t="s">
         <v>152</v>
       </c>
+      <c r="F166" s="2">
+        <v>33.604308099999997</v>
+      </c>
+      <c r="G166" s="2">
+        <v>73.058974699999993</v>
+      </c>
       <c r="H166" t="s">
         <v>150</v>
       </c>
-      <c r="M166" s="2">
-        <v>33.604308099999997</v>
-      </c>
-      <c r="N166" s="2">
-        <v>73.058974699999993</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6277,17 +6271,17 @@
       <c r="C167" t="s">
         <v>152</v>
       </c>
+      <c r="F167" s="2">
+        <v>33.460532600000001</v>
+      </c>
+      <c r="G167" s="2">
+        <v>73.2646601</v>
+      </c>
       <c r="H167" t="s">
         <v>151</v>
       </c>
-      <c r="M167" s="2">
-        <v>33.460532600000001</v>
-      </c>
-      <c r="N167" s="2">
-        <v>73.2646601</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6297,6 +6291,12 @@
       <c r="C168" t="s">
         <v>154</v>
       </c>
+      <c r="F168" s="2">
+        <v>30.6681998</v>
+      </c>
+      <c r="G168" s="2">
+        <v>73.111356000000001</v>
+      </c>
       <c r="H168" t="s">
         <v>153</v>
       </c>
@@ -6309,14 +6309,8 @@
       <c r="L168" t="s">
         <v>449</v>
       </c>
-      <c r="M168" s="2">
-        <v>30.6681998</v>
-      </c>
-      <c r="N168" s="2">
-        <v>73.111356000000001</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6326,17 +6320,17 @@
       <c r="C169" t="s">
         <v>160</v>
       </c>
+      <c r="F169" s="2">
+        <v>32.484938300000003</v>
+      </c>
+      <c r="G169" s="2">
+        <v>72.908876699999993</v>
+      </c>
       <c r="H169" t="s">
         <v>155</v>
       </c>
-      <c r="M169" s="2">
-        <v>32.484938300000003</v>
-      </c>
-      <c r="N169" s="2">
-        <v>72.908876699999993</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6349,17 +6343,17 @@
       <c r="D170" t="s">
         <v>472</v>
       </c>
+      <c r="F170" s="2">
+        <v>32.275140999999998</v>
+      </c>
+      <c r="G170" s="2">
+        <v>72.904713599999994</v>
+      </c>
       <c r="H170" t="s">
         <v>471</v>
       </c>
-      <c r="M170" s="2">
-        <v>32.275140999999998</v>
-      </c>
-      <c r="N170" s="2">
-        <v>72.904713599999994</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6369,17 +6363,17 @@
       <c r="C171" t="s">
         <v>160</v>
       </c>
+      <c r="F171" s="2">
+        <v>32.479813900000003</v>
+      </c>
+      <c r="G171" s="2">
+        <v>72.919556099999994</v>
+      </c>
       <c r="H171" t="s">
         <v>156</v>
       </c>
-      <c r="M171" s="2">
-        <v>32.479813900000003</v>
-      </c>
-      <c r="N171" s="2">
-        <v>72.919556099999994</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6389,17 +6383,17 @@
       <c r="C172" t="s">
         <v>160</v>
       </c>
+      <c r="F172" s="2">
+        <v>32.477007200000003</v>
+      </c>
+      <c r="G172" s="2">
+        <v>72.913573400000004</v>
+      </c>
       <c r="H172" t="s">
         <v>157</v>
       </c>
-      <c r="M172" s="2">
-        <v>32.477007200000003</v>
-      </c>
-      <c r="N172" s="2">
-        <v>72.913573400000004</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6409,17 +6403,17 @@
       <c r="C173" t="s">
         <v>160</v>
       </c>
+      <c r="F173" s="2">
+        <v>32.477007200000003</v>
+      </c>
+      <c r="G173" s="2">
+        <v>72.913573400000004</v>
+      </c>
       <c r="H173" t="s">
         <v>158</v>
       </c>
-      <c r="M173" s="2">
-        <v>32.477007200000003</v>
-      </c>
-      <c r="N173" s="2">
-        <v>72.913573400000004</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6429,6 +6423,12 @@
       <c r="C174" t="s">
         <v>160</v>
       </c>
+      <c r="F174" s="2">
+        <v>32.484149600000002</v>
+      </c>
+      <c r="G174" s="2">
+        <v>72.912057500000003</v>
+      </c>
       <c r="H174" t="s">
         <v>159</v>
       </c>
@@ -6441,14 +6441,8 @@
       <c r="L174" t="s">
         <v>449</v>
       </c>
-      <c r="M174" s="2">
-        <v>32.484149600000002</v>
-      </c>
-      <c r="N174" s="2">
-        <v>72.912057500000003</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6458,17 +6452,17 @@
       <c r="C175" t="s">
         <v>162</v>
       </c>
+      <c r="F175" s="2">
+        <v>31.817726499999999</v>
+      </c>
+      <c r="G175" s="2">
+        <v>74.273084499999996</v>
+      </c>
       <c r="H175" t="s">
         <v>161</v>
       </c>
-      <c r="M175" s="2">
-        <v>31.817726499999999</v>
-      </c>
-      <c r="N175" s="2">
-        <v>74.273084499999996</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6478,17 +6472,17 @@
       <c r="C176" t="s">
         <v>163</v>
       </c>
+      <c r="F176" s="2">
+        <v>32.495097299999998</v>
+      </c>
+      <c r="G176" s="2">
+        <v>74.522159099999996</v>
+      </c>
       <c r="H176" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="M176" s="2">
-        <v>32.495097299999998</v>
-      </c>
-      <c r="N176" s="2">
-        <v>74.522159099999996</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6498,17 +6492,17 @@
       <c r="C177" t="s">
         <v>163</v>
       </c>
+      <c r="F177" s="2">
+        <v>32.092453900000002</v>
+      </c>
+      <c r="G177" s="2">
+        <v>74.581477300000003</v>
+      </c>
       <c r="H177" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M177" s="2">
-        <v>32.092453900000002</v>
-      </c>
-      <c r="N177" s="2">
-        <v>74.581477300000003</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6518,6 +6512,12 @@
       <c r="C178" t="s">
         <v>163</v>
       </c>
+      <c r="F178" s="2">
+        <v>32.738906700000001</v>
+      </c>
+      <c r="G178" s="2">
+        <v>74.591727800000001</v>
+      </c>
       <c r="H178" s="1" t="s">
         <v>166</v>
       </c>
@@ -6530,14 +6530,8 @@
       <c r="L178" t="s">
         <v>430</v>
       </c>
-      <c r="M178" s="2">
-        <v>32.738906700000001</v>
-      </c>
-      <c r="N178" s="2">
-        <v>74.591727800000001</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6547,17 +6541,17 @@
       <c r="C179" t="s">
         <v>163</v>
       </c>
+      <c r="F179" s="2">
+        <v>32.565550199999997</v>
+      </c>
+      <c r="G179" s="2">
+        <v>74.587211600000003</v>
+      </c>
       <c r="H179" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M179" s="2">
-        <v>32.565550199999997</v>
-      </c>
-      <c r="N179" s="2">
-        <v>74.587211600000003</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6567,17 +6561,17 @@
       <c r="C180" t="s">
         <v>163</v>
       </c>
+      <c r="F180" s="2">
+        <v>32.490388099999997</v>
+      </c>
+      <c r="G180" s="2">
+        <v>74.537609900000007</v>
+      </c>
       <c r="H180" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="M180" s="2">
-        <v>32.490388099999997</v>
-      </c>
-      <c r="N180" s="2">
-        <v>74.537609900000007</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -6587,6 +6581,12 @@
       <c r="C181" t="s">
         <v>163</v>
       </c>
+      <c r="F181" s="2">
+        <v>32.490352000000001</v>
+      </c>
+      <c r="G181" s="2">
+        <v>74.544863500000005</v>
+      </c>
       <c r="H181" s="1" t="s">
         <v>169</v>
       </c>
@@ -6599,14 +6599,8 @@
       <c r="L181" t="s">
         <v>449</v>
       </c>
-      <c r="M181" s="2">
-        <v>32.490352000000001</v>
-      </c>
-      <c r="N181" s="2">
-        <v>74.544863500000005</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6616,17 +6610,17 @@
       <c r="C182" t="s">
         <v>171</v>
       </c>
+      <c r="F182" s="2">
+        <v>30.970935600000001</v>
+      </c>
+      <c r="G182" s="2">
+        <v>72.482647400000005</v>
+      </c>
       <c r="H182" t="s">
         <v>170</v>
       </c>
-      <c r="M182" s="2">
-        <v>30.970935600000001</v>
-      </c>
-      <c r="N182" s="2">
-        <v>72.482647400000005</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -6636,6 +6630,12 @@
       <c r="C183" t="s">
         <v>172</v>
       </c>
+      <c r="F183" s="2">
+        <v>30.0441544</v>
+      </c>
+      <c r="G183" s="2">
+        <v>72.344068500000006</v>
+      </c>
       <c r="H183" t="s">
         <v>153</v>
       </c>
@@ -6648,14 +6648,8 @@
       <c r="L183" t="s">
         <v>449</v>
       </c>
-      <c r="M183" s="2">
-        <v>30.0441544</v>
-      </c>
-      <c r="N183" s="2">
-        <v>72.344068500000006</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -6665,6 +6659,12 @@
       <c r="C184" t="s">
         <v>174</v>
       </c>
+      <c r="F184" s="2">
+        <v>24.645859300000001</v>
+      </c>
+      <c r="G184" s="2">
+        <v>68.846654400000006</v>
+      </c>
       <c r="H184" s="1" t="s">
         <v>175</v>
       </c>
@@ -6677,14 +6677,8 @@
       <c r="L184" t="s">
         <v>449</v>
       </c>
-      <c r="M184" s="2">
-        <v>24.645859300000001</v>
-      </c>
-      <c r="N184" s="2">
-        <v>68.846654400000006</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -6694,17 +6688,17 @@
       <c r="C185" t="s">
         <v>176</v>
       </c>
+      <c r="F185" s="2">
+        <v>26.858225600000001</v>
+      </c>
+      <c r="G185" s="2">
+        <v>67.151599599999997</v>
+      </c>
       <c r="H185" t="s">
         <v>177</v>
       </c>
-      <c r="M185" s="2">
-        <v>26.858225600000001</v>
-      </c>
-      <c r="N185" s="2">
-        <v>67.151599599999997</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -6714,6 +6708,12 @@
       <c r="C186" t="s">
         <v>176</v>
       </c>
+      <c r="F186" s="2">
+        <v>26.689433300000001</v>
+      </c>
+      <c r="G186" s="2">
+        <v>67.611077100000003</v>
+      </c>
       <c r="H186" t="s">
         <v>178</v>
       </c>
@@ -6726,14 +6726,8 @@
       <c r="L186" t="s">
         <v>449</v>
       </c>
-      <c r="M186" s="2">
-        <v>26.689433300000001</v>
-      </c>
-      <c r="N186" s="2">
-        <v>67.611077100000003</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -6743,17 +6737,17 @@
       <c r="C187" t="s">
         <v>176</v>
       </c>
+      <c r="F187" s="2">
+        <v>27.026874599999999</v>
+      </c>
+      <c r="G187" s="2">
+        <v>67.757367000000002</v>
+      </c>
       <c r="H187" t="s">
         <v>179</v>
       </c>
-      <c r="M187" s="2">
-        <v>27.026874599999999</v>
-      </c>
-      <c r="N187" s="2">
-        <v>67.757367000000002</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -6766,20 +6760,20 @@
       <c r="D188" t="s">
         <v>181</v>
       </c>
+      <c r="F188" s="2">
+        <v>28.058533600000001</v>
+      </c>
+      <c r="G188" s="2">
+        <v>69.647521900000001</v>
+      </c>
       <c r="H188" t="s">
         <v>182</v>
       </c>
       <c r="I188" t="s">
         <v>183</v>
       </c>
-      <c r="M188" s="2">
-        <v>28.058533600000001</v>
-      </c>
-      <c r="N188" s="2">
-        <v>69.647521900000001</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6792,17 +6786,17 @@
       <c r="D189" t="s">
         <v>185</v>
       </c>
+      <c r="F189" s="2">
+        <v>27.9584245</v>
+      </c>
+      <c r="G189" s="2">
+        <v>69.508271100000002</v>
+      </c>
       <c r="H189" t="s">
         <v>184</v>
       </c>
-      <c r="M189" s="2">
-        <v>27.9584245</v>
-      </c>
-      <c r="N189" s="2">
-        <v>69.508271100000002</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -6815,6 +6809,12 @@
       <c r="D190" t="s">
         <v>185</v>
       </c>
+      <c r="F190" s="2">
+        <v>28.027896500000001</v>
+      </c>
+      <c r="G190" s="2">
+        <v>69.490971400000006</v>
+      </c>
       <c r="H190" t="s">
         <v>186</v>
       </c>
@@ -6827,14 +6827,8 @@
       <c r="L190" t="s">
         <v>449</v>
       </c>
-      <c r="M190" s="2">
-        <v>28.027896500000001</v>
-      </c>
-      <c r="N190" s="2">
-        <v>69.490971400000006</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6847,6 +6841,12 @@
       <c r="D191" t="s">
         <v>188</v>
       </c>
+      <c r="F191" s="2">
+        <v>28.0109739</v>
+      </c>
+      <c r="G191" s="2">
+        <v>69.310183899999998</v>
+      </c>
       <c r="H191" t="s">
         <v>187</v>
       </c>
@@ -6859,14 +6859,8 @@
       <c r="L191" t="s">
         <v>449</v>
       </c>
-      <c r="M191" s="2">
-        <v>28.0109739</v>
-      </c>
-      <c r="N191" s="2">
-        <v>69.310183899999998</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6876,17 +6870,17 @@
       <c r="C192" t="s">
         <v>189</v>
       </c>
+      <c r="F192" s="2">
+        <v>25.395968700000001</v>
+      </c>
+      <c r="G192" s="2">
+        <v>68.357776000000001</v>
+      </c>
       <c r="H192" t="s">
         <v>193</v>
       </c>
-      <c r="M192" s="2">
-        <v>25.395968700000001</v>
-      </c>
-      <c r="N192" s="2">
-        <v>68.357776000000001</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6896,6 +6890,12 @@
       <c r="C193" t="s">
         <v>189</v>
       </c>
+      <c r="F193" s="2">
+        <v>25.395968700000001</v>
+      </c>
+      <c r="G193" s="2">
+        <v>68.357776000000001</v>
+      </c>
       <c r="H193" t="s">
         <v>194</v>
       </c>
@@ -6908,14 +6908,8 @@
       <c r="L193" t="s">
         <v>449</v>
       </c>
-      <c r="M193" s="2">
-        <v>25.395968700000001</v>
-      </c>
-      <c r="N193" s="2">
-        <v>68.357776000000001</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6925,6 +6919,12 @@
       <c r="C194" t="s">
         <v>189</v>
       </c>
+      <c r="F194" s="2">
+        <v>25.381576800000001</v>
+      </c>
+      <c r="G194" s="2">
+        <v>68.344757799999996</v>
+      </c>
       <c r="H194" t="s">
         <v>190</v>
       </c>
@@ -6937,14 +6937,8 @@
       <c r="L194" t="s">
         <v>453</v>
       </c>
-      <c r="M194" s="2">
-        <v>25.381576800000001</v>
-      </c>
-      <c r="N194" s="2">
-        <v>68.344757799999996</v>
-      </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6954,6 +6948,12 @@
       <c r="C195" t="s">
         <v>189</v>
       </c>
+      <c r="F195" s="2">
+        <v>25.3669239</v>
+      </c>
+      <c r="G195" s="2">
+        <v>68.387922599999996</v>
+      </c>
       <c r="H195" t="s">
         <v>191</v>
       </c>
@@ -6966,14 +6966,8 @@
       <c r="L195" t="s">
         <v>430</v>
       </c>
-      <c r="M195" s="2">
-        <v>25.3669239</v>
-      </c>
-      <c r="N195" s="2">
-        <v>68.387922599999996</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6983,17 +6977,17 @@
       <c r="C196" t="s">
         <v>189</v>
       </c>
+      <c r="F196" s="2">
+        <v>25.396072799999999</v>
+      </c>
+      <c r="G196" s="2">
+        <v>68.369065000000006</v>
+      </c>
       <c r="H196" t="s">
         <v>192</v>
       </c>
-      <c r="M196" s="2">
-        <v>25.396072799999999</v>
-      </c>
-      <c r="N196" s="2">
-        <v>68.369065000000006</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -7003,17 +6997,17 @@
       <c r="C197" t="s">
         <v>195</v>
       </c>
+      <c r="F197" s="2">
+        <v>28.2823326</v>
+      </c>
+      <c r="G197" s="2">
+        <v>68.447207800000001</v>
+      </c>
       <c r="H197" t="s">
         <v>196</v>
       </c>
-      <c r="M197" s="2">
-        <v>28.2823326</v>
-      </c>
-      <c r="N197" s="2">
-        <v>68.447207800000001</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -7023,6 +7017,12 @@
       <c r="C198" t="s">
         <v>195</v>
       </c>
+      <c r="F198" s="2">
+        <v>28.2823326</v>
+      </c>
+      <c r="G198" s="2">
+        <v>68.447207800000001</v>
+      </c>
       <c r="H198" t="s">
         <v>197</v>
       </c>
@@ -7035,14 +7035,8 @@
       <c r="L198" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M198" s="2">
-        <v>28.2823326</v>
-      </c>
-      <c r="N198" s="2">
-        <v>68.447207800000001</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -7052,17 +7046,17 @@
       <c r="C199" t="s">
         <v>195</v>
       </c>
+      <c r="F199" s="2">
+        <v>28.2823326</v>
+      </c>
+      <c r="G199" s="2">
+        <v>68.447207800000001</v>
+      </c>
       <c r="H199" t="s">
         <v>198</v>
       </c>
-      <c r="M199" s="2">
-        <v>28.2823326</v>
-      </c>
-      <c r="N199" s="2">
-        <v>68.447207800000001</v>
-      </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -7072,6 +7066,12 @@
       <c r="C200" t="s">
         <v>195</v>
       </c>
+      <c r="F200" s="2">
+        <v>28.2823326</v>
+      </c>
+      <c r="G200" s="2">
+        <v>68.447207800000001</v>
+      </c>
       <c r="H200" t="s">
         <v>199</v>
       </c>
@@ -7084,14 +7084,8 @@
       <c r="L200" t="s">
         <v>430</v>
       </c>
-      <c r="M200" s="2">
-        <v>28.2823326</v>
-      </c>
-      <c r="N200" s="2">
-        <v>68.447207800000001</v>
-      </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -7101,17 +7095,17 @@
       <c r="C201" t="s">
         <v>195</v>
       </c>
+      <c r="F201" s="2">
+        <v>28.2823326</v>
+      </c>
+      <c r="G201" s="2">
+        <v>68.447207800000001</v>
+      </c>
       <c r="H201" t="s">
         <v>200</v>
       </c>
-      <c r="M201" s="2">
-        <v>28.2823326</v>
-      </c>
-      <c r="N201" s="2">
-        <v>68.447207800000001</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -7121,6 +7115,12 @@
       <c r="C202" t="s">
         <v>195</v>
       </c>
+      <c r="F202" s="2">
+        <v>28.284179399999999</v>
+      </c>
+      <c r="G202" s="2">
+        <v>68.436046099999999</v>
+      </c>
       <c r="H202" t="s">
         <v>201</v>
       </c>
@@ -7133,14 +7133,8 @@
       <c r="L202" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M202" s="2">
-        <v>28.284179399999999</v>
-      </c>
-      <c r="N202" s="2">
-        <v>68.436046099999999</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -7150,17 +7144,17 @@
       <c r="C203" t="s">
         <v>195</v>
       </c>
+      <c r="F203" s="2">
+        <v>28.2823326</v>
+      </c>
+      <c r="G203" s="2">
+        <v>68.447207800000001</v>
+      </c>
       <c r="H203" t="s">
         <v>202</v>
       </c>
-      <c r="M203" s="2">
-        <v>28.2823326</v>
-      </c>
-      <c r="N203" s="2">
-        <v>68.447207800000001</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -7173,17 +7167,17 @@
       <c r="D204" t="s">
         <v>204</v>
       </c>
+      <c r="F204" s="2">
+        <v>25.3659678</v>
+      </c>
+      <c r="G204" s="2">
+        <v>68.316959600000004</v>
+      </c>
       <c r="H204" t="s">
         <v>205</v>
       </c>
-      <c r="M204" s="2">
-        <v>25.3659678</v>
-      </c>
-      <c r="N204" s="2">
-        <v>68.316959600000004</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -7196,17 +7190,17 @@
       <c r="D205" t="s">
         <v>207</v>
       </c>
+      <c r="F205" s="2">
+        <v>25.625077699999999</v>
+      </c>
+      <c r="G205" s="2">
+        <v>67.952363000000005</v>
+      </c>
       <c r="H205" t="s">
         <v>206</v>
       </c>
-      <c r="M205" s="2">
-        <v>25.625077699999999</v>
-      </c>
-      <c r="N205" s="2">
-        <v>67.952363000000005</v>
-      </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -7219,17 +7213,17 @@
       <c r="D206" t="s">
         <v>213</v>
       </c>
+      <c r="F206" s="2">
+        <v>25.907107499999999</v>
+      </c>
+      <c r="G206" s="2">
+        <v>68.237043400000005</v>
+      </c>
       <c r="H206" t="s">
         <v>214</v>
       </c>
-      <c r="M206" s="2">
-        <v>25.907107499999999</v>
-      </c>
-      <c r="N206" s="2">
-        <v>68.237043400000005</v>
-      </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -7242,6 +7236,12 @@
       <c r="D207" t="s">
         <v>204</v>
       </c>
+      <c r="F207" s="2">
+        <v>25.365677999999999</v>
+      </c>
+      <c r="G207" s="2">
+        <v>68.312296399999994</v>
+      </c>
       <c r="H207" t="s">
         <v>186</v>
       </c>
@@ -7254,14 +7254,8 @@
       <c r="L207" t="s">
         <v>449</v>
       </c>
-      <c r="M207" s="2">
-        <v>25.365677999999999</v>
-      </c>
-      <c r="N207" s="2">
-        <v>68.312296399999994</v>
-      </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -7274,20 +7268,20 @@
       <c r="D208" t="s">
         <v>210</v>
       </c>
+      <c r="F208" s="2">
+        <v>25.217834100000001</v>
+      </c>
+      <c r="G208" s="2">
+        <v>67.798669399999994</v>
+      </c>
       <c r="H208" t="s">
         <v>208</v>
       </c>
       <c r="I208" t="s">
         <v>209</v>
       </c>
-      <c r="M208" s="2">
-        <v>25.217834100000001</v>
-      </c>
-      <c r="N208" s="2">
-        <v>67.798669399999994</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -7300,17 +7294,17 @@
       <c r="D209" t="s">
         <v>210</v>
       </c>
+      <c r="F209" s="2">
+        <v>25.362529500000001</v>
+      </c>
+      <c r="G209" s="2">
+        <v>67.836113699999999</v>
+      </c>
       <c r="H209" t="s">
         <v>211</v>
       </c>
-      <c r="M209" s="2">
-        <v>25.362529500000001</v>
-      </c>
-      <c r="N209" s="2">
-        <v>67.836113699999999</v>
-      </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -7323,17 +7317,17 @@
       <c r="D210" t="s">
         <v>210</v>
       </c>
+      <c r="F210" s="2">
+        <v>25.362529500000001</v>
+      </c>
+      <c r="G210" s="2">
+        <v>67.836113699999999</v>
+      </c>
       <c r="H210" t="s">
         <v>212</v>
       </c>
-      <c r="M210" s="2">
-        <v>25.362529500000001</v>
-      </c>
-      <c r="N210" s="2">
-        <v>67.836113699999999</v>
-      </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -7346,6 +7340,12 @@
       <c r="D211" t="s">
         <v>222</v>
       </c>
+      <c r="F211" s="2">
+        <v>24.857312499999999</v>
+      </c>
+      <c r="G211" s="2">
+        <v>66.999937500000001</v>
+      </c>
       <c r="H211" t="s">
         <v>220</v>
       </c>
@@ -7361,14 +7361,8 @@
       <c r="L211" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M211" s="2">
-        <v>24.857312499999999</v>
-      </c>
-      <c r="N211" s="2">
-        <v>66.999937500000001</v>
-      </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -7381,17 +7375,17 @@
       <c r="D212" t="s">
         <v>224</v>
       </c>
+      <c r="F212" s="2">
+        <v>24.848509100000001</v>
+      </c>
+      <c r="G212" s="2">
+        <v>66.991973200000004</v>
+      </c>
       <c r="H212" t="s">
         <v>223</v>
       </c>
-      <c r="M212" s="2">
-        <v>24.848509100000001</v>
-      </c>
-      <c r="N212" s="2">
-        <v>66.991973200000004</v>
-      </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -7404,17 +7398,17 @@
       <c r="D213" t="s">
         <v>225</v>
       </c>
+      <c r="F213" s="2">
+        <v>24.853163899999998</v>
+      </c>
+      <c r="G213" s="2">
+        <v>67.001407299999997</v>
+      </c>
       <c r="H213" t="s">
         <v>226</v>
       </c>
-      <c r="M213" s="2">
-        <v>24.853163899999998</v>
-      </c>
-      <c r="N213" s="2">
-        <v>67.001407299999997</v>
-      </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -7424,6 +7418,12 @@
       <c r="C214" t="s">
         <v>215</v>
       </c>
+      <c r="F214" s="2">
+        <v>24.860734300000001</v>
+      </c>
+      <c r="G214" s="2">
+        <v>67.001136399999993</v>
+      </c>
       <c r="H214" t="s">
         <v>227</v>
       </c>
@@ -7436,14 +7436,8 @@
       <c r="L214" t="s">
         <v>449</v>
       </c>
-      <c r="M214" s="2">
-        <v>24.860734300000001</v>
-      </c>
-      <c r="N214" s="2">
-        <v>67.001136399999993</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -7456,6 +7450,12 @@
       <c r="D215" t="s">
         <v>228</v>
       </c>
+      <c r="F215" s="2">
+        <v>24.871921100000002</v>
+      </c>
+      <c r="G215" s="2">
+        <v>67.025422199999994</v>
+      </c>
       <c r="H215" t="s">
         <v>186</v>
       </c>
@@ -7468,14 +7468,8 @@
       <c r="L215" t="s">
         <v>449</v>
       </c>
-      <c r="M215" s="2">
-        <v>24.871921100000002</v>
-      </c>
-      <c r="N215" s="2">
-        <v>67.025422199999994</v>
-      </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -7488,6 +7482,12 @@
       <c r="D216" t="s">
         <v>230</v>
       </c>
+      <c r="F216" s="2">
+        <v>24.855491399999998</v>
+      </c>
+      <c r="G216" s="2">
+        <v>67.012923400000005</v>
+      </c>
       <c r="H216" t="s">
         <v>186</v>
       </c>
@@ -7500,14 +7500,8 @@
       <c r="L216" t="s">
         <v>449</v>
       </c>
-      <c r="M216" s="2">
-        <v>24.855491399999998</v>
-      </c>
-      <c r="N216" s="2">
-        <v>67.012923400000005</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -7520,6 +7514,12 @@
       <c r="D217" t="s">
         <v>229</v>
       </c>
+      <c r="F217" s="2">
+        <v>24.861633300000001</v>
+      </c>
+      <c r="G217" s="2">
+        <v>67.004013499999999</v>
+      </c>
       <c r="H217" t="s">
         <v>216</v>
       </c>
@@ -7532,14 +7532,8 @@
       <c r="L217" t="s">
         <v>430</v>
       </c>
-      <c r="M217" s="2">
-        <v>24.861633300000001</v>
-      </c>
-      <c r="N217" s="2">
-        <v>67.004013499999999</v>
-      </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -7549,17 +7543,17 @@
       <c r="C218" t="s">
         <v>215</v>
       </c>
+      <c r="F218" s="2">
+        <v>24.860734300000001</v>
+      </c>
+      <c r="G218" s="2">
+        <v>67.001136399999993</v>
+      </c>
       <c r="H218" t="s">
         <v>193</v>
       </c>
-      <c r="M218" s="2">
-        <v>24.860734300000001</v>
-      </c>
-      <c r="N218" s="2">
-        <v>67.001136399999993</v>
-      </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -7572,17 +7566,17 @@
       <c r="D219" t="s">
         <v>232</v>
       </c>
+      <c r="F219" s="2">
+        <v>24.875806799999999</v>
+      </c>
+      <c r="G219" s="2">
+        <v>67.193745399999997</v>
+      </c>
       <c r="H219" t="s">
         <v>231</v>
       </c>
-      <c r="M219" s="2">
-        <v>24.875806799999999</v>
-      </c>
-      <c r="N219" s="2">
-        <v>67.193745399999997</v>
-      </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -7595,17 +7589,17 @@
       <c r="D220" t="s">
         <v>234</v>
       </c>
+      <c r="F220" s="2">
+        <v>24.8650348</v>
+      </c>
+      <c r="G220" s="2">
+        <v>67.011841599999997</v>
+      </c>
       <c r="H220" t="s">
         <v>233</v>
       </c>
-      <c r="M220" s="2">
-        <v>24.8650348</v>
-      </c>
-      <c r="N220" s="2">
-        <v>67.011841599999997</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -7618,6 +7612,12 @@
       <c r="D221" t="s">
         <v>236</v>
       </c>
+      <c r="F221" s="2">
+        <v>24.855405099999999</v>
+      </c>
+      <c r="G221" s="2">
+        <v>67.008933299999995</v>
+      </c>
       <c r="H221" t="s">
         <v>235</v>
       </c>
@@ -7630,14 +7630,8 @@
       <c r="L221" t="s">
         <v>430</v>
       </c>
-      <c r="M221" s="2">
-        <v>24.855405099999999</v>
-      </c>
-      <c r="N221" s="2">
-        <v>67.008933299999995</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -7650,6 +7644,12 @@
       <c r="D222" t="s">
         <v>228</v>
       </c>
+      <c r="F222" s="2">
+        <v>24.871921100000002</v>
+      </c>
+      <c r="G222" s="2">
+        <v>67.025422199999994</v>
+      </c>
       <c r="H222" t="s">
         <v>237</v>
       </c>
@@ -7662,14 +7662,8 @@
       <c r="L222" t="s">
         <v>430</v>
       </c>
-      <c r="M222" s="2">
-        <v>24.871921100000002</v>
-      </c>
-      <c r="N222" s="2">
-        <v>67.025422199999994</v>
-      </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -7682,17 +7676,17 @@
       <c r="D223" t="s">
         <v>239</v>
       </c>
+      <c r="F223" s="2">
+        <v>24.859371599999999</v>
+      </c>
+      <c r="G223" s="2">
+        <v>67.005188399999994</v>
+      </c>
       <c r="H223" t="s">
         <v>238</v>
       </c>
-      <c r="M223" s="2">
-        <v>24.859371599999999</v>
-      </c>
-      <c r="N223" s="2">
-        <v>67.005188399999994</v>
-      </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -7705,20 +7699,20 @@
       <c r="D224" t="s">
         <v>240</v>
       </c>
+      <c r="F224" s="2">
+        <v>24.869303800000001</v>
+      </c>
+      <c r="G224" s="2">
+        <v>67.021140399999993</v>
+      </c>
       <c r="H224" t="s">
         <v>241</v>
       </c>
       <c r="I224" t="s">
         <v>218</v>
       </c>
-      <c r="M224" s="2">
-        <v>24.869303800000001</v>
-      </c>
-      <c r="N224" s="2">
-        <v>67.021140399999993</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -7731,6 +7725,12 @@
       <c r="D225" t="s">
         <v>243</v>
       </c>
+      <c r="F225" s="2">
+        <v>24.856524499999999</v>
+      </c>
+      <c r="G225" s="2">
+        <v>66.997986600000004</v>
+      </c>
       <c r="H225" t="s">
         <v>242</v>
       </c>
@@ -7743,14 +7743,8 @@
       <c r="L225" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M225" s="2">
-        <v>24.856524499999999</v>
-      </c>
-      <c r="N225" s="2">
-        <v>66.997986600000004</v>
-      </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -7763,6 +7757,12 @@
       <c r="D226" t="s">
         <v>244</v>
       </c>
+      <c r="F226" s="2">
+        <v>24.874233400000001</v>
+      </c>
+      <c r="G226" s="2">
+        <v>67.030658099999997</v>
+      </c>
       <c r="H226" t="s">
         <v>245</v>
       </c>
@@ -7778,14 +7778,8 @@
       <c r="L226" t="s">
         <v>449</v>
       </c>
-      <c r="M226" s="2">
-        <v>24.874233400000001</v>
-      </c>
-      <c r="N226" s="2">
-        <v>67.030658099999997</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -7798,20 +7792,20 @@
       <c r="D227" t="s">
         <v>247</v>
       </c>
+      <c r="F227" s="2">
+        <v>24.853824299999999</v>
+      </c>
+      <c r="G227" s="2">
+        <v>67.013237099999998</v>
+      </c>
       <c r="H227" t="s">
         <v>246</v>
       </c>
       <c r="J227" t="s">
         <v>249</v>
       </c>
-      <c r="M227" s="2">
-        <v>24.853824299999999</v>
-      </c>
-      <c r="N227" s="2">
-        <v>67.013237099999998</v>
-      </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
@@ -7824,17 +7818,17 @@
       <c r="D228" t="s">
         <v>247</v>
       </c>
+      <c r="F228" s="2">
+        <v>24.8604834</v>
+      </c>
+      <c r="G228" s="2">
+        <v>67.021233499999994</v>
+      </c>
       <c r="H228" t="s">
         <v>250</v>
       </c>
-      <c r="M228" s="2">
-        <v>24.8604834</v>
-      </c>
-      <c r="N228" s="2">
-        <v>67.021233499999994</v>
-      </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -7847,17 +7841,17 @@
       <c r="D229" t="s">
         <v>252</v>
       </c>
+      <c r="F229" s="2">
+        <v>24.867156900000001</v>
+      </c>
+      <c r="G229" s="2">
+        <v>67.017603300000005</v>
+      </c>
       <c r="H229" t="s">
         <v>251</v>
       </c>
-      <c r="M229" s="2">
-        <v>24.867156900000001</v>
-      </c>
-      <c r="N229" s="2">
-        <v>67.017603300000005</v>
-      </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -7870,17 +7864,17 @@
       <c r="D230" t="s">
         <v>254</v>
       </c>
+      <c r="F230" s="2">
+        <v>24.870338</v>
+      </c>
+      <c r="G230" s="2">
+        <v>66.918130300000001</v>
+      </c>
       <c r="H230" t="s">
         <v>253</v>
       </c>
-      <c r="M230" s="2">
-        <v>24.870338</v>
-      </c>
-      <c r="N230" s="2">
-        <v>66.918130300000001</v>
-      </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
@@ -7893,6 +7887,12 @@
       <c r="D231" t="s">
         <v>229</v>
       </c>
+      <c r="F231" s="2">
+        <v>24.860523400000002</v>
+      </c>
+      <c r="G231" s="2">
+        <v>67.003641200000004</v>
+      </c>
       <c r="H231" t="s">
         <v>255</v>
       </c>
@@ -7905,14 +7905,8 @@
       <c r="L231" t="s">
         <v>430</v>
       </c>
-      <c r="M231" s="2">
-        <v>24.860523400000002</v>
-      </c>
-      <c r="N231" s="2">
-        <v>67.003641200000004</v>
-      </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
@@ -7925,6 +7919,12 @@
       <c r="D232" t="s">
         <v>256</v>
       </c>
+      <c r="F232" s="2">
+        <v>24.879842</v>
+      </c>
+      <c r="G232" s="2">
+        <v>67.046272900000005</v>
+      </c>
       <c r="H232" t="s">
         <v>76</v>
       </c>
@@ -7937,14 +7937,8 @@
       <c r="L232" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M232" s="2">
-        <v>24.879842</v>
-      </c>
-      <c r="N232" s="2">
-        <v>67.046272900000005</v>
-      </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -7957,17 +7951,17 @@
       <c r="D233" t="s">
         <v>258</v>
       </c>
+      <c r="F233" s="2">
+        <v>24.8702346</v>
+      </c>
+      <c r="G233" s="2">
+        <v>66.994211100000001</v>
+      </c>
       <c r="H233" t="s">
         <v>257</v>
       </c>
-      <c r="M233" s="2">
-        <v>24.8702346</v>
-      </c>
-      <c r="N233" s="2">
-        <v>66.994211100000001</v>
-      </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -7980,17 +7974,17 @@
       <c r="D234" t="s">
         <v>260</v>
       </c>
+      <c r="F234" s="2">
+        <v>24.853184599999999</v>
+      </c>
+      <c r="G234" s="2">
+        <v>67.016672499999999</v>
+      </c>
       <c r="H234" t="s">
         <v>259</v>
       </c>
-      <c r="M234" s="2">
-        <v>24.853184599999999</v>
-      </c>
-      <c r="N234" s="2">
-        <v>67.016672499999999</v>
-      </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -8003,6 +7997,12 @@
       <c r="D235" t="s">
         <v>261</v>
       </c>
+      <c r="F235" s="2">
+        <v>24.844489200000002</v>
+      </c>
+      <c r="G235" s="2">
+        <v>66.919873699999997</v>
+      </c>
       <c r="H235" t="s">
         <v>263</v>
       </c>
@@ -8015,14 +8015,8 @@
       <c r="L235" t="s">
         <v>449</v>
       </c>
-      <c r="M235" s="2">
-        <v>24.844489200000002</v>
-      </c>
-      <c r="N235" s="2">
-        <v>66.919873699999997</v>
-      </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -8035,6 +8029,12 @@
       <c r="D236" t="s">
         <v>262</v>
       </c>
+      <c r="F236" s="2">
+        <v>24.8577221</v>
+      </c>
+      <c r="G236" s="2">
+        <v>67.014438600000005</v>
+      </c>
       <c r="H236" t="s">
         <v>264</v>
       </c>
@@ -8047,14 +8047,8 @@
       <c r="L236" t="s">
         <v>449</v>
       </c>
-      <c r="M236" s="2">
-        <v>24.8577221</v>
-      </c>
-      <c r="N236" s="2">
-        <v>67.014438600000005</v>
-      </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -8067,6 +8061,12 @@
       <c r="D237" t="s">
         <v>266</v>
       </c>
+      <c r="F237" s="2">
+        <v>24.852176</v>
+      </c>
+      <c r="G237" s="2">
+        <v>67.0438841</v>
+      </c>
       <c r="H237" t="s">
         <v>265</v>
       </c>
@@ -8079,14 +8079,8 @@
       <c r="L237" t="s">
         <v>449</v>
       </c>
-      <c r="M237" s="2">
-        <v>24.852176</v>
-      </c>
-      <c r="N237" s="2">
-        <v>67.0438841</v>
-      </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -8099,6 +8093,12 @@
       <c r="D238" t="s">
         <v>267</v>
       </c>
+      <c r="F238" s="2">
+        <v>24.854718500000001</v>
+      </c>
+      <c r="G238" s="2">
+        <v>67.043480400000007</v>
+      </c>
       <c r="H238" t="s">
         <v>265</v>
       </c>
@@ -8111,14 +8111,8 @@
       <c r="L238" t="s">
         <v>449</v>
       </c>
-      <c r="M238" s="2">
-        <v>24.854718500000001</v>
-      </c>
-      <c r="N238" s="2">
-        <v>67.043480400000007</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -8131,17 +8125,17 @@
       <c r="D239" t="s">
         <v>269</v>
       </c>
+      <c r="F239" s="2">
+        <v>24.844453900000001</v>
+      </c>
+      <c r="G239" s="2">
+        <v>66.991163799999995</v>
+      </c>
       <c r="H239" t="s">
         <v>268</v>
       </c>
-      <c r="M239" s="2">
-        <v>24.844453900000001</v>
-      </c>
-      <c r="N239" s="2">
-        <v>66.991163799999995</v>
-      </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
@@ -8154,17 +8148,17 @@
       <c r="D240" t="s">
         <v>271</v>
       </c>
+      <c r="F240" s="2">
+        <v>24.860734300000001</v>
+      </c>
+      <c r="G240" s="2">
+        <v>67.001136399999993</v>
+      </c>
       <c r="H240" t="s">
         <v>270</v>
       </c>
-      <c r="M240" s="2">
-        <v>24.860734300000001</v>
-      </c>
-      <c r="N240" s="2">
-        <v>67.001136399999993</v>
-      </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -8177,6 +8171,12 @@
       <c r="D241" t="s">
         <v>273</v>
       </c>
+      <c r="F241" s="2">
+        <v>24.855405099999999</v>
+      </c>
+      <c r="G241" s="2">
+        <v>67.008933299999995</v>
+      </c>
       <c r="H241" t="s">
         <v>272</v>
       </c>
@@ -8189,14 +8189,8 @@
       <c r="L241" t="s">
         <v>430</v>
       </c>
-      <c r="M241" s="2">
-        <v>24.855405099999999</v>
-      </c>
-      <c r="N241" s="2">
-        <v>67.008933299999995</v>
-      </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -8209,6 +8203,12 @@
       <c r="D242" t="s">
         <v>275</v>
       </c>
+      <c r="F242" s="2">
+        <v>24.874233400000001</v>
+      </c>
+      <c r="G242" s="2">
+        <v>67.030658099999997</v>
+      </c>
       <c r="H242" t="s">
         <v>274</v>
       </c>
@@ -8221,14 +8221,8 @@
       <c r="L242" t="s">
         <v>449</v>
       </c>
-      <c r="M242" s="2">
-        <v>24.874233400000001</v>
-      </c>
-      <c r="N242" s="2">
-        <v>67.030658099999997</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -8241,6 +8235,12 @@
       <c r="D243" t="s">
         <v>277</v>
       </c>
+      <c r="F243" s="2">
+        <v>24.8853087</v>
+      </c>
+      <c r="G243" s="2">
+        <v>67.132381800000005</v>
+      </c>
       <c r="H243" t="s">
         <v>276</v>
       </c>
@@ -8253,14 +8253,8 @@
       <c r="L243" t="s">
         <v>453</v>
       </c>
-      <c r="M243" s="2">
-        <v>24.8853087</v>
-      </c>
-      <c r="N243" s="2">
-        <v>67.132381800000005</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
@@ -8273,17 +8267,17 @@
       <c r="D244" t="s">
         <v>279</v>
       </c>
+      <c r="F244" s="2">
+        <v>24.812490100000002</v>
+      </c>
+      <c r="G244" s="2">
+        <v>67.026779899999994</v>
+      </c>
       <c r="H244" t="s">
         <v>278</v>
       </c>
-      <c r="M244" s="2">
-        <v>24.812490100000002</v>
-      </c>
-      <c r="N244" s="2">
-        <v>67.026779899999994</v>
-      </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
@@ -8293,17 +8287,17 @@
       <c r="C245" t="s">
         <v>215</v>
       </c>
+      <c r="F245" s="2">
+        <v>24.854406300000001</v>
+      </c>
+      <c r="G245" s="2">
+        <v>67.008018500000006</v>
+      </c>
       <c r="H245" t="s">
         <v>217</v>
       </c>
-      <c r="M245" s="2">
-        <v>24.854406300000001</v>
-      </c>
-      <c r="N245" s="2">
-        <v>67.008018500000006</v>
-      </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
@@ -8316,17 +8310,17 @@
       <c r="D246" t="s">
         <v>281</v>
       </c>
+      <c r="F246" s="2">
+        <v>24.797575200000001</v>
+      </c>
+      <c r="G246" s="2">
+        <v>66.970855499999999</v>
+      </c>
       <c r="H246" t="s">
         <v>280</v>
       </c>
-      <c r="M246" s="2">
-        <v>24.797575200000001</v>
-      </c>
-      <c r="N246" s="2">
-        <v>66.970855499999999</v>
-      </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
@@ -8339,20 +8333,20 @@
       <c r="D247" t="s">
         <v>284</v>
       </c>
+      <c r="F247" s="2">
+        <v>28.242526099999999</v>
+      </c>
+      <c r="G247" s="2">
+        <v>69.183451000000005</v>
+      </c>
       <c r="H247" t="s">
         <v>283</v>
       </c>
       <c r="J247" t="s">
         <v>285</v>
       </c>
-      <c r="M247" s="2">
-        <v>28.242526099999999</v>
-      </c>
-      <c r="N247" s="2">
-        <v>69.183451000000005</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -8365,20 +8359,20 @@
       <c r="D248" t="s">
         <v>287</v>
       </c>
+      <c r="F248" s="2">
+        <v>28.242526099999999</v>
+      </c>
+      <c r="G248" s="2">
+        <v>69.183451000000005</v>
+      </c>
       <c r="H248" t="s">
         <v>286</v>
       </c>
       <c r="J248" t="s">
         <v>285</v>
       </c>
-      <c r="M248" s="2">
-        <v>28.242526099999999</v>
-      </c>
-      <c r="N248" s="2">
-        <v>69.183451000000005</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
@@ -8391,17 +8385,17 @@
       <c r="D249" t="s">
         <v>287</v>
       </c>
+      <c r="F249" s="2">
+        <v>28.242526099999999</v>
+      </c>
+      <c r="G249" s="2">
+        <v>69.183451000000005</v>
+      </c>
       <c r="H249" t="s">
         <v>288</v>
       </c>
-      <c r="M249" s="2">
-        <v>28.242526099999999</v>
-      </c>
-      <c r="N249" s="2">
-        <v>69.183451000000005</v>
-      </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
@@ -8414,17 +8408,17 @@
       <c r="D250" t="s">
         <v>287</v>
       </c>
+      <c r="F250" s="2">
+        <v>28.240596199999999</v>
+      </c>
+      <c r="G250" s="2">
+        <v>69.178501600000004</v>
+      </c>
       <c r="H250" t="s">
         <v>289</v>
       </c>
-      <c r="M250" s="2">
-        <v>28.240596199999999</v>
-      </c>
-      <c r="N250" s="2">
-        <v>69.178501600000004</v>
-      </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
@@ -8437,17 +8431,17 @@
       <c r="D251" t="s">
         <v>292</v>
       </c>
+      <c r="F251" s="2">
+        <v>27.162426400000001</v>
+      </c>
+      <c r="G251" s="2">
+        <v>68.963760600000001</v>
+      </c>
       <c r="H251" t="s">
         <v>291</v>
       </c>
-      <c r="M251" s="2">
-        <v>27.162426400000001</v>
-      </c>
-      <c r="N251" s="2">
-        <v>68.963760600000001</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
@@ -8460,17 +8454,17 @@
       <c r="D252" t="s">
         <v>294</v>
       </c>
+      <c r="F252" s="2">
+        <v>27.072471400000001</v>
+      </c>
+      <c r="G252" s="2">
+        <v>68.611164200000005</v>
+      </c>
       <c r="H252" t="s">
         <v>293</v>
       </c>
-      <c r="M252" s="2">
-        <v>27.072471400000001</v>
-      </c>
-      <c r="N252" s="2">
-        <v>68.611164200000005</v>
-      </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
@@ -8480,17 +8474,17 @@
       <c r="C253" t="s">
         <v>295</v>
       </c>
+      <c r="F253" s="2">
+        <v>27.557049800000001</v>
+      </c>
+      <c r="G253" s="2">
+        <v>68.202761600000002</v>
+      </c>
       <c r="H253" t="s">
         <v>193</v>
       </c>
-      <c r="M253" s="2">
-        <v>27.557049800000001</v>
-      </c>
-      <c r="N253" s="2">
-        <v>68.202761600000002</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
@@ -8503,17 +8497,17 @@
       <c r="D254" t="s">
         <v>298</v>
       </c>
+      <c r="F254" s="2">
+        <v>27.550134700000001</v>
+      </c>
+      <c r="G254" s="2">
+        <v>68.214904500000003</v>
+      </c>
       <c r="H254" t="s">
         <v>297</v>
       </c>
-      <c r="M254" s="2">
-        <v>27.550134700000001</v>
-      </c>
-      <c r="N254" s="2">
-        <v>68.214904500000003</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
@@ -8523,6 +8517,12 @@
       <c r="C255" t="s">
         <v>295</v>
       </c>
+      <c r="F255" s="2">
+        <v>27.557049800000001</v>
+      </c>
+      <c r="G255" s="2">
+        <v>68.202761600000002</v>
+      </c>
       <c r="H255" t="s">
         <v>135</v>
       </c>
@@ -8535,14 +8535,8 @@
       <c r="L255" t="s">
         <v>449</v>
       </c>
-      <c r="M255" s="2">
-        <v>27.557049800000001</v>
-      </c>
-      <c r="N255" s="2">
-        <v>68.202761600000002</v>
-      </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
@@ -8552,6 +8546,12 @@
       <c r="C256" t="s">
         <v>295</v>
       </c>
+      <c r="F256" s="2">
+        <v>27.557049800000001</v>
+      </c>
+      <c r="G256" s="2">
+        <v>68.202761600000002</v>
+      </c>
       <c r="H256" t="s">
         <v>296</v>
       </c>
@@ -8564,14 +8564,8 @@
       <c r="L256" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M256" s="2">
-        <v>27.557049800000001</v>
-      </c>
-      <c r="N256" s="2">
-        <v>68.202761600000002</v>
-      </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
@@ -8584,17 +8578,17 @@
       <c r="D257" t="s">
         <v>301</v>
       </c>
+      <c r="F257" s="2">
+        <v>25.701111099999999</v>
+      </c>
+      <c r="G257" s="2">
+        <v>68.561388899999997</v>
+      </c>
       <c r="H257" t="s">
         <v>300</v>
       </c>
-      <c r="M257" s="2">
-        <v>25.701111099999999</v>
-      </c>
-      <c r="N257" s="2">
-        <v>68.561388899999997</v>
-      </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
@@ -8607,6 +8601,12 @@
       <c r="D258" t="s">
         <v>305</v>
       </c>
+      <c r="F258" s="2">
+        <v>25.528138500000001</v>
+      </c>
+      <c r="G258" s="2">
+        <v>69.012184700000006</v>
+      </c>
       <c r="H258" t="s">
         <v>304</v>
       </c>
@@ -8619,14 +8619,8 @@
       <c r="L258" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M258" s="2">
-        <v>25.528138500000001</v>
-      </c>
-      <c r="N258" s="2">
-        <v>69.012184700000006</v>
-      </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
@@ -8636,17 +8630,17 @@
       <c r="C259" t="s">
         <v>302</v>
       </c>
+      <c r="F259" s="2">
+        <v>25.518097300000001</v>
+      </c>
+      <c r="G259" s="2">
+        <v>69.009358000000006</v>
+      </c>
       <c r="H259" t="s">
         <v>303</v>
       </c>
-      <c r="M259" s="2">
-        <v>25.518097300000001</v>
-      </c>
-      <c r="N259" s="2">
-        <v>69.009358000000006</v>
-      </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
@@ -8656,6 +8650,12 @@
       <c r="C260" t="s">
         <v>302</v>
       </c>
+      <c r="F260" s="2">
+        <v>25.528138500000001</v>
+      </c>
+      <c r="G260" s="2">
+        <v>69.012184700000006</v>
+      </c>
       <c r="H260" t="s">
         <v>306</v>
       </c>
@@ -8668,14 +8668,8 @@
       <c r="L260" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M260" s="2">
-        <v>25.528138500000001</v>
-      </c>
-      <c r="N260" s="2">
-        <v>69.012184700000006</v>
-      </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
@@ -8688,6 +8682,12 @@
       <c r="D261" t="s">
         <v>307</v>
       </c>
+      <c r="F261" s="2">
+        <v>25.528138500000001</v>
+      </c>
+      <c r="G261" s="2">
+        <v>69.012184700000006</v>
+      </c>
       <c r="H261" t="s">
         <v>304</v>
       </c>
@@ -8700,14 +8700,8 @@
       <c r="L261" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M261" s="2">
-        <v>25.528138500000001</v>
-      </c>
-      <c r="N261" s="2">
-        <v>69.012184700000006</v>
-      </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
@@ -8720,6 +8714,12 @@
       <c r="D262" t="s">
         <v>309</v>
       </c>
+      <c r="F262" s="2">
+        <v>25.506530099999999</v>
+      </c>
+      <c r="G262" s="2">
+        <v>69.013570599999994</v>
+      </c>
       <c r="H262" t="s">
         <v>308</v>
       </c>
@@ -8732,14 +8732,8 @@
       <c r="L262" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M262" s="2">
-        <v>25.506530099999999</v>
-      </c>
-      <c r="N262" s="2">
-        <v>69.013570599999994</v>
-      </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
@@ -8752,17 +8746,17 @@
       <c r="D263" t="s">
         <v>312</v>
       </c>
+      <c r="F263" s="2">
+        <v>27.0896224</v>
+      </c>
+      <c r="G263" s="2">
+        <v>68.318038200000004</v>
+      </c>
       <c r="H263" t="s">
         <v>311</v>
       </c>
-      <c r="M263" s="2">
-        <v>27.0896224</v>
-      </c>
-      <c r="N263" s="2">
-        <v>68.318038200000004</v>
-      </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
@@ -8772,17 +8766,17 @@
       <c r="C264" t="s">
         <v>313</v>
       </c>
+      <c r="F264" s="2">
+        <v>27.585918899999999</v>
+      </c>
+      <c r="G264" s="2">
+        <v>68.006018299999994</v>
+      </c>
       <c r="H264" t="s">
         <v>314</v>
       </c>
-      <c r="M264" s="2">
-        <v>27.585918899999999</v>
-      </c>
-      <c r="N264" s="2">
-        <v>68.006018299999994</v>
-      </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>264</v>
       </c>
@@ -8792,17 +8786,17 @@
       <c r="C265" t="s">
         <v>313</v>
       </c>
+      <c r="F265" s="2">
+        <v>27.585918899999999</v>
+      </c>
+      <c r="G265" s="2">
+        <v>68.006018299999994</v>
+      </c>
       <c r="H265" t="s">
         <v>315</v>
       </c>
-      <c r="M265" s="2">
-        <v>27.585918899999999</v>
-      </c>
-      <c r="N265" s="2">
-        <v>68.006018299999994</v>
-      </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>265</v>
       </c>
@@ -8812,17 +8806,17 @@
       <c r="C266" t="s">
         <v>313</v>
       </c>
+      <c r="F266" s="2">
+        <v>27.585918899999999</v>
+      </c>
+      <c r="G266" s="2">
+        <v>68.006018299999994</v>
+      </c>
       <c r="H266" t="s">
         <v>316</v>
       </c>
-      <c r="M266" s="2">
-        <v>27.585918899999999</v>
-      </c>
-      <c r="N266" s="2">
-        <v>68.006018299999994</v>
-      </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
@@ -8835,17 +8829,17 @@
       <c r="D267" t="s">
         <v>318</v>
       </c>
+      <c r="F267" s="2">
+        <v>27.585918899999999</v>
+      </c>
+      <c r="G267" s="2">
+        <v>68.006018299999994</v>
+      </c>
       <c r="H267" t="s">
         <v>317</v>
       </c>
-      <c r="M267" s="2">
-        <v>27.585918899999999</v>
-      </c>
-      <c r="N267" s="2">
-        <v>68.006018299999994</v>
-      </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
@@ -8855,6 +8849,12 @@
       <c r="C268" t="s">
         <v>313</v>
       </c>
+      <c r="F268" s="2">
+        <v>27.585918899999999</v>
+      </c>
+      <c r="G268" s="2">
+        <v>68.006018299999994</v>
+      </c>
       <c r="H268" t="s">
         <v>76</v>
       </c>
@@ -8867,14 +8867,8 @@
       <c r="L268" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M268" s="2">
-        <v>27.585918899999999</v>
-      </c>
-      <c r="N268" s="2">
-        <v>68.006018299999994</v>
-      </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>268</v>
       </c>
@@ -8887,17 +8881,17 @@
       <c r="D269" t="s">
         <v>321</v>
       </c>
+      <c r="F269" s="2">
+        <v>25.915234999999999</v>
+      </c>
+      <c r="G269" s="2">
+        <v>69.264742999999996</v>
+      </c>
       <c r="H269" t="s">
         <v>320</v>
       </c>
-      <c r="M269" s="2">
-        <v>25.915234999999999</v>
-      </c>
-      <c r="N269" s="2">
-        <v>69.264742999999996</v>
-      </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
@@ -8907,17 +8901,17 @@
       <c r="C270" t="s">
         <v>319</v>
       </c>
+      <c r="F270" s="2">
+        <v>26.043569300000001</v>
+      </c>
+      <c r="G270" s="2">
+        <v>68.947997999999998</v>
+      </c>
       <c r="H270" t="s">
         <v>322</v>
       </c>
-      <c r="M270" s="2">
-        <v>26.043569300000001</v>
-      </c>
-      <c r="N270" s="2">
-        <v>68.947997999999998</v>
-      </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>270</v>
       </c>
@@ -8930,17 +8924,17 @@
       <c r="D271" t="s">
         <v>324</v>
       </c>
+      <c r="F271" s="2">
+        <v>25.789128600000002</v>
+      </c>
+      <c r="G271" s="2">
+        <v>69.454295400000007</v>
+      </c>
       <c r="H271" t="s">
         <v>323</v>
       </c>
-      <c r="M271" s="2">
-        <v>25.789128600000002</v>
-      </c>
-      <c r="N271" s="2">
-        <v>69.454295400000007</v>
-      </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>271</v>
       </c>
@@ -8953,17 +8947,17 @@
       <c r="D272" t="s">
         <v>326</v>
       </c>
+      <c r="F272" s="2">
+        <v>25.9198108</v>
+      </c>
+      <c r="G272" s="2">
+        <v>68.6303774</v>
+      </c>
       <c r="H272" t="s">
         <v>325</v>
       </c>
-      <c r="M272" s="2">
-        <v>25.9198108</v>
-      </c>
-      <c r="N272" s="2">
-        <v>68.6303774</v>
-      </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>272</v>
       </c>
@@ -8976,6 +8970,12 @@
       <c r="D273" t="s">
         <v>327</v>
       </c>
+      <c r="F273" s="2">
+        <v>24.604230600000001</v>
+      </c>
+      <c r="G273" s="2">
+        <v>68.077560199999994</v>
+      </c>
       <c r="H273" t="s">
         <v>76</v>
       </c>
@@ -8988,14 +8988,8 @@
       <c r="L273" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M273" s="2">
-        <v>24.604230600000001</v>
-      </c>
-      <c r="N273" s="2">
-        <v>68.077560199999994</v>
-      </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>273</v>
       </c>
@@ -9005,6 +8999,12 @@
       <c r="C274" t="s">
         <v>334</v>
       </c>
+      <c r="F274" s="2">
+        <v>27.942667799999999</v>
+      </c>
+      <c r="G274" s="2">
+        <v>68.638123399999998</v>
+      </c>
       <c r="H274" t="s">
         <v>186</v>
       </c>
@@ -9017,14 +9017,8 @@
       <c r="L274" t="s">
         <v>449</v>
       </c>
-      <c r="M274" s="2">
-        <v>27.942667799999999</v>
-      </c>
-      <c r="N274" s="2">
-        <v>68.638123399999998</v>
-      </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>274</v>
       </c>
@@ -9034,17 +9028,17 @@
       <c r="C275" t="s">
         <v>334</v>
       </c>
+      <c r="F275" s="2">
+        <v>27.959371600000001</v>
+      </c>
+      <c r="G275" s="2">
+        <v>68.635956800000002</v>
+      </c>
       <c r="H275" t="s">
         <v>329</v>
       </c>
-      <c r="M275" s="2">
-        <v>27.959371600000001</v>
-      </c>
-      <c r="N275" s="2">
-        <v>68.635956800000002</v>
-      </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>275</v>
       </c>
@@ -9054,17 +9048,17 @@
       <c r="C276" t="s">
         <v>334</v>
       </c>
+      <c r="F276" s="2">
+        <v>27.957039699999999</v>
+      </c>
+      <c r="G276" s="2">
+        <v>68.637992999999994</v>
+      </c>
       <c r="H276" t="s">
         <v>330</v>
       </c>
-      <c r="M276" s="2">
-        <v>27.957039699999999</v>
-      </c>
-      <c r="N276" s="2">
-        <v>68.637992999999994</v>
-      </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>276</v>
       </c>
@@ -9074,17 +9068,17 @@
       <c r="C277" t="s">
         <v>334</v>
       </c>
+      <c r="F277" s="2">
+        <v>27.957039699999999</v>
+      </c>
+      <c r="G277" s="2">
+        <v>68.637992999999994</v>
+      </c>
       <c r="H277" t="s">
         <v>331</v>
       </c>
-      <c r="M277" s="2">
-        <v>27.957039699999999</v>
-      </c>
-      <c r="N277" s="2">
-        <v>68.637992999999994</v>
-      </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>277</v>
       </c>
@@ -9097,17 +9091,17 @@
       <c r="D278" t="s">
         <v>247</v>
       </c>
+      <c r="F278" s="2">
+        <v>27.9549509</v>
+      </c>
+      <c r="G278" s="2">
+        <v>68.644185399999998</v>
+      </c>
       <c r="H278" t="s">
         <v>332</v>
       </c>
-      <c r="M278" s="2">
-        <v>27.9549509</v>
-      </c>
-      <c r="N278" s="2">
-        <v>68.644185399999998</v>
-      </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>278</v>
       </c>
@@ -9117,17 +9111,17 @@
       <c r="C279" t="s">
         <v>334</v>
       </c>
+      <c r="F279" s="2">
+        <v>27.9520257</v>
+      </c>
+      <c r="G279" s="2">
+        <v>68.633807700000006</v>
+      </c>
       <c r="H279" t="s">
         <v>333</v>
       </c>
-      <c r="M279" s="2">
-        <v>27.9520257</v>
-      </c>
-      <c r="N279" s="2">
-        <v>68.633807700000006</v>
-      </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>279</v>
       </c>
@@ -9137,17 +9131,17 @@
       <c r="C280" t="s">
         <v>335</v>
       </c>
+      <c r="F280" s="2">
+        <v>27.7243563</v>
+      </c>
+      <c r="G280" s="2">
+        <v>68.822808199999997</v>
+      </c>
       <c r="H280" t="s">
         <v>193</v>
       </c>
-      <c r="M280" s="2">
-        <v>27.7243563</v>
-      </c>
-      <c r="N280" s="2">
-        <v>68.822808199999997</v>
-      </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>280</v>
       </c>
@@ -9160,17 +9154,17 @@
       <c r="D281" t="s">
         <v>337</v>
       </c>
+      <c r="F281" s="2">
+        <v>27.613465699999999</v>
+      </c>
+      <c r="G281" s="2">
+        <v>69.093791499999995</v>
+      </c>
       <c r="H281" t="s">
         <v>336</v>
       </c>
-      <c r="M281" s="2">
-        <v>27.613465699999999</v>
-      </c>
-      <c r="N281" s="2">
-        <v>69.093791499999995</v>
-      </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>281</v>
       </c>
@@ -9183,17 +9177,17 @@
       <c r="D282" t="s">
         <v>339</v>
       </c>
+      <c r="F282" s="2">
+        <v>27.7139335</v>
+      </c>
+      <c r="G282" s="2">
+        <v>68.843176799999995</v>
+      </c>
       <c r="H282" t="s">
         <v>338</v>
       </c>
-      <c r="M282" s="2">
-        <v>27.7139335</v>
-      </c>
-      <c r="N282" s="2">
-        <v>68.843176799999995</v>
-      </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>282</v>
       </c>
@@ -9206,20 +9200,20 @@
       <c r="D283" t="s">
         <v>342</v>
       </c>
+      <c r="F283" s="2">
+        <v>27.668657799999998</v>
+      </c>
+      <c r="G283" s="2">
+        <v>68.894346100000007</v>
+      </c>
       <c r="H283" t="s">
         <v>341</v>
       </c>
       <c r="I283" t="s">
         <v>340</v>
       </c>
-      <c r="M283" s="2">
-        <v>27.668657799999998</v>
-      </c>
-      <c r="N283" s="2">
-        <v>68.894346100000007</v>
-      </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>283</v>
       </c>
@@ -9229,17 +9223,17 @@
       <c r="C284" t="s">
         <v>335</v>
       </c>
+      <c r="F284" s="2">
+        <v>27.6936626</v>
+      </c>
+      <c r="G284" s="2">
+        <v>68.878434600000006</v>
+      </c>
       <c r="H284" t="s">
         <v>343</v>
       </c>
-      <c r="M284" s="2">
-        <v>27.6936626</v>
-      </c>
-      <c r="N284" s="2">
-        <v>68.878434600000006</v>
-      </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>284</v>
       </c>
@@ -9252,17 +9246,17 @@
       <c r="D285" t="s">
         <v>342</v>
       </c>
+      <c r="F285" s="2">
+        <v>27.693690700000001</v>
+      </c>
+      <c r="G285" s="2">
+        <v>68.892995099999993</v>
+      </c>
       <c r="H285" t="s">
         <v>344</v>
       </c>
-      <c r="M285" s="2">
-        <v>27.693690700000001</v>
-      </c>
-      <c r="N285" s="2">
-        <v>68.892995099999993</v>
-      </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>285</v>
       </c>
@@ -9272,6 +9266,12 @@
       <c r="C286" t="s">
         <v>335</v>
       </c>
+      <c r="F286" s="2">
+        <v>27.7243563</v>
+      </c>
+      <c r="G286" s="2">
+        <v>68.822808199999997</v>
+      </c>
       <c r="H286" t="s">
         <v>345</v>
       </c>
@@ -9284,14 +9284,8 @@
       <c r="L286" t="s">
         <v>430</v>
       </c>
-      <c r="M286" s="2">
-        <v>27.7243563</v>
-      </c>
-      <c r="N286" s="2">
-        <v>68.822808199999997</v>
-      </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>286</v>
       </c>
@@ -9301,17 +9295,17 @@
       <c r="C287" t="s">
         <v>346</v>
       </c>
+      <c r="F287" s="2">
+        <v>25.457039600000002</v>
+      </c>
+      <c r="G287" s="2">
+        <v>68.721459300000006</v>
+      </c>
       <c r="H287" t="s">
         <v>347</v>
       </c>
-      <c r="M287" s="2">
-        <v>25.457039600000002</v>
-      </c>
-      <c r="N287" s="2">
-        <v>68.721459300000006</v>
-      </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>287</v>
       </c>
@@ -9321,6 +9315,12 @@
       <c r="C288" t="s">
         <v>348</v>
       </c>
+      <c r="F288" s="2">
+        <v>25.125591700000001</v>
+      </c>
+      <c r="G288" s="2">
+        <v>68.542601099999999</v>
+      </c>
       <c r="H288" t="s">
         <v>175</v>
       </c>
@@ -9333,14 +9333,8 @@
       <c r="L288" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M288" s="2">
-        <v>25.125591700000001</v>
-      </c>
-      <c r="N288" s="2">
-        <v>68.542601099999999</v>
-      </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>288</v>
       </c>
@@ -9353,17 +9347,17 @@
       <c r="D289" t="s">
         <v>350</v>
       </c>
+      <c r="F289" s="2">
+        <v>24.6962002</v>
+      </c>
+      <c r="G289" s="2">
+        <v>70.175534400000004</v>
+      </c>
       <c r="H289" t="s">
         <v>351</v>
       </c>
-      <c r="M289" s="2">
-        <v>24.6962002</v>
-      </c>
-      <c r="N289" s="2">
-        <v>70.175534400000004</v>
-      </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>289</v>
       </c>
@@ -9376,17 +9370,17 @@
       <c r="D290" t="s">
         <v>353</v>
       </c>
+      <c r="F290" s="2">
+        <v>24.374767800000001</v>
+      </c>
+      <c r="G290" s="2">
+        <v>70.733422099999999</v>
+      </c>
       <c r="H290" t="s">
         <v>352</v>
       </c>
-      <c r="M290" s="2">
-        <v>24.374767800000001</v>
-      </c>
-      <c r="N290" s="2">
-        <v>70.733422099999999</v>
-      </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>290</v>
       </c>
@@ -9399,17 +9393,17 @@
       <c r="D291" t="s">
         <v>353</v>
       </c>
+      <c r="F291" s="2">
+        <v>24.3572311</v>
+      </c>
+      <c r="G291" s="2">
+        <v>70.755503300000001</v>
+      </c>
       <c r="H291" t="s">
         <v>357</v>
       </c>
-      <c r="M291" s="2">
-        <v>24.3572311</v>
-      </c>
-      <c r="N291" s="2">
-        <v>70.755503300000001</v>
-      </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>291</v>
       </c>
@@ -9422,17 +9416,17 @@
       <c r="D292" t="s">
         <v>354</v>
       </c>
+      <c r="F292" s="2">
+        <v>24.281240499999999</v>
+      </c>
+      <c r="G292" s="2">
+        <v>70.785236800000007</v>
+      </c>
       <c r="H292" t="s">
         <v>358</v>
       </c>
-      <c r="M292" s="2">
-        <v>24.281240499999999</v>
-      </c>
-      <c r="N292" s="2">
-        <v>70.785236800000007</v>
-      </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>292</v>
       </c>
@@ -9445,17 +9439,17 @@
       <c r="D293" t="s">
         <v>355</v>
       </c>
+      <c r="F293" s="2">
+        <v>24.9760469</v>
+      </c>
+      <c r="G293" s="2">
+        <v>69.925829699999994</v>
+      </c>
       <c r="H293" t="s">
         <v>359</v>
       </c>
-      <c r="M293" s="2">
-        <v>24.9760469</v>
-      </c>
-      <c r="N293" s="2">
-        <v>69.925829699999994</v>
-      </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>293</v>
       </c>
@@ -9468,20 +9462,20 @@
       <c r="D294" t="s">
         <v>356</v>
       </c>
+      <c r="F294" s="2">
+        <v>24.389522500000002</v>
+      </c>
+      <c r="G294" s="2">
+        <v>71.036405099999996</v>
+      </c>
       <c r="H294" t="s">
         <v>361</v>
       </c>
       <c r="J294" t="s">
         <v>360</v>
       </c>
-      <c r="M294" s="2">
-        <v>24.389522500000002</v>
-      </c>
-      <c r="N294" s="2">
-        <v>71.036405099999996</v>
-      </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>294</v>
       </c>
@@ -9494,6 +9488,12 @@
       <c r="D295" t="s">
         <v>353</v>
       </c>
+      <c r="F295" s="2">
+        <v>24.357544600000001</v>
+      </c>
+      <c r="G295" s="2">
+        <v>70.7528492</v>
+      </c>
       <c r="H295" t="s">
         <v>362</v>
       </c>
@@ -9506,14 +9506,8 @@
       <c r="L295" t="s">
         <v>430</v>
       </c>
-      <c r="M295" s="2">
-        <v>24.357544600000001</v>
-      </c>
-      <c r="N295" s="2">
-        <v>70.7528492</v>
-      </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>295</v>
       </c>
@@ -9526,17 +9520,17 @@
       <c r="D296" t="s">
         <v>363</v>
       </c>
+      <c r="F296" s="2">
+        <v>24.5827706</v>
+      </c>
+      <c r="G296" s="2">
+        <v>69.602774699999998</v>
+      </c>
       <c r="H296" t="s">
         <v>370</v>
       </c>
-      <c r="M296" s="2">
-        <v>24.5827706</v>
-      </c>
-      <c r="N296" s="2">
-        <v>69.602774699999998</v>
-      </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>296</v>
       </c>
@@ -9549,17 +9543,17 @@
       <c r="D297" t="s">
         <v>364</v>
       </c>
+      <c r="F297" s="2">
+        <v>24.980836700000001</v>
+      </c>
+      <c r="G297" s="2">
+        <v>69.919300399999997</v>
+      </c>
       <c r="H297" t="s">
         <v>369</v>
       </c>
-      <c r="M297" s="2">
-        <v>24.980836700000001</v>
-      </c>
-      <c r="N297" s="2">
-        <v>69.919300399999997</v>
-      </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>297</v>
       </c>
@@ -9572,17 +9566,17 @@
       <c r="D298" t="s">
         <v>365</v>
       </c>
+      <c r="F298" s="2">
+        <v>24.743637799999998</v>
+      </c>
+      <c r="G298" s="2">
+        <v>69.8061328</v>
+      </c>
       <c r="H298" t="s">
         <v>368</v>
       </c>
-      <c r="M298" s="2">
-        <v>24.743637799999998</v>
-      </c>
-      <c r="N298" s="2">
-        <v>69.8061328</v>
-      </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>298</v>
       </c>
@@ -9595,17 +9589,17 @@
       <c r="D299" t="s">
         <v>366</v>
       </c>
+      <c r="F299" s="2">
+        <v>24.657612199999999</v>
+      </c>
+      <c r="G299" s="2">
+        <v>70.640587499999995</v>
+      </c>
       <c r="H299" t="s">
         <v>367</v>
       </c>
-      <c r="M299" s="2">
-        <v>24.657612199999999</v>
-      </c>
-      <c r="N299" s="2">
-        <v>70.640587499999995</v>
-      </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>299</v>
       </c>
@@ -9618,6 +9612,12 @@
       <c r="D300" t="s">
         <v>353</v>
       </c>
+      <c r="F300" s="2">
+        <v>24.3572311</v>
+      </c>
+      <c r="G300" s="2">
+        <v>70.755503300000001</v>
+      </c>
       <c r="H300" t="s">
         <v>371</v>
       </c>
@@ -9630,14 +9630,8 @@
       <c r="L300" t="s">
         <v>430</v>
       </c>
-      <c r="M300" s="2">
-        <v>24.3572311</v>
-      </c>
-      <c r="N300" s="2">
-        <v>70.755503300000001</v>
-      </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>300</v>
       </c>
@@ -9650,17 +9644,17 @@
       <c r="D301" t="s">
         <v>364</v>
       </c>
+      <c r="F301" s="2">
+        <v>24.974508799999999</v>
+      </c>
+      <c r="G301" s="2">
+        <v>69.923181700000001</v>
+      </c>
       <c r="H301" t="s">
         <v>376</v>
       </c>
-      <c r="M301" s="2">
-        <v>24.974508799999999</v>
-      </c>
-      <c r="N301" s="2">
-        <v>69.923181700000001</v>
-      </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>301</v>
       </c>
@@ -9673,6 +9667,12 @@
       <c r="D302" t="s">
         <v>372</v>
       </c>
+      <c r="F302" s="2">
+        <v>24.342039</v>
+      </c>
+      <c r="G302" s="2">
+        <v>70.740264199999999</v>
+      </c>
       <c r="H302" t="s">
         <v>304</v>
       </c>
@@ -9685,14 +9685,8 @@
       <c r="L302" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M302" s="2">
-        <v>24.342039</v>
-      </c>
-      <c r="N302" s="2">
-        <v>70.740264199999999</v>
-      </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>302</v>
       </c>
@@ -9705,6 +9699,12 @@
       <c r="D303" t="s">
         <v>373</v>
       </c>
+      <c r="F303" s="2">
+        <v>25.5105787</v>
+      </c>
+      <c r="G303" s="2">
+        <v>69.375658599999994</v>
+      </c>
       <c r="H303" t="s">
         <v>377</v>
       </c>
@@ -9717,14 +9717,8 @@
       <c r="L303" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M303" s="2">
-        <v>25.5105787</v>
-      </c>
-      <c r="N303" s="2">
-        <v>69.375658599999994</v>
-      </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>303</v>
       </c>
@@ -9737,6 +9731,12 @@
       <c r="D304" t="s">
         <v>364</v>
       </c>
+      <c r="F304" s="2">
+        <v>24.980836700000001</v>
+      </c>
+      <c r="G304" s="2">
+        <v>69.919300399999997</v>
+      </c>
       <c r="H304" t="s">
         <v>378</v>
       </c>
@@ -9749,14 +9749,8 @@
       <c r="L304" t="s">
         <v>430</v>
       </c>
-      <c r="M304" s="2">
-        <v>24.980836700000001</v>
-      </c>
-      <c r="N304" s="2">
-        <v>69.919300399999997</v>
-      </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>304</v>
       </c>
@@ -9769,17 +9763,17 @@
       <c r="D305" t="s">
         <v>364</v>
       </c>
+      <c r="F305" s="2">
+        <v>24.980836700000001</v>
+      </c>
+      <c r="G305" s="2">
+        <v>69.919300399999997</v>
+      </c>
       <c r="H305" t="s">
         <v>379</v>
       </c>
-      <c r="M305" s="2">
-        <v>24.980836700000001</v>
-      </c>
-      <c r="N305" s="2">
-        <v>69.919300399999997</v>
-      </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>305</v>
       </c>
@@ -9792,17 +9786,17 @@
       <c r="D306" t="s">
         <v>364</v>
       </c>
+      <c r="F306" s="2">
+        <v>24.992001699999999</v>
+      </c>
+      <c r="G306" s="2">
+        <v>69.924358499999997</v>
+      </c>
       <c r="H306" t="s">
         <v>380</v>
       </c>
-      <c r="M306" s="2">
-        <v>24.992001699999999</v>
-      </c>
-      <c r="N306" s="2">
-        <v>69.924358499999997</v>
-      </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>306</v>
       </c>
@@ -9815,6 +9809,12 @@
       <c r="D307" t="s">
         <v>364</v>
       </c>
+      <c r="F307" s="2">
+        <v>24.976267</v>
+      </c>
+      <c r="G307" s="2">
+        <v>69.922252999999998</v>
+      </c>
       <c r="H307" t="s">
         <v>76</v>
       </c>
@@ -9827,14 +9827,8 @@
       <c r="L307" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M307" s="2">
-        <v>24.976267</v>
-      </c>
-      <c r="N307" s="2">
-        <v>69.922252999999998</v>
-      </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>307</v>
       </c>
@@ -9847,17 +9841,17 @@
       <c r="D308" t="s">
         <v>365</v>
       </c>
+      <c r="F308" s="2">
+        <v>24.743637799999998</v>
+      </c>
+      <c r="G308" s="2">
+        <v>69.8061328</v>
+      </c>
       <c r="H308" t="s">
         <v>381</v>
       </c>
-      <c r="M308" s="2">
-        <v>24.743637799999998</v>
-      </c>
-      <c r="N308" s="2">
-        <v>69.8061328</v>
-      </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>308</v>
       </c>
@@ -9870,6 +9864,12 @@
       <c r="D309" t="s">
         <v>365</v>
       </c>
+      <c r="F309" s="2">
+        <v>24.735725599999999</v>
+      </c>
+      <c r="G309" s="2">
+        <v>69.796671799999999</v>
+      </c>
       <c r="H309" t="s">
         <v>382</v>
       </c>
@@ -9882,14 +9882,8 @@
       <c r="L309" t="s">
         <v>430</v>
       </c>
-      <c r="M309" s="2">
-        <v>24.735725599999999</v>
-      </c>
-      <c r="N309" s="2">
-        <v>69.796671799999999</v>
-      </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>309</v>
       </c>
@@ -9902,17 +9896,17 @@
       <c r="D310" t="s">
         <v>365</v>
       </c>
+      <c r="F310" s="2">
+        <v>24.743637799999998</v>
+      </c>
+      <c r="G310" s="2">
+        <v>69.8061328</v>
+      </c>
       <c r="H310" t="s">
         <v>383</v>
       </c>
-      <c r="M310" s="2">
-        <v>24.743637799999998</v>
-      </c>
-      <c r="N310" s="2">
-        <v>69.8061328</v>
-      </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>310</v>
       </c>
@@ -9925,6 +9919,12 @@
       <c r="D311" t="s">
         <v>365</v>
       </c>
+      <c r="F311" s="2">
+        <v>24.743637799999998</v>
+      </c>
+      <c r="G311" s="2">
+        <v>69.8061328</v>
+      </c>
       <c r="H311" t="s">
         <v>265</v>
       </c>
@@ -9937,14 +9937,8 @@
       <c r="L311" t="s">
         <v>449</v>
       </c>
-      <c r="M311" s="2">
-        <v>24.743637799999998</v>
-      </c>
-      <c r="N311" s="2">
-        <v>69.8061328</v>
-      </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>311</v>
       </c>
@@ -9957,6 +9951,12 @@
       <c r="D312" t="s">
         <v>365</v>
       </c>
+      <c r="F312" s="2">
+        <v>24.743637799999998</v>
+      </c>
+      <c r="G312" s="2">
+        <v>69.8061328</v>
+      </c>
       <c r="H312" t="s">
         <v>384</v>
       </c>
@@ -9969,14 +9969,8 @@
       <c r="L312" t="s">
         <v>449</v>
       </c>
-      <c r="M312" s="2">
-        <v>24.743637799999998</v>
-      </c>
-      <c r="N312" s="2">
-        <v>69.8061328</v>
-      </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>312</v>
       </c>
@@ -9989,17 +9983,17 @@
       <c r="D313" t="s">
         <v>365</v>
       </c>
+      <c r="F313" s="2">
+        <v>24.743637799999998</v>
+      </c>
+      <c r="G313" s="2">
+        <v>69.8061328</v>
+      </c>
       <c r="H313" t="s">
         <v>385</v>
       </c>
-      <c r="M313" s="2">
-        <v>24.743637799999998</v>
-      </c>
-      <c r="N313" s="2">
-        <v>69.8061328</v>
-      </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>313</v>
       </c>
@@ -10012,6 +10006,12 @@
       <c r="D314" t="s">
         <v>365</v>
       </c>
+      <c r="F314" s="2">
+        <v>24.738564700000001</v>
+      </c>
+      <c r="G314" s="2">
+        <v>69.799203700000007</v>
+      </c>
       <c r="H314" t="s">
         <v>386</v>
       </c>
@@ -10024,14 +10024,8 @@
       <c r="L314" t="s">
         <v>453</v>
       </c>
-      <c r="M314" s="2">
-        <v>24.738564700000001</v>
-      </c>
-      <c r="N314" s="2">
-        <v>69.799203700000007</v>
-      </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>314</v>
       </c>
@@ -10044,17 +10038,17 @@
       <c r="D315" t="s">
         <v>365</v>
       </c>
+      <c r="F315" s="2">
+        <v>24.743637799999998</v>
+      </c>
+      <c r="G315" s="2">
+        <v>69.8061328</v>
+      </c>
       <c r="H315" t="s">
         <v>387</v>
       </c>
-      <c r="M315" s="2">
-        <v>24.743637799999998</v>
-      </c>
-      <c r="N315" s="2">
-        <v>69.8061328</v>
-      </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>315</v>
       </c>
@@ -10067,17 +10061,17 @@
       <c r="D316" t="s">
         <v>365</v>
       </c>
+      <c r="F316" s="2">
+        <v>24.748719099999999</v>
+      </c>
+      <c r="G316" s="2">
+        <v>69.806629999999998</v>
+      </c>
       <c r="H316" t="s">
         <v>388</v>
       </c>
-      <c r="M316" s="2">
-        <v>24.748719099999999</v>
-      </c>
-      <c r="N316" s="2">
-        <v>69.806629999999998</v>
-      </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>316</v>
       </c>
@@ -10090,17 +10084,17 @@
       <c r="D317" t="s">
         <v>365</v>
       </c>
+      <c r="F317" s="2">
+        <v>24.743637799999998</v>
+      </c>
+      <c r="G317" s="2">
+        <v>69.8061328</v>
+      </c>
       <c r="H317" t="s">
         <v>389</v>
       </c>
-      <c r="M317" s="2">
-        <v>24.743637799999998</v>
-      </c>
-      <c r="N317" s="2">
-        <v>69.8061328</v>
-      </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>317</v>
       </c>
@@ -10113,17 +10107,17 @@
       <c r="D318" t="s">
         <v>353</v>
       </c>
+      <c r="F318" s="2">
+        <v>24.399888700000002</v>
+      </c>
+      <c r="G318" s="2">
+        <v>71.064993700000002</v>
+      </c>
       <c r="H318" t="s">
         <v>390</v>
       </c>
-      <c r="M318" s="2">
-        <v>24.399888700000002</v>
-      </c>
-      <c r="N318" s="2">
-        <v>71.064993700000002</v>
-      </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>318</v>
       </c>
@@ -10136,17 +10130,17 @@
       <c r="D319" t="s">
         <v>374</v>
       </c>
+      <c r="F319" s="2">
+        <v>24.877676699999999</v>
+      </c>
+      <c r="G319" s="2">
+        <v>70.240832499999996</v>
+      </c>
       <c r="H319" t="s">
         <v>391</v>
       </c>
-      <c r="M319" s="2">
-        <v>24.877676699999999</v>
-      </c>
-      <c r="N319" s="2">
-        <v>70.240832499999996</v>
-      </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>319</v>
       </c>
@@ -10159,6 +10153,12 @@
       <c r="D320" t="s">
         <v>375</v>
       </c>
+      <c r="F320" s="2">
+        <v>25.1723693</v>
+      </c>
+      <c r="G320" s="2">
+        <v>69.969922199999999</v>
+      </c>
       <c r="H320" t="s">
         <v>392</v>
       </c>
@@ -10171,14 +10171,8 @@
       <c r="L320" t="s">
         <v>449</v>
       </c>
-      <c r="M320" s="2">
-        <v>25.1723693</v>
-      </c>
-      <c r="N320" s="2">
-        <v>69.969922199999999</v>
-      </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>320</v>
       </c>
@@ -10191,17 +10185,17 @@
       <c r="D321" t="s">
         <v>353</v>
       </c>
+      <c r="F321" s="2">
+        <v>24.369545800000001</v>
+      </c>
+      <c r="G321" s="2">
+        <v>70.664815200000007</v>
+      </c>
       <c r="H321" t="s">
         <v>393</v>
       </c>
-      <c r="M321" s="2">
-        <v>24.369545800000001</v>
-      </c>
-      <c r="N321" s="2">
-        <v>70.664815200000007</v>
-      </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>321</v>
       </c>
@@ -10211,17 +10205,17 @@
       <c r="C322" t="s">
         <v>394</v>
       </c>
+      <c r="F322" s="2">
+        <v>24.7483498</v>
+      </c>
+      <c r="G322" s="2">
+        <v>67.963845699999993</v>
+      </c>
       <c r="H322" t="s">
         <v>395</v>
       </c>
-      <c r="M322" s="2">
-        <v>24.7483498</v>
-      </c>
-      <c r="N322" s="2">
-        <v>67.963845699999993</v>
-      </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>322</v>
       </c>
@@ -10234,6 +10228,12 @@
       <c r="D323" t="s">
         <v>398</v>
       </c>
+      <c r="F323" s="2">
+        <v>24.733939899999999</v>
+      </c>
+      <c r="G323" s="2">
+        <v>68.233873799999998</v>
+      </c>
       <c r="H323" t="s">
         <v>397</v>
       </c>
@@ -10246,14 +10246,8 @@
       <c r="L323" t="s">
         <v>449</v>
       </c>
-      <c r="M323" s="2">
-        <v>24.733939899999999</v>
-      </c>
-      <c r="N323" s="2">
-        <v>68.233873799999998</v>
-      </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>323</v>
       </c>
@@ -10266,6 +10260,12 @@
       <c r="D324" t="s">
         <v>399</v>
       </c>
+      <c r="F324" s="2">
+        <v>24.747502900000001</v>
+      </c>
+      <c r="G324" s="2">
+        <v>67.910631800000004</v>
+      </c>
       <c r="H324" t="s">
         <v>186</v>
       </c>
@@ -10278,14 +10278,8 @@
       <c r="L324" t="s">
         <v>449</v>
       </c>
-      <c r="M324" s="2">
-        <v>24.747502900000001</v>
-      </c>
-      <c r="N324" s="2">
-        <v>67.910631800000004</v>
-      </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>324</v>
       </c>
@@ -10298,17 +10292,17 @@
       <c r="D325" t="s">
         <v>400</v>
       </c>
+      <c r="F325" s="2">
+        <v>24.747502900000001</v>
+      </c>
+      <c r="G325" s="2">
+        <v>67.910631800000004</v>
+      </c>
       <c r="H325" t="s">
         <v>405</v>
       </c>
-      <c r="M325" s="2">
-        <v>24.747502900000001</v>
-      </c>
-      <c r="N325" s="2">
-        <v>67.910631800000004</v>
-      </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>325</v>
       </c>
@@ -10321,17 +10315,17 @@
       <c r="D326" t="s">
         <v>401</v>
       </c>
+      <c r="F326" s="2">
+        <v>24.7460314</v>
+      </c>
+      <c r="G326" s="2">
+        <v>67.9247242</v>
+      </c>
       <c r="H326" t="s">
         <v>406</v>
       </c>
-      <c r="M326" s="2">
-        <v>24.7460314</v>
-      </c>
-      <c r="N326" s="2">
-        <v>67.9247242</v>
-      </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>326</v>
       </c>
@@ -10344,20 +10338,20 @@
       <c r="D327" t="s">
         <v>403</v>
       </c>
+      <c r="F327" s="2">
+        <v>24.747502900000001</v>
+      </c>
+      <c r="G327" s="2">
+        <v>67.910631800000004</v>
+      </c>
       <c r="H327" t="s">
         <v>406</v>
       </c>
       <c r="I327" t="s">
         <v>407</v>
       </c>
-      <c r="M327" s="2">
-        <v>24.747502900000001</v>
-      </c>
-      <c r="N327" s="2">
-        <v>67.910631800000004</v>
-      </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>327</v>
       </c>
@@ -10370,17 +10364,17 @@
       <c r="D328" t="s">
         <v>402</v>
       </c>
+      <c r="F328" s="2">
+        <v>24.7532946</v>
+      </c>
+      <c r="G328" s="2">
+        <v>67.899613799999997</v>
+      </c>
       <c r="H328" t="s">
         <v>408</v>
       </c>
-      <c r="M328" s="2">
-        <v>24.7532946</v>
-      </c>
-      <c r="N328" s="2">
-        <v>67.899613799999997</v>
-      </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>328</v>
       </c>
@@ -10393,6 +10387,12 @@
       <c r="D329" t="s">
         <v>402</v>
       </c>
+      <c r="F329" s="2">
+        <v>24.752719599999999</v>
+      </c>
+      <c r="G329" s="2">
+        <v>67.889766499999993</v>
+      </c>
       <c r="H329" t="s">
         <v>409</v>
       </c>
@@ -10405,14 +10405,8 @@
       <c r="L329" t="s">
         <v>430</v>
       </c>
-      <c r="M329" s="2">
-        <v>24.752719599999999</v>
-      </c>
-      <c r="N329" s="2">
-        <v>67.889766499999993</v>
-      </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>329</v>
       </c>
@@ -10422,17 +10416,17 @@
       <c r="C330" t="s">
         <v>394</v>
       </c>
+      <c r="F330" s="2">
+        <v>24.747502900000001</v>
+      </c>
+      <c r="G330" s="2">
+        <v>67.910631800000004</v>
+      </c>
       <c r="H330" t="s">
         <v>396</v>
       </c>
-      <c r="M330" s="2">
-        <v>24.747502900000001</v>
-      </c>
-      <c r="N330" s="2">
-        <v>67.910631800000004</v>
-      </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>330</v>
       </c>
@@ -10445,6 +10439,12 @@
       <c r="D331" t="s">
         <v>403</v>
       </c>
+      <c r="F331" s="2">
+        <v>24.747502900000001</v>
+      </c>
+      <c r="G331" s="2">
+        <v>67.910631800000004</v>
+      </c>
       <c r="H331" t="s">
         <v>410</v>
       </c>
@@ -10460,14 +10460,8 @@
       <c r="L331" t="s">
         <v>430</v>
       </c>
-      <c r="M331" s="2">
-        <v>24.747502900000001</v>
-      </c>
-      <c r="N331" s="2">
-        <v>67.910631800000004</v>
-      </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>331</v>
       </c>
@@ -10480,6 +10474,12 @@
       <c r="D332" t="s">
         <v>404</v>
       </c>
+      <c r="F332" s="2">
+        <v>24.747502900000001</v>
+      </c>
+      <c r="G332" s="2">
+        <v>67.910631800000004</v>
+      </c>
       <c r="H332" t="s">
         <v>76</v>
       </c>
@@ -10492,14 +10492,8 @@
       <c r="L332" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M332" s="2">
-        <v>24.747502900000001</v>
-      </c>
-      <c r="N332" s="2">
-        <v>67.910631800000004</v>
-      </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>332</v>
       </c>
@@ -10512,17 +10506,17 @@
       <c r="D333" t="s">
         <v>402</v>
       </c>
+      <c r="F333" s="2">
+        <v>24.784290899999998</v>
+      </c>
+      <c r="G333" s="2">
+        <v>67.904111400000005</v>
+      </c>
       <c r="H333" t="s">
         <v>411</v>
       </c>
-      <c r="M333" s="2">
-        <v>24.784290899999998</v>
-      </c>
-      <c r="N333" s="2">
-        <v>67.904111400000005</v>
-      </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>333</v>
       </c>
@@ -10532,17 +10526,17 @@
       <c r="C334" t="s">
         <v>412</v>
       </c>
+      <c r="F334" s="2">
+        <v>25.413606699999999</v>
+      </c>
+      <c r="G334" s="2">
+        <v>69.772400399999995</v>
+      </c>
       <c r="H334" t="s">
         <v>414</v>
       </c>
-      <c r="M334" s="2">
-        <v>25.413606699999999</v>
-      </c>
-      <c r="N334" s="2">
-        <v>69.772400399999995</v>
-      </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>334</v>
       </c>
@@ -10555,17 +10549,17 @@
       <c r="D335" t="s">
         <v>416</v>
       </c>
+      <c r="F335" s="2">
+        <v>25.5587999</v>
+      </c>
+      <c r="G335" s="2">
+        <v>69.534047799999996</v>
+      </c>
       <c r="H335" t="s">
         <v>415</v>
       </c>
-      <c r="M335" s="2">
-        <v>25.5587999</v>
-      </c>
-      <c r="N335" s="2">
-        <v>69.534047799999996</v>
-      </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>335</v>
       </c>
@@ -10578,17 +10572,17 @@
       <c r="D336" t="s">
         <v>416</v>
       </c>
+      <c r="F336" s="2">
+        <v>25.5257933</v>
+      </c>
+      <c r="G336" s="2">
+        <v>69.370676900000007</v>
+      </c>
       <c r="H336" t="s">
         <v>413</v>
       </c>
-      <c r="M336" s="2">
-        <v>25.5257933</v>
-      </c>
-      <c r="N336" s="2">
-        <v>69.370676900000007</v>
-      </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>336</v>
       </c>
@@ -10598,6 +10592,12 @@
       <c r="C337" t="s">
         <v>412</v>
       </c>
+      <c r="F337" s="2">
+        <v>25.354928000000001</v>
+      </c>
+      <c r="G337" s="2">
+        <v>69.737628599999994</v>
+      </c>
       <c r="H337" t="s">
         <v>417</v>
       </c>
@@ -10610,14 +10610,8 @@
       <c r="L337" t="s">
         <v>430</v>
       </c>
-      <c r="M337" s="2">
-        <v>25.354928000000001</v>
-      </c>
-      <c r="N337" s="2">
-        <v>69.737628599999994</v>
-      </c>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>337</v>
       </c>
@@ -10630,6 +10624,12 @@
       <c r="D338" t="s">
         <v>418</v>
       </c>
+      <c r="F338" s="2">
+        <v>25.352112000000002</v>
+      </c>
+      <c r="G338" s="2">
+        <v>69.759874499999995</v>
+      </c>
       <c r="H338" t="s">
         <v>392</v>
       </c>
@@ -10642,14 +10642,8 @@
       <c r="L338" t="s">
         <v>449</v>
       </c>
-      <c r="M338" s="2">
-        <v>25.352112000000002</v>
-      </c>
-      <c r="N338" s="2">
-        <v>69.759874499999995</v>
-      </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>338</v>
       </c>
@@ -10662,17 +10656,17 @@
       <c r="D339" t="s">
         <v>419</v>
       </c>
+      <c r="F339" s="2">
+        <v>25.153788200000001</v>
+      </c>
+      <c r="G339" s="2">
+        <v>69.687586999999994</v>
+      </c>
       <c r="H339" t="s">
         <v>420</v>
       </c>
-      <c r="M339" s="2">
-        <v>25.153788200000001</v>
-      </c>
-      <c r="N339" s="2">
-        <v>69.687586999999994</v>
-      </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>339</v>
       </c>
@@ -10685,17 +10679,17 @@
       <c r="D340" t="s">
         <v>422</v>
       </c>
+      <c r="F340" s="2">
+        <v>25.453975400000001</v>
+      </c>
+      <c r="G340" s="2">
+        <v>69.234443799999994</v>
+      </c>
       <c r="H340" t="s">
         <v>421</v>
       </c>
-      <c r="M340" s="2">
-        <v>25.453975400000001</v>
-      </c>
-      <c r="N340" s="2">
-        <v>69.234443799999994</v>
-      </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>340</v>
       </c>
@@ -10708,6 +10702,12 @@
       <c r="D341" t="s">
         <v>418</v>
       </c>
+      <c r="F341" s="2">
+        <v>25.416512099999998</v>
+      </c>
+      <c r="G341" s="2">
+        <v>69.775851700000004</v>
+      </c>
       <c r="H341" t="s">
         <v>423</v>
       </c>
@@ -10720,14 +10720,8 @@
       <c r="L341" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M341" s="2">
-        <v>25.416512099999998</v>
-      </c>
-      <c r="N341" s="2">
-        <v>69.775851700000004</v>
-      </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>341</v>
       </c>
@@ -10737,17 +10731,17 @@
       <c r="C342" t="s">
         <v>412</v>
       </c>
+      <c r="F342" s="2">
+        <v>25.3662676</v>
+      </c>
+      <c r="G342" s="2">
+        <v>69.741979999999998</v>
+      </c>
       <c r="H342" t="s">
         <v>424</v>
       </c>
-      <c r="M342" s="2">
-        <v>25.3662676</v>
-      </c>
-      <c r="N342" s="2">
-        <v>69.741979999999998</v>
-      </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>342</v>
       </c>
@@ -10757,17 +10751,17 @@
       <c r="C343" t="s">
         <v>412</v>
       </c>
+      <c r="F343" s="2">
+        <v>25.415651400000002</v>
+      </c>
+      <c r="G343" s="2">
+        <v>69.754325600000001</v>
+      </c>
       <c r="H343" t="s">
         <v>425</v>
       </c>
-      <c r="M343" s="2">
-        <v>25.415651400000002</v>
-      </c>
-      <c r="N343" s="2">
-        <v>69.754325600000001</v>
-      </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>343</v>
       </c>
@@ -10780,18 +10774,18 @@
       <c r="D344" t="s">
         <v>427</v>
       </c>
+      <c r="F344" s="2">
+        <v>25.3754992</v>
+      </c>
+      <c r="G344" s="2">
+        <v>69.756261499999994</v>
+      </c>
       <c r="H344" t="s">
         <v>426</v>
       </c>
-      <c r="M344" s="2">
-        <v>25.3754992</v>
-      </c>
-      <c r="N344" s="2">
-        <v>69.756261499999994</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1" xr:uid="{E4996F06-64E2-9640-BC5E-872CBC50CF4C}"/>
+  <autoFilter ref="A1:P1" xr:uid="{E4996F06-64E2-9640-BC5E-872CBC50CF4C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/data/list_hindu_temples_in_pak/20230408_list_hindu_temples_pakistan.xlsx
+++ b/data/list_hindu_temples_in_pak/20230408_list_hindu_temples_pakistan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/github/hindus_in_pakistan/data/list_hindu_temples_in_pak/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB3FD26-ADC6-EB4B-BEA1-4837275A7408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670BCCC8-CFE9-8D45-BA64-29BB068E2E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{F972FD0D-5727-664D-8ADB-B0BAD774D1DF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="list_hindu_temples_in_pak" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_hindu_temples_in_pak!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_hindu_temples_in_pak!$A$1:$P$344</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="610">
   <si>
     <t>serial_number</t>
   </si>
@@ -1812,6 +1812,63 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NarainDasBheel8/status/1623594706104987648</t>
+  </si>
+  <si>
+    <t>Ancient Jain Temple</t>
+  </si>
+  <si>
+    <t>Ancient Ruined Jain Temple, Road, Nagarparkar, Tharparkar, Sindh, Pakistan</t>
+  </si>
+  <si>
+    <t>Old Jain Temple</t>
+  </si>
+  <si>
+    <t>9PVJ+4WP, Unnamed Road, Bhodisar, Tharparkar, Sindh, Pakistan</t>
+  </si>
+  <si>
+    <t>Bhodisar</t>
+  </si>
+  <si>
+    <t>Bhodisar Temple 1</t>
+  </si>
+  <si>
+    <t>Pooni Jain Temple (Bhodisar Temple 3)</t>
+  </si>
+  <si>
+    <t>9PWJ+2G8, Nagarparkar, Tharparkar, Sindh, Pakistan</t>
+  </si>
+  <si>
+    <t>Ashoka Temple</t>
+  </si>
+  <si>
+    <t>9PVJ+4JR, Bhodisar, Tharparkar, Sindh, Pakistan</t>
+  </si>
+  <si>
+    <t>Sadourus Jain Temple</t>
+  </si>
+  <si>
+    <t>CQQV+CRM, Sadorus, Tharparkar, Sindh, Pakistan</t>
+  </si>
+  <si>
+    <t>Godiji Jain Derasar</t>
+  </si>
+  <si>
+    <t>JJQ9+735, Islam Kot-Nagar Parkar Rd, Antri, Sindh, Guri, Tharparkar, Sindh, Pakistan</t>
+  </si>
+  <si>
+    <t>Dado Mosani Shah</t>
+  </si>
+  <si>
+    <t>Keenlothur</t>
+  </si>
+  <si>
+    <t>8PGF+G6, Keenlothur, Tharparkar, Sindh, Pakistan</t>
   </si>
 </sst>
 </file>
@@ -2178,9 +2235,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4996F06-64E2-9640-BC5E-872CBC50CF4C}">
-  <dimension ref="A1:P344"/>
+  <dimension ref="A1:Q351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B316" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L351" sqref="L351"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2188,7 +2250,7 @@
     <col min="8" max="8" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2237,8 +2299,11 @@
       <c r="P1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2273,7 +2338,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2308,7 +2373,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2331,7 +2396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2351,7 +2416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2371,7 +2436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2400,7 +2465,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2420,7 +2485,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2448,8 +2513,20 @@
       <c r="L9" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>590</v>
+      </c>
+      <c r="N9" t="s">
+        <v>590</v>
+      </c>
+      <c r="O9" t="s">
+        <v>586</v>
+      </c>
+      <c r="P9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2469,7 +2546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2498,7 +2575,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2518,7 +2595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2541,7 +2618,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2561,7 +2638,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2590,7 +2667,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4917,7 +4994,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4939,8 +5016,26 @@
       <c r="H113" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J113" t="s">
+        <v>435</v>
+      </c>
+      <c r="M113" t="b">
+        <v>1</v>
+      </c>
+      <c r="N113" t="b">
+        <v>1</v>
+      </c>
+      <c r="O113" t="b">
+        <v>0</v>
+      </c>
+      <c r="P113" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4963,7 +5058,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4986,7 +5081,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5009,7 +5104,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5032,7 +5127,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5064,7 +5159,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5087,7 +5182,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5110,7 +5205,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5133,7 +5228,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5159,7 +5254,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5191,7 +5286,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5214,7 +5309,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5237,7 +5332,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5260,7 +5355,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5292,7 +5387,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -9334,7 +9429,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>288</v>
       </c>
@@ -9357,7 +9452,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>289</v>
       </c>
@@ -9380,7 +9475,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>290</v>
       </c>
@@ -9403,7 +9498,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>291</v>
       </c>
@@ -9426,7 +9521,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>292</v>
       </c>
@@ -9449,7 +9544,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>293</v>
       </c>
@@ -9463,19 +9558,34 @@
         <v>356</v>
       </c>
       <c r="F294" s="2">
-        <v>24.389522500000002</v>
+        <v>24.286096157593601</v>
       </c>
       <c r="G294" s="2">
-        <v>71.036405099999996</v>
+        <v>70.780502965023004</v>
       </c>
       <c r="H294" t="s">
-        <v>361</v>
+        <v>593</v>
       </c>
       <c r="J294" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L294" t="s">
+        <v>449</v>
+      </c>
+      <c r="M294" t="s">
+        <v>590</v>
+      </c>
+      <c r="N294" t="s">
+        <v>590</v>
+      </c>
+      <c r="O294" t="s">
+        <v>586</v>
+      </c>
+      <c r="P294" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>294</v>
       </c>
@@ -9507,7 +9617,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>295</v>
       </c>
@@ -9530,7 +9640,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>296</v>
       </c>
@@ -9553,7 +9663,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>297</v>
       </c>
@@ -9576,7 +9686,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>298</v>
       </c>
@@ -9599,7 +9709,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>299</v>
       </c>
@@ -9631,7 +9741,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>300</v>
       </c>
@@ -9654,7 +9764,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>301</v>
       </c>
@@ -9686,7 +9796,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>302</v>
       </c>
@@ -9718,7 +9828,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>303</v>
       </c>
@@ -10582,7 +10692,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>336</v>
       </c>
@@ -10611,7 +10721,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>337</v>
       </c>
@@ -10643,7 +10753,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>338</v>
       </c>
@@ -10666,7 +10776,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>339</v>
       </c>
@@ -10689,7 +10799,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>340</v>
       </c>
@@ -10721,7 +10831,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>341</v>
       </c>
@@ -10741,7 +10851,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>342</v>
       </c>
@@ -10761,7 +10871,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>343</v>
       </c>
@@ -10784,8 +10894,304 @@
         <v>426</v>
       </c>
     </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>173</v>
+      </c>
+      <c r="C345" t="s">
+        <v>349</v>
+      </c>
+      <c r="D345" t="s">
+        <v>597</v>
+      </c>
+      <c r="E345" t="s">
+        <v>594</v>
+      </c>
+      <c r="F345" s="2">
+        <v>24.355175540046499</v>
+      </c>
+      <c r="G345">
+        <v>70.753503809273894</v>
+      </c>
+      <c r="H345" t="s">
+        <v>595</v>
+      </c>
+      <c r="J345" t="s">
+        <v>360</v>
+      </c>
+      <c r="L345" t="s">
+        <v>449</v>
+      </c>
+      <c r="M345" t="s">
+        <v>590</v>
+      </c>
+      <c r="N345" t="s">
+        <v>590</v>
+      </c>
+      <c r="O345" t="s">
+        <v>586</v>
+      </c>
+      <c r="P345" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>173</v>
+      </c>
+      <c r="C346" t="s">
+        <v>349</v>
+      </c>
+      <c r="D346" t="s">
+        <v>597</v>
+      </c>
+      <c r="E346" t="s">
+        <v>596</v>
+      </c>
+      <c r="F346" s="2">
+        <v>24.3929669403025</v>
+      </c>
+      <c r="G346">
+        <v>70.732635040299797</v>
+      </c>
+      <c r="H346" t="s">
+        <v>598</v>
+      </c>
+      <c r="J346" t="s">
+        <v>360</v>
+      </c>
+      <c r="L346" t="s">
+        <v>449</v>
+      </c>
+      <c r="M346" t="s">
+        <v>590</v>
+      </c>
+      <c r="N346" t="s">
+        <v>590</v>
+      </c>
+      <c r="O346" t="s">
+        <v>586</v>
+      </c>
+      <c r="P346" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>173</v>
+      </c>
+      <c r="C347" t="s">
+        <v>349</v>
+      </c>
+      <c r="D347" t="s">
+        <v>597</v>
+      </c>
+      <c r="E347" t="s">
+        <v>600</v>
+      </c>
+      <c r="F347">
+        <v>24.395164924541799</v>
+      </c>
+      <c r="G347">
+        <v>70.731935564577199</v>
+      </c>
+      <c r="H347" t="s">
+        <v>599</v>
+      </c>
+      <c r="J347" t="s">
+        <v>360</v>
+      </c>
+      <c r="L347" t="s">
+        <v>449</v>
+      </c>
+      <c r="M347" t="s">
+        <v>590</v>
+      </c>
+      <c r="N347" t="s">
+        <v>590</v>
+      </c>
+      <c r="O347" t="s">
+        <v>586</v>
+      </c>
+      <c r="P347" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>173</v>
+      </c>
+      <c r="C348" t="s">
+        <v>349</v>
+      </c>
+      <c r="D348" t="s">
+        <v>597</v>
+      </c>
+      <c r="E348" t="s">
+        <v>602</v>
+      </c>
+      <c r="F348" s="2">
+        <v>24.392970724747101</v>
+      </c>
+      <c r="G348">
+        <v>70.731497564985304</v>
+      </c>
+      <c r="H348" t="s">
+        <v>601</v>
+      </c>
+      <c r="J348" t="s">
+        <v>360</v>
+      </c>
+      <c r="M348" t="s">
+        <v>590</v>
+      </c>
+      <c r="N348" t="s">
+        <v>590</v>
+      </c>
+      <c r="O348" t="s">
+        <v>586</v>
+      </c>
+      <c r="P348" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>173</v>
+      </c>
+      <c r="C349" t="s">
+        <v>349</v>
+      </c>
+      <c r="D349" t="s">
+        <v>597</v>
+      </c>
+      <c r="E349" t="s">
+        <v>604</v>
+      </c>
+      <c r="F349">
+        <v>24.438613848833601</v>
+      </c>
+      <c r="G349">
+        <v>70.794550825716001</v>
+      </c>
+      <c r="H349" t="s">
+        <v>603</v>
+      </c>
+      <c r="J349" t="s">
+        <v>360</v>
+      </c>
+      <c r="M349" t="s">
+        <v>590</v>
+      </c>
+      <c r="N349" t="s">
+        <v>586</v>
+      </c>
+      <c r="O349" t="s">
+        <v>586</v>
+      </c>
+      <c r="P349" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>173</v>
+      </c>
+      <c r="C350" t="s">
+        <v>349</v>
+      </c>
+      <c r="D350" t="s">
+        <v>374</v>
+      </c>
+      <c r="E350" t="s">
+        <v>606</v>
+      </c>
+      <c r="F350">
+        <v>24.645466319712899</v>
+      </c>
+      <c r="G350">
+        <v>70.648275374994299</v>
+      </c>
+      <c r="H350" t="s">
+        <v>605</v>
+      </c>
+      <c r="J350" t="s">
+        <v>360</v>
+      </c>
+      <c r="M350" t="s">
+        <v>590</v>
+      </c>
+      <c r="N350" t="s">
+        <v>590</v>
+      </c>
+      <c r="O350" t="s">
+        <v>586</v>
+      </c>
+      <c r="P350" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>173</v>
+      </c>
+      <c r="C351" t="s">
+        <v>349</v>
+      </c>
+      <c r="D351" t="s">
+        <v>608</v>
+      </c>
+      <c r="E351" t="s">
+        <v>609</v>
+      </c>
+      <c r="F351">
+        <v>24.326362338719299</v>
+      </c>
+      <c r="G351">
+        <v>69.723175184720404</v>
+      </c>
+      <c r="H351" t="s">
+        <v>607</v>
+      </c>
+      <c r="J351" t="s">
+        <v>360</v>
+      </c>
+      <c r="M351" t="s">
+        <v>590</v>
+      </c>
+      <c r="N351" t="s">
+        <v>590</v>
+      </c>
+      <c r="O351" t="s">
+        <v>586</v>
+      </c>
+      <c r="P351" t="s">
+        <v>586</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{E4996F06-64E2-9640-BC5E-872CBC50CF4C}"/>
+  <autoFilter ref="A1:P344" xr:uid="{E4996F06-64E2-9640-BC5E-872CBC50CF4C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/data/list_hindu_temples_in_pak/20230408_list_hindu_temples_pakistan.xlsx
+++ b/data/list_hindu_temples_in_pak/20230408_list_hindu_temples_pakistan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/github/hindus_in_pakistan/data/list_hindu_temples_in_pak/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58322BC-0333-DF46-8D98-7B2733FF77E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A64EA55E-51CA-BD45-9458-B1B618E7FAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{F972FD0D-5727-664D-8ADB-B0BAD774D1DF}"/>
   </bookViews>
@@ -16,9 +16,10 @@
     <sheet name="list_hindu_temples_in_pak" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_hindu_temples_in_pak!$A$1:$P$351</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_hindu_temples_in_pak!$A$1:$R$352</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="626">
   <si>
     <t>serial_number</t>
   </si>
@@ -1811,9 +1812,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>links</t>
-  </si>
-  <si>
     <t>https://twitter.com/NarainDasBheel8/status/1623594706104987648</t>
   </si>
   <si>
@@ -1875,13 +1873,58 @@
   </si>
   <si>
     <t>Pakistan Occupied Kashmir</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>credits</t>
+  </si>
+  <si>
+    <t>Google Search</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_Hindu_temples_in_Pakistan</t>
+  </si>
+  <si>
+    <t>VindicIndic</t>
+  </si>
+  <si>
+    <t>Narain Das Bheel</t>
+  </si>
+  <si>
+    <t>V287+P3M, Ranchore Line Bazaar, Barnes St, Narayan Pura Ranchore Lane, Karachi, Karachi City, Sindh, Pakistan</t>
+  </si>
+  <si>
+    <t>Magain Shalome Synagogue</t>
+  </si>
+  <si>
+    <t>Jewish</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Magain_Shalome_Synagogue</t>
+  </si>
+  <si>
+    <t>San Uvacha: https://twitter.com/SanUvacha</t>
+  </si>
+  <si>
+    <t>56J6+R6W, Mata mandar main chowk, Lahri, Sibi, Dist, Lahri, kachhi, Balochistan, Pakistan</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Contact: +92832421007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1902,6 +1945,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1920,15 +1971,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2241,22 +2295,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4996F06-64E2-9640-BC5E-872CBC50CF4C}">
-  <dimension ref="A1:Q351"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:S352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:B10"/>
+      <selection pane="bottomRight" activeCell="S195" sqref="S195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="48" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2306,15 +2362,21 @@
         <v>588</v>
       </c>
       <c r="Q1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+      <c r="R1" t="s">
+        <v>612</v>
+      </c>
+      <c r="S1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -2343,13 +2405,19 @@
       <c r="M2" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q2" t="s">
+        <v>614</v>
+      </c>
+      <c r="R2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -2381,13 +2449,19 @@
       <c r="P3" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q3" t="s">
+        <v>614</v>
+      </c>
+      <c r="R3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2407,13 +2481,19 @@
       <c r="J4" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q4" t="s">
+        <v>614</v>
+      </c>
+      <c r="R4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -2430,13 +2510,19 @@
       <c r="J5" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q5" t="s">
+        <v>614</v>
+      </c>
+      <c r="R5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -2453,13 +2539,19 @@
       <c r="J6" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q6" t="s">
+        <v>614</v>
+      </c>
+      <c r="R6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -2482,13 +2574,19 @@
       <c r="L7" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q7" t="s">
+        <v>614</v>
+      </c>
+      <c r="R7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -2505,13 +2603,19 @@
       <c r="J8" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q8" t="s">
+        <v>614</v>
+      </c>
+      <c r="R8" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -2546,13 +2650,19 @@
       <c r="P9" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q9" t="s">
+        <v>614</v>
+      </c>
+      <c r="R9" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -2569,8 +2679,14 @@
       <c r="J10" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q10" t="s">
+        <v>614</v>
+      </c>
+      <c r="R10" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2598,8 +2714,26 @@
       <c r="L11" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>589</v>
+      </c>
+      <c r="N11" t="s">
+        <v>589</v>
+      </c>
+      <c r="O11" t="s">
+        <v>589</v>
+      </c>
+      <c r="P11" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>614</v>
+      </c>
+      <c r="R11" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2621,8 +2755,32 @@
       <c r="J12" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>449</v>
+      </c>
+      <c r="L12" t="s">
+        <v>448</v>
+      </c>
+      <c r="M12" t="s">
+        <v>589</v>
+      </c>
+      <c r="N12" t="s">
+        <v>589</v>
+      </c>
+      <c r="O12" t="s">
+        <v>589</v>
+      </c>
+      <c r="P12" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>614</v>
+      </c>
+      <c r="R12" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2647,8 +2805,14 @@
       <c r="J13" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q13" t="s">
+        <v>614</v>
+      </c>
+      <c r="R13" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2670,8 +2834,17 @@
       <c r="J14" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>614</v>
+      </c>
+      <c r="R14" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2699,8 +2872,17 @@
       <c r="L15" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>614</v>
+      </c>
+      <c r="R15" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2725,8 +2907,14 @@
       <c r="J16" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q16" t="s">
+        <v>614</v>
+      </c>
+      <c r="R16" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2751,8 +2939,14 @@
       <c r="J17" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q17" t="s">
+        <v>614</v>
+      </c>
+      <c r="R17" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2780,8 +2974,14 @@
       <c r="L18" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q18" t="s">
+        <v>614</v>
+      </c>
+      <c r="R18" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2806,8 +3006,14 @@
       <c r="J19" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q19" t="s">
+        <v>614</v>
+      </c>
+      <c r="R19" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2829,8 +3035,14 @@
       <c r="J20" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q20" t="s">
+        <v>614</v>
+      </c>
+      <c r="R20" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2852,8 +3064,14 @@
       <c r="J21" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q21" t="s">
+        <v>614</v>
+      </c>
+      <c r="R21" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2884,8 +3102,14 @@
       <c r="L22" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q22" t="s">
+        <v>614</v>
+      </c>
+      <c r="R22" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2913,8 +3137,14 @@
       <c r="L23" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q23" t="s">
+        <v>614</v>
+      </c>
+      <c r="R23" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2939,8 +3169,14 @@
       <c r="J24" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q24" t="s">
+        <v>614</v>
+      </c>
+      <c r="R24" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2965,8 +3201,14 @@
       <c r="J25" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q25" t="s">
+        <v>614</v>
+      </c>
+      <c r="R25" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2988,8 +3230,14 @@
       <c r="J26" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q26" t="s">
+        <v>614</v>
+      </c>
+      <c r="R26" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3011,8 +3259,14 @@
       <c r="J27" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q27" t="s">
+        <v>614</v>
+      </c>
+      <c r="R27" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3040,8 +3294,14 @@
       <c r="L28" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q28" t="s">
+        <v>614</v>
+      </c>
+      <c r="R28" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3066,8 +3326,14 @@
       <c r="J29" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q29" t="s">
+        <v>614</v>
+      </c>
+      <c r="R29" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3089,8 +3355,14 @@
       <c r="J30" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q30" t="s">
+        <v>614</v>
+      </c>
+      <c r="R30" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3112,8 +3384,14 @@
       <c r="J31" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q31" t="s">
+        <v>614</v>
+      </c>
+      <c r="R31" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3135,8 +3413,14 @@
       <c r="J32" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q32" t="s">
+        <v>614</v>
+      </c>
+      <c r="R32" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3149,11 +3433,14 @@
       <c r="D33" t="s">
         <v>480</v>
       </c>
+      <c r="E33" t="s">
+        <v>623</v>
+      </c>
       <c r="F33" s="2">
-        <v>29.082774100000002</v>
+        <v>29.1822099988449</v>
       </c>
       <c r="G33" s="2">
-        <v>68.095445900000001</v>
+        <v>68.210684863664696</v>
       </c>
       <c r="H33" t="s">
         <v>481</v>
@@ -3167,8 +3454,29 @@
       <c r="L33" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>589</v>
+      </c>
+      <c r="N33" t="s">
+        <v>589</v>
+      </c>
+      <c r="O33" t="s">
+        <v>589</v>
+      </c>
+      <c r="P33" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>614</v>
+      </c>
+      <c r="R33" t="s">
+        <v>615</v>
+      </c>
+      <c r="S33" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3190,8 +3498,14 @@
       <c r="J34" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q34" t="s">
+        <v>614</v>
+      </c>
+      <c r="R34" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3213,8 +3527,14 @@
       <c r="J35" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q35" t="s">
+        <v>614</v>
+      </c>
+      <c r="R35" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3239,8 +3559,14 @@
       <c r="J36" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q36" t="s">
+        <v>614</v>
+      </c>
+      <c r="R36" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3268,8 +3594,14 @@
       <c r="L37" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q37" t="s">
+        <v>614</v>
+      </c>
+      <c r="R37" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3291,8 +3623,14 @@
       <c r="J38" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q38" t="s">
+        <v>614</v>
+      </c>
+      <c r="R38" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3314,8 +3652,14 @@
       <c r="J39" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q39" t="s">
+        <v>614</v>
+      </c>
+      <c r="R39" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3343,8 +3687,14 @@
       <c r="L40" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q40" t="s">
+        <v>614</v>
+      </c>
+      <c r="R40" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3369,8 +3719,14 @@
       <c r="J41" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q41" t="s">
+        <v>614</v>
+      </c>
+      <c r="R41" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3392,8 +3748,14 @@
       <c r="J42" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q42" t="s">
+        <v>614</v>
+      </c>
+      <c r="R42" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3415,8 +3777,14 @@
       <c r="J43" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q43" t="s">
+        <v>614</v>
+      </c>
+      <c r="R43" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3438,8 +3806,14 @@
       <c r="J44" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q44" t="s">
+        <v>614</v>
+      </c>
+      <c r="R44" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3467,8 +3841,14 @@
       <c r="L45" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q45" t="s">
+        <v>614</v>
+      </c>
+      <c r="R45" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3490,8 +3870,14 @@
       <c r="J46" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q46" t="s">
+        <v>614</v>
+      </c>
+      <c r="R46" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3519,8 +3905,14 @@
       <c r="L47" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q47" t="s">
+        <v>614</v>
+      </c>
+      <c r="R47" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3551,8 +3943,14 @@
       <c r="L48" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q48" t="s">
+        <v>614</v>
+      </c>
+      <c r="R48" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3580,8 +3978,14 @@
       <c r="L49" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q49" t="s">
+        <v>614</v>
+      </c>
+      <c r="R49" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3609,8 +4013,14 @@
       <c r="L50" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q50" t="s">
+        <v>614</v>
+      </c>
+      <c r="R50" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3635,8 +4045,14 @@
       <c r="J51" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q51" t="s">
+        <v>614</v>
+      </c>
+      <c r="R51" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3664,8 +4080,14 @@
       <c r="L52" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q52" t="s">
+        <v>614</v>
+      </c>
+      <c r="R52" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3693,8 +4115,14 @@
       <c r="L53" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q53" t="s">
+        <v>614</v>
+      </c>
+      <c r="R53" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3722,8 +4150,14 @@
       <c r="L54" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q54" t="s">
+        <v>614</v>
+      </c>
+      <c r="R54" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3754,8 +4188,14 @@
       <c r="L55" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q55" t="s">
+        <v>614</v>
+      </c>
+      <c r="R55" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3783,8 +4223,14 @@
       <c r="L56" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q56" t="s">
+        <v>614</v>
+      </c>
+      <c r="R56" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3812,8 +4258,14 @@
       <c r="L57" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q57" t="s">
+        <v>614</v>
+      </c>
+      <c r="R57" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3835,8 +4287,14 @@
       <c r="J58" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q58" t="s">
+        <v>614</v>
+      </c>
+      <c r="R58" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3864,8 +4322,14 @@
       <c r="L59" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q59" t="s">
+        <v>614</v>
+      </c>
+      <c r="R59" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3890,8 +4354,14 @@
       <c r="J60" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q60" t="s">
+        <v>614</v>
+      </c>
+      <c r="R60" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3922,8 +4392,14 @@
       <c r="L61" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q61" t="s">
+        <v>614</v>
+      </c>
+      <c r="R61" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3948,8 +4424,14 @@
       <c r="J62" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q62" t="s">
+        <v>614</v>
+      </c>
+      <c r="R62" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3974,8 +4456,14 @@
       <c r="J63" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q63" t="s">
+        <v>614</v>
+      </c>
+      <c r="R63" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4006,8 +4494,14 @@
       <c r="L64" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q64" t="s">
+        <v>614</v>
+      </c>
+      <c r="R64" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4032,8 +4526,14 @@
       <c r="J65" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q65" t="s">
+        <v>614</v>
+      </c>
+      <c r="R65" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4055,8 +4555,14 @@
       <c r="J66" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q66" t="s">
+        <v>614</v>
+      </c>
+      <c r="R66" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4081,8 +4587,14 @@
       <c r="J67" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q67" t="s">
+        <v>614</v>
+      </c>
+      <c r="R67" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4113,8 +4625,14 @@
       <c r="L68" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q68" t="s">
+        <v>614</v>
+      </c>
+      <c r="R68" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4136,8 +4654,14 @@
       <c r="J69" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q69" t="s">
+        <v>614</v>
+      </c>
+      <c r="R69" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4162,8 +4686,14 @@
       <c r="J70" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q70" t="s">
+        <v>614</v>
+      </c>
+      <c r="R70" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4188,8 +4718,14 @@
       <c r="J71" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q71" t="s">
+        <v>614</v>
+      </c>
+      <c r="R71" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4220,8 +4756,14 @@
       <c r="L72" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q72" t="s">
+        <v>614</v>
+      </c>
+      <c r="R72" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4252,8 +4794,14 @@
       <c r="L73" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q73" t="s">
+        <v>614</v>
+      </c>
+      <c r="R73" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4278,8 +4826,14 @@
       <c r="J74" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q74" t="s">
+        <v>614</v>
+      </c>
+      <c r="R74" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4301,8 +4855,14 @@
       <c r="J75" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q75" t="s">
+        <v>614</v>
+      </c>
+      <c r="R75" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4324,8 +4884,14 @@
       <c r="J76" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q76" t="s">
+        <v>614</v>
+      </c>
+      <c r="R76" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4356,8 +4922,14 @@
       <c r="L77" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q77" t="s">
+        <v>614</v>
+      </c>
+      <c r="R77" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4379,8 +4951,14 @@
       <c r="J78" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q78" t="s">
+        <v>614</v>
+      </c>
+      <c r="R78" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4402,8 +4980,14 @@
       <c r="J79" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q79" t="s">
+        <v>614</v>
+      </c>
+      <c r="R79" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4425,8 +5009,14 @@
       <c r="J80" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q80" t="s">
+        <v>614</v>
+      </c>
+      <c r="R80" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4448,8 +5038,14 @@
       <c r="J81" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q81" t="s">
+        <v>614</v>
+      </c>
+      <c r="R81" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4471,8 +5067,14 @@
       <c r="J82" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q82" t="s">
+        <v>614</v>
+      </c>
+      <c r="R82" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4494,8 +5096,14 @@
       <c r="J83" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q83" t="s">
+        <v>614</v>
+      </c>
+      <c r="R83" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4517,8 +5125,14 @@
       <c r="J84" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q84" t="s">
+        <v>614</v>
+      </c>
+      <c r="R84" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4540,8 +5154,14 @@
       <c r="J85" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q85" t="s">
+        <v>614</v>
+      </c>
+      <c r="R85" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4563,8 +5183,14 @@
       <c r="J86" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q86" t="s">
+        <v>614</v>
+      </c>
+      <c r="R86" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4586,8 +5212,14 @@
       <c r="J87" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q87" t="s">
+        <v>614</v>
+      </c>
+      <c r="R87" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4609,8 +5241,14 @@
       <c r="J88" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q88" t="s">
+        <v>614</v>
+      </c>
+      <c r="R88" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4632,8 +5270,14 @@
       <c r="J89" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q89" t="s">
+        <v>614</v>
+      </c>
+      <c r="R89" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4661,8 +5305,14 @@
       <c r="L90" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q90" t="s">
+        <v>614</v>
+      </c>
+      <c r="R90" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4690,8 +5340,14 @@
       <c r="L91" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q91" t="s">
+        <v>614</v>
+      </c>
+      <c r="R91" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4716,8 +5372,14 @@
       <c r="J92" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q92" t="s">
+        <v>614</v>
+      </c>
+      <c r="R92" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4745,8 +5407,14 @@
       <c r="L93" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q93" t="s">
+        <v>614</v>
+      </c>
+      <c r="R93" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4768,8 +5436,14 @@
       <c r="J94" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q94" t="s">
+        <v>614</v>
+      </c>
+      <c r="R94" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4791,8 +5465,14 @@
       <c r="J95" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q95" t="s">
+        <v>614</v>
+      </c>
+      <c r="R95" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4820,8 +5500,14 @@
       <c r="L96" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q96" t="s">
+        <v>614</v>
+      </c>
+      <c r="R96" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4846,8 +5532,14 @@
       <c r="J97" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q97" t="s">
+        <v>614</v>
+      </c>
+      <c r="R97" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4869,8 +5561,14 @@
       <c r="J98" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q98" t="s">
+        <v>614</v>
+      </c>
+      <c r="R98" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4892,8 +5590,14 @@
       <c r="J99" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q99" t="s">
+        <v>614</v>
+      </c>
+      <c r="R99" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4915,8 +5619,14 @@
       <c r="J100" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q100" t="s">
+        <v>614</v>
+      </c>
+      <c r="R100" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4938,8 +5648,14 @@
       <c r="J101" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q101" t="s">
+        <v>614</v>
+      </c>
+      <c r="R101" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4961,8 +5677,14 @@
       <c r="J102" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q102" t="s">
+        <v>614</v>
+      </c>
+      <c r="R102" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4984,8 +5706,14 @@
       <c r="J103" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q103" t="s">
+        <v>614</v>
+      </c>
+      <c r="R103" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5007,8 +5735,14 @@
       <c r="J104" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q104" t="s">
+        <v>614</v>
+      </c>
+      <c r="R104" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5030,8 +5764,14 @@
       <c r="J105" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q105" t="s">
+        <v>614</v>
+      </c>
+      <c r="R105" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5053,8 +5793,14 @@
       <c r="J106" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q106" t="s">
+        <v>614</v>
+      </c>
+      <c r="R106" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5079,8 +5825,14 @@
       <c r="J107" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q107" t="s">
+        <v>614</v>
+      </c>
+      <c r="R107" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5105,8 +5857,14 @@
       <c r="J108" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q108" t="s">
+        <v>614</v>
+      </c>
+      <c r="R108" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5131,8 +5889,14 @@
       <c r="J109" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q109" t="s">
+        <v>614</v>
+      </c>
+      <c r="R109" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5163,8 +5927,14 @@
       <c r="L110" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q110" t="s">
+        <v>614</v>
+      </c>
+      <c r="R110" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5189,8 +5959,14 @@
       <c r="J111" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q111" t="s">
+        <v>614</v>
+      </c>
+      <c r="R111" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5212,8 +5988,14 @@
       <c r="J112" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q112" t="s">
+        <v>614</v>
+      </c>
+      <c r="R112" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5251,10 +6033,13 @@
         <v>1</v>
       </c>
       <c r="Q113" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+      <c r="R113" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5279,8 +6064,14 @@
       <c r="J114" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q114" t="s">
+        <v>614</v>
+      </c>
+      <c r="R114" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5305,8 +6096,14 @@
       <c r="J115" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q115" t="s">
+        <v>614</v>
+      </c>
+      <c r="R115" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5331,8 +6128,14 @@
       <c r="J116" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q116" t="s">
+        <v>614</v>
+      </c>
+      <c r="R116" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5357,8 +6160,14 @@
       <c r="J117" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q117" t="s">
+        <v>614</v>
+      </c>
+      <c r="R117" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5389,8 +6198,14 @@
       <c r="L118" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q118" t="s">
+        <v>614</v>
+      </c>
+      <c r="R118" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5415,8 +6230,14 @@
       <c r="J119" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q119" t="s">
+        <v>614</v>
+      </c>
+      <c r="R119" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5441,8 +6262,14 @@
       <c r="J120" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q120" t="s">
+        <v>614</v>
+      </c>
+      <c r="R120" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5467,8 +6294,14 @@
       <c r="J121" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q121" t="s">
+        <v>614</v>
+      </c>
+      <c r="R121" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5493,8 +6326,14 @@
       <c r="J122" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q122" t="s">
+        <v>614</v>
+      </c>
+      <c r="R122" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5525,8 +6364,14 @@
       <c r="L123" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q123" t="s">
+        <v>614</v>
+      </c>
+      <c r="R123" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5551,8 +6396,14 @@
       <c r="J124" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q124" t="s">
+        <v>614</v>
+      </c>
+      <c r="R124" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5577,8 +6428,14 @@
       <c r="J125" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q125" t="s">
+        <v>614</v>
+      </c>
+      <c r="R125" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5603,8 +6460,14 @@
       <c r="J126" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q126" t="s">
+        <v>614</v>
+      </c>
+      <c r="R126" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5635,8 +6498,14 @@
       <c r="L127" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q127" t="s">
+        <v>614</v>
+      </c>
+      <c r="R127" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5661,8 +6530,14 @@
       <c r="J128" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q128" t="s">
+        <v>614</v>
+      </c>
+      <c r="R128" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5687,8 +6562,14 @@
       <c r="J129" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q129" t="s">
+        <v>614</v>
+      </c>
+      <c r="R129" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5713,8 +6594,14 @@
       <c r="J130" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q130" t="s">
+        <v>614</v>
+      </c>
+      <c r="R130" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5736,8 +6623,14 @@
       <c r="J131" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q131" t="s">
+        <v>614</v>
+      </c>
+      <c r="R131" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5768,8 +6661,14 @@
       <c r="L132" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q132" t="s">
+        <v>614</v>
+      </c>
+      <c r="R132" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5794,8 +6693,14 @@
       <c r="J133" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q133" t="s">
+        <v>614</v>
+      </c>
+      <c r="R133" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5823,8 +6728,14 @@
       <c r="L134" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q134" t="s">
+        <v>614</v>
+      </c>
+      <c r="R134" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5849,8 +6760,14 @@
       <c r="J135" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q135" t="s">
+        <v>614</v>
+      </c>
+      <c r="R135" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5875,8 +6792,14 @@
       <c r="J136" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q136" t="s">
+        <v>614</v>
+      </c>
+      <c r="R136" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5904,8 +6827,14 @@
       <c r="L137" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q137" t="s">
+        <v>614</v>
+      </c>
+      <c r="R137" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5930,8 +6859,14 @@
       <c r="J138" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q138" t="s">
+        <v>614</v>
+      </c>
+      <c r="R138" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5956,8 +6891,14 @@
       <c r="J139" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q139" t="s">
+        <v>614</v>
+      </c>
+      <c r="R139" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5982,8 +6923,14 @@
       <c r="J140" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q140" t="s">
+        <v>614</v>
+      </c>
+      <c r="R140" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6008,8 +6955,14 @@
       <c r="J141" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q141" t="s">
+        <v>614</v>
+      </c>
+      <c r="R141" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6037,8 +6990,14 @@
       <c r="L142" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q142" t="s">
+        <v>614</v>
+      </c>
+      <c r="R142" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6066,8 +7025,14 @@
       <c r="L143" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q143" t="s">
+        <v>614</v>
+      </c>
+      <c r="R143" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6092,8 +7057,14 @@
       <c r="J144" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q144" t="s">
+        <v>614</v>
+      </c>
+      <c r="R144" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6118,8 +7089,14 @@
       <c r="J145" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q145" t="s">
+        <v>614</v>
+      </c>
+      <c r="R145" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6144,8 +7121,14 @@
       <c r="J146" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q146" t="s">
+        <v>614</v>
+      </c>
+      <c r="R146" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6176,8 +7159,14 @@
       <c r="L147" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q147" t="s">
+        <v>614</v>
+      </c>
+      <c r="R147" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6202,8 +7191,14 @@
       <c r="J148" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q148" t="s">
+        <v>614</v>
+      </c>
+      <c r="R148" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6234,8 +7229,14 @@
       <c r="L149" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q149" t="s">
+        <v>614</v>
+      </c>
+      <c r="R149" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6266,8 +7267,14 @@
       <c r="L150" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q150" t="s">
+        <v>614</v>
+      </c>
+      <c r="R150" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6292,8 +7299,14 @@
       <c r="J151" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q151" t="s">
+        <v>614</v>
+      </c>
+      <c r="R151" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6318,8 +7331,14 @@
       <c r="J152" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q152" t="s">
+        <v>614</v>
+      </c>
+      <c r="R152" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6344,8 +7363,14 @@
       <c r="J153" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q153" t="s">
+        <v>614</v>
+      </c>
+      <c r="R153" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6373,8 +7398,14 @@
       <c r="L154" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q154" t="s">
+        <v>614</v>
+      </c>
+      <c r="R154" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6405,8 +7436,14 @@
       <c r="L155" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q155" t="s">
+        <v>614</v>
+      </c>
+      <c r="R155" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6434,8 +7471,14 @@
       <c r="L156" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q156" t="s">
+        <v>614</v>
+      </c>
+      <c r="R156" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6457,8 +7500,14 @@
       <c r="J157" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q157" t="s">
+        <v>614</v>
+      </c>
+      <c r="R157" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6480,8 +7529,14 @@
       <c r="J158" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q158" t="s">
+        <v>614</v>
+      </c>
+      <c r="R158" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6503,8 +7558,14 @@
       <c r="J159" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q159" t="s">
+        <v>614</v>
+      </c>
+      <c r="R159" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6526,8 +7587,14 @@
       <c r="J160" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q160" t="s">
+        <v>614</v>
+      </c>
+      <c r="R160" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6549,8 +7616,14 @@
       <c r="J161" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q161" t="s">
+        <v>614</v>
+      </c>
+      <c r="R161" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6572,8 +7645,14 @@
       <c r="J162" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q162" t="s">
+        <v>614</v>
+      </c>
+      <c r="R162" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6595,8 +7674,14 @@
       <c r="J163" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q163" t="s">
+        <v>614</v>
+      </c>
+      <c r="R163" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6627,8 +7712,14 @@
       <c r="L164" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q164" t="s">
+        <v>614</v>
+      </c>
+      <c r="R164" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6650,8 +7741,14 @@
       <c r="J165" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q165" t="s">
+        <v>614</v>
+      </c>
+      <c r="R165" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6673,8 +7770,14 @@
       <c r="J166" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q166" t="s">
+        <v>614</v>
+      </c>
+      <c r="R166" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6696,8 +7799,14 @@
       <c r="J167" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q167" t="s">
+        <v>614</v>
+      </c>
+      <c r="R167" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6725,8 +7834,14 @@
       <c r="L168" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q168" t="s">
+        <v>614</v>
+      </c>
+      <c r="R168" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6748,8 +7863,14 @@
       <c r="J169" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q169" t="s">
+        <v>614</v>
+      </c>
+      <c r="R169" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6774,8 +7895,14 @@
       <c r="J170" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q170" t="s">
+        <v>614</v>
+      </c>
+      <c r="R170" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6797,8 +7924,14 @@
       <c r="J171" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q171" t="s">
+        <v>614</v>
+      </c>
+      <c r="R171" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6820,8 +7953,14 @@
       <c r="J172" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q172" t="s">
+        <v>614</v>
+      </c>
+      <c r="R172" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6843,8 +7982,14 @@
       <c r="J173" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q173" t="s">
+        <v>614</v>
+      </c>
+      <c r="R173" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6872,8 +8017,14 @@
       <c r="L174" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q174" t="s">
+        <v>614</v>
+      </c>
+      <c r="R174" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6895,8 +8046,14 @@
       <c r="J175" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q175" t="s">
+        <v>614</v>
+      </c>
+      <c r="R175" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6918,8 +8075,14 @@
       <c r="J176" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q176" t="s">
+        <v>614</v>
+      </c>
+      <c r="R176" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6941,8 +8104,14 @@
       <c r="J177" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q177" t="s">
+        <v>614</v>
+      </c>
+      <c r="R177" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6970,8 +8139,14 @@
       <c r="L178" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q178" t="s">
+        <v>614</v>
+      </c>
+      <c r="R178" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6993,8 +8168,14 @@
       <c r="J179" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q179" t="s">
+        <v>614</v>
+      </c>
+      <c r="R179" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7016,8 +8197,14 @@
       <c r="J180" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q180" t="s">
+        <v>614</v>
+      </c>
+      <c r="R180" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7045,8 +8232,14 @@
       <c r="L181" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q181" t="s">
+        <v>614</v>
+      </c>
+      <c r="R181" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7068,8 +8261,14 @@
       <c r="J182" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q182" t="s">
+        <v>614</v>
+      </c>
+      <c r="R182" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7097,8 +8296,14 @@
       <c r="L183" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q183" t="s">
+        <v>614</v>
+      </c>
+      <c r="R183" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7126,8 +8331,14 @@
       <c r="L184" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q184" t="s">
+        <v>614</v>
+      </c>
+      <c r="R184" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7149,8 +8360,14 @@
       <c r="J185" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q185" t="s">
+        <v>614</v>
+      </c>
+      <c r="R185" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7178,8 +8395,14 @@
       <c r="L186" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q186" t="s">
+        <v>614</v>
+      </c>
+      <c r="R186" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7201,8 +8424,14 @@
       <c r="J187" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q187" t="s">
+        <v>614</v>
+      </c>
+      <c r="R187" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7230,8 +8459,14 @@
       <c r="J188" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q188" t="s">
+        <v>614</v>
+      </c>
+      <c r="R188" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7256,8 +8491,14 @@
       <c r="J189" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q189" t="s">
+        <v>614</v>
+      </c>
+      <c r="R189" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -7288,8 +8529,14 @@
       <c r="L190" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q190" t="s">
+        <v>614</v>
+      </c>
+      <c r="R190" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -7320,8 +8567,14 @@
       <c r="L191" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q191" t="s">
+        <v>614</v>
+      </c>
+      <c r="R191" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -7343,8 +8596,14 @@
       <c r="J192" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q192" t="s">
+        <v>614</v>
+      </c>
+      <c r="R192" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -7372,8 +8631,14 @@
       <c r="L193" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q193" t="s">
+        <v>614</v>
+      </c>
+      <c r="R193" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -7401,8 +8666,14 @@
       <c r="L194" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q194" t="s">
+        <v>614</v>
+      </c>
+      <c r="R194" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -7430,8 +8701,26 @@
       <c r="L195" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M195" t="b">
+        <v>1</v>
+      </c>
+      <c r="N195" t="b">
+        <v>1</v>
+      </c>
+      <c r="O195" t="b">
+        <v>1</v>
+      </c>
+      <c r="P195" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>614</v>
+      </c>
+      <c r="R195" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -7453,8 +8742,14 @@
       <c r="J196" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q196" t="s">
+        <v>614</v>
+      </c>
+      <c r="R196" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -7476,8 +8771,14 @@
       <c r="J197" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q197" t="s">
+        <v>614</v>
+      </c>
+      <c r="R197" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -7505,8 +8806,14 @@
       <c r="L198" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q198" t="s">
+        <v>614</v>
+      </c>
+      <c r="R198" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -7528,8 +8835,14 @@
       <c r="J199" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q199" t="s">
+        <v>614</v>
+      </c>
+      <c r="R199" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -7557,8 +8870,14 @@
       <c r="L200" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q200" t="s">
+        <v>614</v>
+      </c>
+      <c r="R200" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -7580,8 +8899,14 @@
       <c r="J201" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q201" t="s">
+        <v>614</v>
+      </c>
+      <c r="R201" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -7609,8 +8934,14 @@
       <c r="L202" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q202" t="s">
+        <v>614</v>
+      </c>
+      <c r="R202" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -7632,8 +8963,14 @@
       <c r="J203" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q203" t="s">
+        <v>614</v>
+      </c>
+      <c r="R203" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -7661,8 +8998,14 @@
       <c r="K204" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q204" t="s">
+        <v>614</v>
+      </c>
+      <c r="R204" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -7687,8 +9030,14 @@
       <c r="J205" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q205" t="s">
+        <v>614</v>
+      </c>
+      <c r="R205" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -7713,8 +9062,14 @@
       <c r="J206" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q206" t="s">
+        <v>614</v>
+      </c>
+      <c r="R206" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -7745,8 +9100,14 @@
       <c r="L207" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q207" t="s">
+        <v>614</v>
+      </c>
+      <c r="R207" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -7774,8 +9135,14 @@
       <c r="J208" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q208" t="s">
+        <v>614</v>
+      </c>
+      <c r="R208" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -7800,8 +9167,14 @@
       <c r="J209" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q209" t="s">
+        <v>614</v>
+      </c>
+      <c r="R209" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -7826,8 +9199,14 @@
       <c r="J210" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q210" t="s">
+        <v>614</v>
+      </c>
+      <c r="R210" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -7861,8 +9240,14 @@
       <c r="L211" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q211" t="s">
+        <v>614</v>
+      </c>
+      <c r="R211" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -7887,8 +9272,14 @@
       <c r="J212" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q212" t="s">
+        <v>614</v>
+      </c>
+      <c r="R212" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -7913,8 +9304,14 @@
       <c r="J213" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q213" t="s">
+        <v>614</v>
+      </c>
+      <c r="R213" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -7942,8 +9339,14 @@
       <c r="L214" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q214" t="s">
+        <v>614</v>
+      </c>
+      <c r="R214" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -7974,8 +9377,14 @@
       <c r="L215" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q215" t="s">
+        <v>614</v>
+      </c>
+      <c r="R215" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8006,8 +9415,14 @@
       <c r="L216" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q216" t="s">
+        <v>614</v>
+      </c>
+      <c r="R216" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -8038,8 +9453,14 @@
       <c r="L217" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q217" t="s">
+        <v>614</v>
+      </c>
+      <c r="R217" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -8061,8 +9482,14 @@
       <c r="J218" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q218" t="s">
+        <v>614</v>
+      </c>
+      <c r="R218" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -8087,8 +9514,14 @@
       <c r="J219" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q219" t="s">
+        <v>614</v>
+      </c>
+      <c r="R219" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -8113,8 +9546,14 @@
       <c r="J220" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q220" t="s">
+        <v>614</v>
+      </c>
+      <c r="R220" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -8145,8 +9584,14 @@
       <c r="L221" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q221" t="s">
+        <v>614</v>
+      </c>
+      <c r="R221" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -8177,8 +9622,14 @@
       <c r="L222" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q222" t="s">
+        <v>614</v>
+      </c>
+      <c r="R222" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -8203,8 +9654,14 @@
       <c r="J223" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q223" t="s">
+        <v>614</v>
+      </c>
+      <c r="R223" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -8232,8 +9689,14 @@
       <c r="J224" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q224" t="s">
+        <v>614</v>
+      </c>
+      <c r="R224" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -8264,8 +9727,14 @@
       <c r="L225" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q225" t="s">
+        <v>614</v>
+      </c>
+      <c r="R225" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -8299,8 +9768,14 @@
       <c r="L226" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q226" t="s">
+        <v>614</v>
+      </c>
+      <c r="R226" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -8325,8 +9800,14 @@
       <c r="J227" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q227" t="s">
+        <v>614</v>
+      </c>
+      <c r="R227" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
@@ -8351,8 +9832,14 @@
       <c r="J228" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q228" t="s">
+        <v>614</v>
+      </c>
+      <c r="R228" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -8377,8 +9864,14 @@
       <c r="J229" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q229" t="s">
+        <v>614</v>
+      </c>
+      <c r="R229" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -8406,8 +9899,14 @@
       <c r="K230" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q230" t="s">
+        <v>614</v>
+      </c>
+      <c r="R230" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
@@ -8438,8 +9937,14 @@
       <c r="L231" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q231" t="s">
+        <v>614</v>
+      </c>
+      <c r="R231" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
@@ -8470,8 +9975,14 @@
       <c r="L232" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q232" t="s">
+        <v>614</v>
+      </c>
+      <c r="R232" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -8496,8 +10007,14 @@
       <c r="J233" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q233" t="s">
+        <v>614</v>
+      </c>
+      <c r="R233" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -8522,8 +10039,14 @@
       <c r="J234" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q234" t="s">
+        <v>614</v>
+      </c>
+      <c r="R234" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -8554,8 +10077,14 @@
       <c r="L235" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q235" t="s">
+        <v>614</v>
+      </c>
+      <c r="R235" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -8586,8 +10115,14 @@
       <c r="L236" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q236" t="s">
+        <v>614</v>
+      </c>
+      <c r="R236" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -8618,8 +10153,14 @@
       <c r="L237" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q237" t="s">
+        <v>614</v>
+      </c>
+      <c r="R237" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -8650,8 +10191,14 @@
       <c r="L238" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q238" t="s">
+        <v>614</v>
+      </c>
+      <c r="R238" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -8676,8 +10223,14 @@
       <c r="J239" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q239" t="s">
+        <v>614</v>
+      </c>
+      <c r="R239" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
@@ -8702,8 +10255,14 @@
       <c r="J240" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q240" t="s">
+        <v>614</v>
+      </c>
+      <c r="R240" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -8734,8 +10293,14 @@
       <c r="L241" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q241" t="s">
+        <v>614</v>
+      </c>
+      <c r="R241" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -8766,8 +10331,14 @@
       <c r="L242" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q242" t="s">
+        <v>614</v>
+      </c>
+      <c r="R242" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -8798,8 +10369,14 @@
       <c r="L243" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q243" t="s">
+        <v>614</v>
+      </c>
+      <c r="R243" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
@@ -8824,8 +10401,14 @@
       <c r="J244" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q244" t="s">
+        <v>614</v>
+      </c>
+      <c r="R244" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
@@ -8847,8 +10430,14 @@
       <c r="J245" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q245" t="s">
+        <v>614</v>
+      </c>
+      <c r="R245" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
@@ -8873,8 +10462,14 @@
       <c r="J246" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q246" t="s">
+        <v>614</v>
+      </c>
+      <c r="R246" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
@@ -8899,8 +10494,14 @@
       <c r="J247" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q247" t="s">
+        <v>614</v>
+      </c>
+      <c r="R247" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -8925,8 +10526,14 @@
       <c r="J248" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q248" t="s">
+        <v>614</v>
+      </c>
+      <c r="R248" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
@@ -8951,8 +10558,14 @@
       <c r="J249" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q249" t="s">
+        <v>614</v>
+      </c>
+      <c r="R249" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
@@ -8977,8 +10590,14 @@
       <c r="J250" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q250" t="s">
+        <v>614</v>
+      </c>
+      <c r="R250" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
@@ -9003,8 +10622,14 @@
       <c r="J251" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q251" t="s">
+        <v>614</v>
+      </c>
+      <c r="R251" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
@@ -9032,8 +10657,14 @@
       <c r="K252" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q252" t="s">
+        <v>614</v>
+      </c>
+      <c r="R252" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
@@ -9058,8 +10689,14 @@
       <c r="K253" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q253" t="s">
+        <v>614</v>
+      </c>
+      <c r="R253" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
@@ -9084,8 +10721,14 @@
       <c r="J254" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q254" t="s">
+        <v>614</v>
+      </c>
+      <c r="R254" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
@@ -9113,8 +10756,14 @@
       <c r="L255" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q255" t="s">
+        <v>614</v>
+      </c>
+      <c r="R255" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
@@ -9142,8 +10791,14 @@
       <c r="L256" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q256" t="s">
+        <v>614</v>
+      </c>
+      <c r="R256" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
@@ -9168,8 +10823,14 @@
       <c r="J257" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q257" t="s">
+        <v>614</v>
+      </c>
+      <c r="R257" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
@@ -9200,8 +10861,14 @@
       <c r="L258" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q258" t="s">
+        <v>614</v>
+      </c>
+      <c r="R258" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
@@ -9223,8 +10890,14 @@
       <c r="J259" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q259" t="s">
+        <v>614</v>
+      </c>
+      <c r="R259" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
@@ -9252,8 +10925,14 @@
       <c r="L260" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q260" t="s">
+        <v>614</v>
+      </c>
+      <c r="R260" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
@@ -9284,8 +10963,14 @@
       <c r="L261" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q261" t="s">
+        <v>614</v>
+      </c>
+      <c r="R261" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
@@ -9316,8 +11001,14 @@
       <c r="L262" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q262" t="s">
+        <v>614</v>
+      </c>
+      <c r="R262" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
@@ -9342,8 +11033,14 @@
       <c r="J263" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q263" t="s">
+        <v>614</v>
+      </c>
+      <c r="R263" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
@@ -9365,8 +11062,14 @@
       <c r="J264" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q264" t="s">
+        <v>614</v>
+      </c>
+      <c r="R264" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>264</v>
       </c>
@@ -9388,8 +11091,14 @@
       <c r="J265" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q265" t="s">
+        <v>614</v>
+      </c>
+      <c r="R265" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>265</v>
       </c>
@@ -9411,8 +11120,14 @@
       <c r="J266" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q266" t="s">
+        <v>614</v>
+      </c>
+      <c r="R266" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
@@ -9437,8 +11152,14 @@
       <c r="J267" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q267" t="s">
+        <v>614</v>
+      </c>
+      <c r="R267" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
@@ -9466,8 +11187,14 @@
       <c r="L268" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q268" t="s">
+        <v>614</v>
+      </c>
+      <c r="R268" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>268</v>
       </c>
@@ -9492,8 +11219,14 @@
       <c r="J269" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q269" t="s">
+        <v>614</v>
+      </c>
+      <c r="R269" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
@@ -9515,8 +11248,14 @@
       <c r="J270" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q270" t="s">
+        <v>614</v>
+      </c>
+      <c r="R270" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>270</v>
       </c>
@@ -9541,8 +11280,14 @@
       <c r="J271" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q271" t="s">
+        <v>614</v>
+      </c>
+      <c r="R271" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>271</v>
       </c>
@@ -9567,8 +11312,14 @@
       <c r="J272" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q272" t="s">
+        <v>614</v>
+      </c>
+      <c r="R272" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>272</v>
       </c>
@@ -9599,8 +11350,14 @@
       <c r="L273" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q273" t="s">
+        <v>614</v>
+      </c>
+      <c r="R273" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>273</v>
       </c>
@@ -9628,8 +11385,14 @@
       <c r="L274" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q274" t="s">
+        <v>614</v>
+      </c>
+      <c r="R274" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>274</v>
       </c>
@@ -9651,8 +11414,14 @@
       <c r="J275" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q275" t="s">
+        <v>614</v>
+      </c>
+      <c r="R275" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>275</v>
       </c>
@@ -9674,8 +11443,14 @@
       <c r="J276" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q276" t="s">
+        <v>614</v>
+      </c>
+      <c r="R276" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>276</v>
       </c>
@@ -9697,8 +11472,14 @@
       <c r="J277" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q277" t="s">
+        <v>614</v>
+      </c>
+      <c r="R277" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>277</v>
       </c>
@@ -9723,8 +11504,14 @@
       <c r="J278" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q278" t="s">
+        <v>614</v>
+      </c>
+      <c r="R278" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>278</v>
       </c>
@@ -9746,8 +11533,14 @@
       <c r="J279" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q279" t="s">
+        <v>614</v>
+      </c>
+      <c r="R279" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>279</v>
       </c>
@@ -9772,8 +11565,14 @@
       <c r="K280" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q280" t="s">
+        <v>614</v>
+      </c>
+      <c r="R280" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>280</v>
       </c>
@@ -9798,8 +11597,14 @@
       <c r="J281" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q281" t="s">
+        <v>614</v>
+      </c>
+      <c r="R281" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>281</v>
       </c>
@@ -9824,8 +11629,14 @@
       <c r="J282" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q282" t="s">
+        <v>614</v>
+      </c>
+      <c r="R282" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>282</v>
       </c>
@@ -9853,8 +11664,14 @@
       <c r="J283" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q283" t="s">
+        <v>614</v>
+      </c>
+      <c r="R283" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>283</v>
       </c>
@@ -9876,8 +11693,14 @@
       <c r="J284" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q284" t="s">
+        <v>614</v>
+      </c>
+      <c r="R284" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>284</v>
       </c>
@@ -9902,8 +11725,14 @@
       <c r="J285" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q285" t="s">
+        <v>614</v>
+      </c>
+      <c r="R285" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>285</v>
       </c>
@@ -9931,8 +11760,14 @@
       <c r="L286" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q286" t="s">
+        <v>614</v>
+      </c>
+      <c r="R286" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>286</v>
       </c>
@@ -9954,8 +11789,14 @@
       <c r="J287" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q287" t="s">
+        <v>614</v>
+      </c>
+      <c r="R287" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>287</v>
       </c>
@@ -9983,8 +11824,14 @@
       <c r="L288" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q288" t="s">
+        <v>614</v>
+      </c>
+      <c r="R288" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>288</v>
       </c>
@@ -10009,8 +11856,14 @@
       <c r="J289" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q289" t="s">
+        <v>614</v>
+      </c>
+      <c r="R289" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>289</v>
       </c>
@@ -10035,8 +11888,14 @@
       <c r="J290" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q290" t="s">
+        <v>614</v>
+      </c>
+      <c r="R290" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>290</v>
       </c>
@@ -10061,8 +11920,14 @@
       <c r="J291" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q291" t="s">
+        <v>614</v>
+      </c>
+      <c r="R291" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>291</v>
       </c>
@@ -10088,10 +11953,16 @@
         <v>434</v>
       </c>
       <c r="K292" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>614</v>
+      </c>
+      <c r="R292" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>292</v>
       </c>
@@ -10116,8 +11987,14 @@
       <c r="J293" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q293" t="s">
+        <v>614</v>
+      </c>
+      <c r="R293" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>293</v>
       </c>
@@ -10137,7 +12014,7 @@
         <v>70.780502965023004</v>
       </c>
       <c r="H294" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J294" t="s">
         <v>359</v>
@@ -10157,8 +12034,14 @@
       <c r="P294" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q294" t="s">
+        <v>614</v>
+      </c>
+      <c r="R294" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>294</v>
       </c>
@@ -10189,8 +12072,14 @@
       <c r="L295" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q295" t="s">
+        <v>614</v>
+      </c>
+      <c r="R295" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>295</v>
       </c>
@@ -10215,8 +12104,14 @@
       <c r="J296" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q296" t="s">
+        <v>614</v>
+      </c>
+      <c r="R296" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>296</v>
       </c>
@@ -10241,8 +12136,14 @@
       <c r="J297" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q297" t="s">
+        <v>614</v>
+      </c>
+      <c r="R297" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>297</v>
       </c>
@@ -10268,10 +12169,16 @@
         <v>434</v>
       </c>
       <c r="K298" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+      <c r="Q298" t="s">
+        <v>614</v>
+      </c>
+      <c r="R298" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>298</v>
       </c>
@@ -10297,10 +12204,16 @@
         <v>434</v>
       </c>
       <c r="K299" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+      <c r="Q299" t="s">
+        <v>614</v>
+      </c>
+      <c r="R299" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>299</v>
       </c>
@@ -10331,8 +12244,14 @@
       <c r="L300" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q300" t="s">
+        <v>614</v>
+      </c>
+      <c r="R300" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>300</v>
       </c>
@@ -10358,10 +12277,16 @@
         <v>434</v>
       </c>
       <c r="K301" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+      <c r="Q301" t="s">
+        <v>614</v>
+      </c>
+      <c r="R301" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>301</v>
       </c>
@@ -10392,8 +12317,14 @@
       <c r="L302" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q302" t="s">
+        <v>614</v>
+      </c>
+      <c r="R302" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>302</v>
       </c>
@@ -10424,8 +12355,14 @@
       <c r="L303" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q303" t="s">
+        <v>614</v>
+      </c>
+      <c r="R303" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>303</v>
       </c>
@@ -10456,8 +12393,14 @@
       <c r="L304" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q304" t="s">
+        <v>614</v>
+      </c>
+      <c r="R304" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>304</v>
       </c>
@@ -10482,8 +12425,14 @@
       <c r="J305" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q305" t="s">
+        <v>614</v>
+      </c>
+      <c r="R305" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>305</v>
       </c>
@@ -10508,8 +12457,14 @@
       <c r="J306" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q306" t="s">
+        <v>614</v>
+      </c>
+      <c r="R306" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>306</v>
       </c>
@@ -10540,8 +12495,14 @@
       <c r="L307" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q307" t="s">
+        <v>614</v>
+      </c>
+      <c r="R307" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>307</v>
       </c>
@@ -10566,8 +12527,14 @@
       <c r="J308" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q308" t="s">
+        <v>614</v>
+      </c>
+      <c r="R308" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>308</v>
       </c>
@@ -10598,8 +12565,14 @@
       <c r="L309" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q309" t="s">
+        <v>614</v>
+      </c>
+      <c r="R309" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>309</v>
       </c>
@@ -10624,8 +12597,14 @@
       <c r="J310" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q310" t="s">
+        <v>614</v>
+      </c>
+      <c r="R310" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>310</v>
       </c>
@@ -10656,8 +12635,14 @@
       <c r="L311" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q311" t="s">
+        <v>614</v>
+      </c>
+      <c r="R311" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>311</v>
       </c>
@@ -10688,8 +12673,14 @@
       <c r="L312" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q312" t="s">
+        <v>614</v>
+      </c>
+      <c r="R312" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>312</v>
       </c>
@@ -10714,8 +12705,14 @@
       <c r="J313" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q313" t="s">
+        <v>614</v>
+      </c>
+      <c r="R313" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>313</v>
       </c>
@@ -10746,8 +12743,14 @@
       <c r="L314" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q314" t="s">
+        <v>614</v>
+      </c>
+      <c r="R314" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>314</v>
       </c>
@@ -10772,8 +12775,14 @@
       <c r="J315" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q315" t="s">
+        <v>614</v>
+      </c>
+      <c r="R315" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>315</v>
       </c>
@@ -10798,8 +12807,14 @@
       <c r="J316" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q316" t="s">
+        <v>614</v>
+      </c>
+      <c r="R316" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>316</v>
       </c>
@@ -10824,8 +12839,14 @@
       <c r="J317" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q317" t="s">
+        <v>614</v>
+      </c>
+      <c r="R317" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>317</v>
       </c>
@@ -10850,8 +12871,14 @@
       <c r="J318" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q318" t="s">
+        <v>614</v>
+      </c>
+      <c r="R318" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>318</v>
       </c>
@@ -10876,8 +12903,14 @@
       <c r="J319" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q319" t="s">
+        <v>614</v>
+      </c>
+      <c r="R319" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>319</v>
       </c>
@@ -10908,8 +12941,14 @@
       <c r="L320" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q320" t="s">
+        <v>614</v>
+      </c>
+      <c r="R320" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>320</v>
       </c>
@@ -10934,8 +12973,14 @@
       <c r="J321" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q321" t="s">
+        <v>614</v>
+      </c>
+      <c r="R321" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>321</v>
       </c>
@@ -10957,8 +13002,14 @@
       <c r="J322" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q322" t="s">
+        <v>614</v>
+      </c>
+      <c r="R322" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>322</v>
       </c>
@@ -10989,8 +13040,14 @@
       <c r="L323" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q323" t="s">
+        <v>614</v>
+      </c>
+      <c r="R323" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>323</v>
       </c>
@@ -11021,8 +13078,14 @@
       <c r="L324" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q324" t="s">
+        <v>614</v>
+      </c>
+      <c r="R324" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="325" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>324</v>
       </c>
@@ -11047,8 +13110,14 @@
       <c r="J325" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q325" t="s">
+        <v>614</v>
+      </c>
+      <c r="R325" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>325</v>
       </c>
@@ -11073,8 +13142,14 @@
       <c r="J326" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q326" t="s">
+        <v>614</v>
+      </c>
+      <c r="R326" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>326</v>
       </c>
@@ -11102,8 +13177,14 @@
       <c r="J327" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q327" t="s">
+        <v>614</v>
+      </c>
+      <c r="R327" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>327</v>
       </c>
@@ -11128,8 +13209,14 @@
       <c r="J328" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q328" t="s">
+        <v>614</v>
+      </c>
+      <c r="R328" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>328</v>
       </c>
@@ -11160,8 +13247,14 @@
       <c r="L329" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q329" t="s">
+        <v>614</v>
+      </c>
+      <c r="R329" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>329</v>
       </c>
@@ -11183,8 +13276,14 @@
       <c r="J330" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q330" t="s">
+        <v>614</v>
+      </c>
+      <c r="R330" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>330</v>
       </c>
@@ -11218,8 +13317,14 @@
       <c r="L331" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q331" t="s">
+        <v>614</v>
+      </c>
+      <c r="R331" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>331</v>
       </c>
@@ -11250,8 +13355,14 @@
       <c r="L332" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q332" t="s">
+        <v>614</v>
+      </c>
+      <c r="R332" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>332</v>
       </c>
@@ -11276,8 +13387,14 @@
       <c r="J333" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q333" t="s">
+        <v>614</v>
+      </c>
+      <c r="R333" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>333</v>
       </c>
@@ -11299,8 +13416,14 @@
       <c r="J334" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q334" t="s">
+        <v>614</v>
+      </c>
+      <c r="R334" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>334</v>
       </c>
@@ -11325,8 +13448,14 @@
       <c r="J335" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q335" t="s">
+        <v>614</v>
+      </c>
+      <c r="R335" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="336" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>335</v>
       </c>
@@ -11351,8 +13480,14 @@
       <c r="J336" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q336" t="s">
+        <v>614</v>
+      </c>
+      <c r="R336" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="337" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>336</v>
       </c>
@@ -11380,8 +13515,14 @@
       <c r="L337" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q337" t="s">
+        <v>614</v>
+      </c>
+      <c r="R337" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="338" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>337</v>
       </c>
@@ -11412,8 +13553,14 @@
       <c r="L338" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q338" t="s">
+        <v>614</v>
+      </c>
+      <c r="R338" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="339" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>338</v>
       </c>
@@ -11438,8 +13585,14 @@
       <c r="J339" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q339" t="s">
+        <v>614</v>
+      </c>
+      <c r="R339" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="340" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>339</v>
       </c>
@@ -11465,10 +13618,16 @@
         <v>434</v>
       </c>
       <c r="K340" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+      <c r="Q340" t="s">
+        <v>614</v>
+      </c>
+      <c r="R340" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="341" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>340</v>
       </c>
@@ -11499,8 +13658,14 @@
       <c r="L341" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q341" t="s">
+        <v>614</v>
+      </c>
+      <c r="R341" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="342" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>341</v>
       </c>
@@ -11522,8 +13687,14 @@
       <c r="J342" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q342" t="s">
+        <v>614</v>
+      </c>
+      <c r="R342" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="343" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>342</v>
       </c>
@@ -11545,8 +13716,14 @@
       <c r="J343" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q343" t="s">
+        <v>614</v>
+      </c>
+      <c r="R343" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="344" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>343</v>
       </c>
@@ -11571,8 +13748,14 @@
       <c r="J344" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q344" t="s">
+        <v>614</v>
+      </c>
+      <c r="R344" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="345" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>344</v>
       </c>
@@ -11583,10 +13766,10 @@
         <v>348</v>
       </c>
       <c r="D345" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E345" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F345" s="2">
         <v>24.355175540046499</v>
@@ -11595,7 +13778,7 @@
         <v>70.753503809273894</v>
       </c>
       <c r="H345" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J345" t="s">
         <v>359</v>
@@ -11615,8 +13798,14 @@
       <c r="P345" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q345" t="s">
+        <v>613</v>
+      </c>
+      <c r="R345" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="346" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>345</v>
       </c>
@@ -11627,10 +13816,10 @@
         <v>348</v>
       </c>
       <c r="D346" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E346" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F346" s="2">
         <v>24.3929669403025</v>
@@ -11639,7 +13828,7 @@
         <v>70.732635040299797</v>
       </c>
       <c r="H346" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J346" t="s">
         <v>359</v>
@@ -11659,8 +13848,14 @@
       <c r="P346" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q346" t="s">
+        <v>613</v>
+      </c>
+      <c r="R346" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="347" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>346</v>
       </c>
@@ -11671,10 +13866,10 @@
         <v>348</v>
       </c>
       <c r="D347" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E347" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F347">
         <v>24.395164924541799</v>
@@ -11683,7 +13878,7 @@
         <v>70.731935564577199</v>
       </c>
       <c r="H347" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J347" t="s">
         <v>359</v>
@@ -11703,8 +13898,14 @@
       <c r="P347" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q347" t="s">
+        <v>613</v>
+      </c>
+      <c r="R347" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="348" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>347</v>
       </c>
@@ -11715,10 +13916,10 @@
         <v>348</v>
       </c>
       <c r="D348" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E348" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F348" s="2">
         <v>24.392970724747101</v>
@@ -11727,7 +13928,7 @@
         <v>70.731497564985304</v>
       </c>
       <c r="H348" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J348" t="s">
         <v>359</v>
@@ -11744,8 +13945,14 @@
       <c r="P348" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q348" t="s">
+        <v>613</v>
+      </c>
+      <c r="R348" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="349" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>348</v>
       </c>
@@ -11756,10 +13963,10 @@
         <v>348</v>
       </c>
       <c r="D349" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E349" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F349">
         <v>24.438613848833601</v>
@@ -11768,7 +13975,7 @@
         <v>70.794550825716001</v>
       </c>
       <c r="H349" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J349" t="s">
         <v>359</v>
@@ -11785,8 +13992,14 @@
       <c r="P349" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q349" t="s">
+        <v>613</v>
+      </c>
+      <c r="R349" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="350" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>349</v>
       </c>
@@ -11800,7 +14013,7 @@
         <v>373</v>
       </c>
       <c r="E350" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F350">
         <v>24.645466319712899</v>
@@ -11809,7 +14022,7 @@
         <v>70.648275374994299</v>
       </c>
       <c r="H350" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J350" t="s">
         <v>359</v>
@@ -11826,8 +14039,14 @@
       <c r="P350" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q350" t="s">
+        <v>613</v>
+      </c>
+      <c r="R350" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="351" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>350</v>
       </c>
@@ -11838,10 +14057,10 @@
         <v>348</v>
       </c>
       <c r="D351" t="s">
+        <v>606</v>
+      </c>
+      <c r="E351" t="s">
         <v>607</v>
-      </c>
-      <c r="E351" t="s">
-        <v>608</v>
       </c>
       <c r="F351">
         <v>24.326362338719299</v>
@@ -11850,7 +14069,7 @@
         <v>69.723175184720404</v>
       </c>
       <c r="H351" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J351" t="s">
         <v>359</v>
@@ -11867,9 +14086,76 @@
       <c r="P351" t="s">
         <v>585</v>
       </c>
+      <c r="Q351" t="s">
+        <v>613</v>
+      </c>
+      <c r="R351" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="352" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>172</v>
+      </c>
+      <c r="C352" t="s">
+        <v>214</v>
+      </c>
+      <c r="D352" t="s">
+        <v>214</v>
+      </c>
+      <c r="E352" t="s">
+        <v>617</v>
+      </c>
+      <c r="F352">
+        <v>24.86685188049</v>
+      </c>
+      <c r="G352">
+        <v>67.012706478667994</v>
+      </c>
+      <c r="H352" t="s">
+        <v>618</v>
+      </c>
+      <c r="J352" t="s">
+        <v>619</v>
+      </c>
+      <c r="L352" t="s">
+        <v>620</v>
+      </c>
+      <c r="N352" t="s">
+        <v>585</v>
+      </c>
+      <c r="O352" t="s">
+        <v>585</v>
+      </c>
+      <c r="P352" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q352" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="R352" t="s">
+        <v>622</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P351" xr:uid="{E4996F06-64E2-9640-BC5E-872CBC50CF4C}"/>
+  <autoFilter ref="A1:R352" xr:uid="{E4996F06-64E2-9640-BC5E-872CBC50CF4C}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Sindh"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Hyderabad"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="Q352" r:id="rId1" xr:uid="{08A861F6-C165-3543-A633-030C19AC1F90}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/data/list_hindu_temples_in_pak/20230408_list_hindu_temples_pakistan.xlsx
+++ b/data/list_hindu_temples_in_pak/20230408_list_hindu_temples_pakistan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janak_Jain/Janak/Personal/projects/hindus_in_pakistan/github/hindus_in_pakistan/data/list_hindu_temples_in_pak/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A64EA55E-51CA-BD45-9458-B1B618E7FAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ED0612-1D4D-8E46-83AD-32A151E036BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{F972FD0D-5727-664D-8ADB-B0BAD774D1DF}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_hindu_temples_in_pak!$A$1:$R$352</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="627">
   <si>
     <t>serial_number</t>
   </si>
@@ -1918,13 +1917,16 @@
   </si>
   <si>
     <t>Contact: +92832421007</t>
+  </si>
+  <si>
+    <t>Demolished to make way for a mall. Allegedly sold for 7 crore Pakstani Rupees. https://twitter.com/NarainDasBheel8/status/1680170766631878662</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1953,13 +1955,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1975,11 +1991,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2295,14 +2312,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4996F06-64E2-9640-BC5E-872CBC50CF4C}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C192" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S195" sqref="S195"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2313,65 +2329,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2412,7 +2428,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2456,7 +2472,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2488,7 +2504,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2517,7 +2533,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2546,7 +2562,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2581,7 +2597,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2610,7 +2626,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2657,7 +2673,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2686,7 +2702,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2733,7 +2749,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2780,7 +2796,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2812,7 +2828,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2844,7 +2860,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2882,7 +2898,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2914,7 +2930,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2946,7 +2962,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2981,7 +2997,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3013,7 +3029,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3042,7 +3058,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3071,7 +3087,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3109,7 +3125,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3144,7 +3160,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3176,7 +3192,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3208,7 +3224,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3237,7 +3253,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3266,7 +3282,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3301,7 +3317,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3333,7 +3349,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3362,7 +3378,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3391,7 +3407,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3420,7 +3436,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3476,7 +3492,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3505,7 +3521,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3534,7 +3550,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3566,7 +3582,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3601,7 +3617,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3630,7 +3646,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3659,7 +3675,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3694,7 +3710,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3726,7 +3742,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3755,7 +3771,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3784,7 +3800,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3813,7 +3829,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3848,7 +3864,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3877,7 +3893,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3912,7 +3928,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3950,7 +3966,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3985,7 +4001,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4020,7 +4036,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4052,7 +4068,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4087,7 +4103,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4122,7 +4138,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4157,7 +4173,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4195,7 +4211,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4230,7 +4246,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4265,7 +4281,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4294,7 +4310,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4329,7 +4345,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4361,7 +4377,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4399,7 +4415,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4431,7 +4447,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4463,7 +4479,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4501,7 +4517,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4533,7 +4549,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4562,7 +4578,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4594,7 +4610,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4632,7 +4648,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4661,7 +4677,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4693,7 +4709,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4725,7 +4741,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4763,7 +4779,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4801,7 +4817,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4833,7 +4849,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4862,7 +4878,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4891,7 +4907,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4929,7 +4945,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4958,7 +4974,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4987,7 +5003,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5016,7 +5032,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5045,7 +5061,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5074,7 +5090,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5103,7 +5119,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5132,7 +5148,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5161,7 +5177,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5190,7 +5206,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5219,7 +5235,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5248,7 +5264,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5277,7 +5293,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5312,7 +5328,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5347,7 +5363,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5379,7 +5395,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5414,7 +5430,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5443,7 +5459,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5472,7 +5488,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5507,7 +5523,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5539,7 +5555,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5568,7 +5584,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5597,7 +5613,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5626,7 +5642,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5655,7 +5671,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5684,7 +5700,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5713,7 +5729,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5742,7 +5758,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5771,7 +5787,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5800,7 +5816,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5832,7 +5848,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5864,7 +5880,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5896,7 +5912,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5934,7 +5950,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5966,7 +5982,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5995,7 +6011,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6039,7 +6055,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6071,7 +6087,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6103,7 +6119,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6135,7 +6151,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6167,7 +6183,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6205,7 +6221,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6237,7 +6253,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6269,7 +6285,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6301,7 +6317,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6333,7 +6349,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6371,7 +6387,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6403,7 +6419,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6435,7 +6451,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6467,7 +6483,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6505,7 +6521,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6537,7 +6553,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6569,7 +6585,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6601,7 +6617,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6630,7 +6646,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6668,7 +6684,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6700,7 +6716,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6735,7 +6751,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6767,7 +6783,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6799,7 +6815,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6834,7 +6850,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6866,7 +6882,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6898,7 +6914,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6930,7 +6946,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6962,7 +6978,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6997,7 +7013,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7032,7 +7048,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7064,7 +7080,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7096,7 +7112,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7128,7 +7144,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7166,7 +7182,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7198,7 +7214,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7236,7 +7252,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7274,7 +7290,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7306,7 +7322,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7338,7 +7354,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7370,7 +7386,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7405,7 +7421,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7443,7 +7459,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7478,7 +7494,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7507,7 +7523,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7536,7 +7552,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7565,7 +7581,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7594,7 +7610,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7623,7 +7639,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7652,7 +7668,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7681,7 +7697,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7719,7 +7735,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7748,7 +7764,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7777,7 +7793,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7806,7 +7822,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7841,7 +7857,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7870,7 +7886,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7902,7 +7918,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7931,7 +7947,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7960,7 +7976,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7989,7 +8005,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8024,7 +8040,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8053,7 +8069,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8082,7 +8098,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8111,7 +8127,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8146,7 +8162,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8175,7 +8191,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8204,7 +8220,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8239,7 +8255,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8268,7 +8284,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8303,7 +8319,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8338,7 +8354,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8367,7 +8383,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8402,7 +8418,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8431,7 +8447,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8466,7 +8482,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8498,7 +8514,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8536,7 +8552,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8749,7 +8765,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8778,7 +8794,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8813,7 +8829,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8842,7 +8858,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8877,7 +8893,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8906,7 +8922,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8941,7 +8957,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8970,7 +8986,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9005,7 +9021,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9037,7 +9053,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -9069,7 +9085,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -9107,7 +9123,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -9142,7 +9158,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9174,7 +9190,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -9206,7 +9222,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9247,7 +9263,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9279,7 +9295,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9311,7 +9327,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -9346,7 +9362,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -9384,7 +9400,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -9422,7 +9438,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -9460,7 +9476,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -9489,7 +9505,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -9521,7 +9537,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -9553,7 +9569,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -9584,14 +9600,29 @@
       <c r="L221" t="s">
         <v>429</v>
       </c>
+      <c r="M221" t="b">
+        <v>1</v>
+      </c>
+      <c r="N221" t="b">
+        <v>0</v>
+      </c>
+      <c r="O221" t="b">
+        <v>0</v>
+      </c>
+      <c r="P221" t="b">
+        <v>1</v>
+      </c>
       <c r="Q221" t="s">
         <v>614</v>
       </c>
       <c r="R221" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="S221" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -9629,7 +9660,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -9661,7 +9692,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -9696,7 +9727,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -9734,7 +9765,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -9775,7 +9806,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -9807,7 +9838,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9839,7 +9870,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9871,7 +9902,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9906,7 +9937,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9944,7 +9975,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
@@ -9982,7 +10013,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -10014,7 +10045,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -10046,7 +10077,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -10084,7 +10115,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -10122,7 +10153,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -10160,7 +10191,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -10198,7 +10229,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -10230,7 +10261,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
@@ -10262,7 +10293,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -10300,7 +10331,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -10338,7 +10369,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -10376,7 +10407,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
@@ -10408,7 +10439,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
@@ -10437,7 +10468,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
@@ -10469,7 +10500,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
@@ -10501,7 +10532,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -10533,7 +10564,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
@@ -10565,7 +10596,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
@@ -10597,7 +10628,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="251" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
@@ -10629,7 +10660,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
@@ -10664,7 +10695,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
@@ -10696,7 +10727,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
@@ -10728,7 +10759,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
@@ -10763,7 +10794,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
@@ -10798,7 +10829,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
@@ -10830,7 +10861,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
@@ -10868,7 +10899,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
@@ -10897,7 +10928,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
@@ -10932,7 +10963,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
@@ -10970,7 +11001,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
@@ -11008,7 +11039,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
@@ -11040,7 +11071,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
@@ -11069,7 +11100,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>264</v>
       </c>
@@ -11098,7 +11129,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>265</v>
       </c>
@@ -11127,7 +11158,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
@@ -11159,7 +11190,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
@@ -11194,7 +11225,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>268</v>
       </c>
@@ -11226,7 +11257,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="270" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
@@ -11255,7 +11286,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>270</v>
       </c>
@@ -11287,7 +11318,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>271</v>
       </c>
@@ -11319,7 +11350,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="273" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>272</v>
       </c>
@@ -11357,7 +11388,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>273</v>
       </c>
@@ -11392,7 +11423,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="275" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>274</v>
       </c>
@@ -11421,7 +11452,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>275</v>
       </c>
@@ -11450,7 +11481,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>276</v>
       </c>
@@ -11479,7 +11510,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="278" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>277</v>
       </c>
@@ -11511,7 +11542,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>278</v>
       </c>
@@ -11540,7 +11571,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="280" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>279</v>
       </c>
@@ -11572,7 +11603,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>280</v>
       </c>
@@ -11604,7 +11635,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="282" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>281</v>
       </c>
@@ -11636,7 +11667,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="283" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>282</v>
       </c>
@@ -11671,7 +11702,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>283</v>
       </c>
@@ -11700,7 +11731,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>284</v>
       </c>
@@ -11732,7 +11763,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>285</v>
       </c>
@@ -11767,7 +11798,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="287" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>286</v>
       </c>
@@ -11796,7 +11827,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>287</v>
       </c>
@@ -11831,7 +11862,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>288</v>
       </c>
@@ -11863,7 +11894,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>289</v>
       </c>
@@ -11895,7 +11926,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>290</v>
       </c>
@@ -11927,7 +11958,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="292" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>291</v>
       </c>
@@ -11962,7 +11993,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>292</v>
       </c>
@@ -11994,7 +12025,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>293</v>
       </c>
@@ -12041,7 +12072,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>294</v>
       </c>
@@ -12079,7 +12110,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>295</v>
       </c>
@@ -12111,7 +12142,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>296</v>
       </c>
@@ -12143,7 +12174,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>297</v>
       </c>
@@ -12178,7 +12209,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>298</v>
       </c>
@@ -12213,7 +12244,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="300" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>299</v>
       </c>
@@ -12251,7 +12282,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>300</v>
       </c>
@@ -12286,7 +12317,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>301</v>
       </c>
@@ -12324,7 +12355,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="303" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>302</v>
       </c>
@@ -12362,7 +12393,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>303</v>
       </c>
@@ -12400,7 +12431,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>304</v>
       </c>
@@ -12432,7 +12463,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="306" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>305</v>
       </c>
@@ -12464,7 +12495,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>306</v>
       </c>
@@ -12502,7 +12533,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>307</v>
       </c>
@@ -12534,7 +12565,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>308</v>
       </c>
@@ -12572,7 +12603,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>309</v>
       </c>
@@ -12604,7 +12635,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>310</v>
       </c>
@@ -12642,7 +12673,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>311</v>
       </c>
@@ -12680,7 +12711,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>312</v>
       </c>
@@ -12712,7 +12743,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="314" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>313</v>
       </c>
@@ -12750,7 +12781,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>314</v>
       </c>
@@ -12782,7 +12813,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="316" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>315</v>
       </c>
@@ -12814,7 +12845,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>316</v>
       </c>
@@ -12846,7 +12877,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>317</v>
       </c>
@@ -12878,7 +12909,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="319" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>318</v>
       </c>
@@ -12910,7 +12941,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>319</v>
       </c>
@@ -12948,7 +12979,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>320</v>
       </c>
@@ -12980,7 +13011,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>321</v>
       </c>
@@ -13009,7 +13040,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>322</v>
       </c>
@@ -13047,7 +13078,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>323</v>
       </c>
@@ -13085,7 +13116,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="325" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>324</v>
       </c>
@@ -13117,7 +13148,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>325</v>
       </c>
@@ -13149,7 +13180,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>326</v>
       </c>
@@ -13184,7 +13215,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>327</v>
       </c>
@@ -13216,7 +13247,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>328</v>
       </c>
@@ -13254,7 +13285,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>329</v>
       </c>
@@ -13283,7 +13314,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>330</v>
       </c>
@@ -13324,7 +13355,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>331</v>
       </c>
@@ -13362,7 +13393,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>332</v>
       </c>
@@ -13394,7 +13425,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>333</v>
       </c>
@@ -13423,7 +13454,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>334</v>
       </c>
@@ -13455,7 +13486,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="336" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>335</v>
       </c>
@@ -13487,7 +13518,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="337" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>336</v>
       </c>
@@ -13522,7 +13553,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="338" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>337</v>
       </c>
@@ -13560,7 +13591,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="339" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>338</v>
       </c>
@@ -13592,7 +13623,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="340" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>339</v>
       </c>
@@ -13627,7 +13658,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="341" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>340</v>
       </c>
@@ -13665,7 +13696,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="342" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>341</v>
       </c>
@@ -13694,7 +13725,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="343" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>342</v>
       </c>
@@ -13723,7 +13754,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="344" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>343</v>
       </c>
@@ -13755,7 +13786,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="345" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>344</v>
       </c>
@@ -13805,7 +13836,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="346" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>345</v>
       </c>
@@ -13855,7 +13886,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="347" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>346</v>
       </c>
@@ -13905,7 +13936,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="348" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>347</v>
       </c>
@@ -13952,7 +13983,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="349" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>348</v>
       </c>
@@ -13999,7 +14030,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="350" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>349</v>
       </c>
@@ -14046,7 +14077,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="351" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>350</v>
       </c>
@@ -14093,7 +14124,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="352" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>351</v>
       </c>
@@ -14141,18 +14172,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R352" xr:uid="{E4996F06-64E2-9640-BC5E-872CBC50CF4C}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Sindh"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Hyderabad"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R352" xr:uid="{E4996F06-64E2-9640-BC5E-872CBC50CF4C}"/>
   <hyperlinks>
     <hyperlink ref="Q352" r:id="rId1" xr:uid="{08A861F6-C165-3543-A633-030C19AC1F90}"/>
   </hyperlinks>
